--- a/EXP 9/T9.xlsx
+++ b/EXP 9/T9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAIII\EXP 9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\faculdade\3º Ano\Labs III\LABSFISICAIII\EXP 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46EF1F5-B761-4D00-A7BB-5B8B6F24558D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A28976E-DDED-4608-93C3-B43927C3D19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{CAF38A1F-BD9D-416B-BE17-8DE3D13292B8}"/>
+    <workbookView xWindow="4215" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{CAF38A1F-BD9D-416B-BE17-8DE3D13292B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Polarização" sheetId="10" r:id="rId1"/>
@@ -38,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Sem Analisador</t>
   </si>
@@ -199,12 +221,31 @@
   <si>
     <t>beta (rad)</t>
   </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <t>residuos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +268,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -336,26 +393,26 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -377,7 +434,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -388,9 +445,75 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t>Apenas com o Polarizador </a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14746555822153132"/>
+          <c:y val="0.16484444444444443"/>
+          <c:w val="0.81453730300879756"/>
+          <c:h val="0.66002974628171474"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -710,6 +833,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Ângulo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> (radianos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -744,7 +927,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1939475904"/>
@@ -772,6 +955,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>VPP (Volts)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.3776936681198119E-2"/>
+              <c:y val="0.3819037620297463"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -806,11 +1052,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -854,7 +1100,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -868,7 +1114,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -879,6 +1125,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Resíduos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -886,119 +1187,10 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ajuste</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Luz!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Luz!$D$2:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-6.5000000000000225E-8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6181818181818159E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.8863636363636341E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.1545454545454512E-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.242272727272727E-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5690909090909088E-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8959090909090905E-6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2227272727272724E-6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.5495454545454543E-6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.8763636363636358E-6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.2031818181818177E-6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6AD1-4495-92B0-6D7DED1EC39F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>grafico</c:v>
+            <c:v>residuos</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1066,42 +1258,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Luz!$B$2:$B$12</c:f>
+              <c:f>Luz!$E$2:$E$12</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2E-8</c:v>
+                  <c:v>4.9999999999999323E-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8000000000000001E-7</c:v>
+                  <c:v>1.1454545454545391E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4000000000000001E-7</c:v>
+                  <c:v>1.790909090909083E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7999999999999995E-7</c:v>
+                  <c:v>4.4363636363636501E-8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1200000000000001E-6</c:v>
+                  <c:v>-7.9181818181818298E-8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4699999999999999E-6</c:v>
+                  <c:v>-4.2727272727272722E-8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8199999999999999E-6</c:v>
+                  <c:v>-6.2727272727269355E-9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2000000000000001E-6</c:v>
+                  <c:v>9.0181818181818489E-8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5799999999999999E-6</c:v>
+                  <c:v>-9.3363636363636794E-8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9399999999999998E-6</c:v>
+                  <c:v>2.3090909090908862E-8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3100000000000001E-6</c:v>
+                  <c:v>2.9545454545454301E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,7 +1301,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6AD1-4495-92B0-6D7DED1EC39F}"/>
+              <c16:uniqueId val="{00000001-7BA0-4125-ABAF-D95F7A10CC41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1145,6 +1337,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Z</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1179,11 +1426,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701358000"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
@@ -1207,6 +1454,119 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Δ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>t osc  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>- ajuste</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1241,7 +1601,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522629536"/>
@@ -1289,7 +1649,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1303,7 +1663,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1314,20 +1674,194 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Fase</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11667871988104492"/>
+          <c:y val="0.16484444444444443"/>
+          <c:w val="0.83465828574003342"/>
+          <c:h val="0.67336307961504815"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>residuos</c:v>
+            <c:v>Ajuste</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Luz!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Luz!$C$25:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.966363636363637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.932727272727274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.899090909090908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.865454545454547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.831818181818178</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.798181818181817</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.764545454545441</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111.73090909090909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125.69727272727272</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>139.66363636363636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0F5-4187-9733-893DDD845D0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Valores Experimentais</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1341,9 +1875,7 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1392,42 +1924,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Luz!$E$2:$E$12</c:f>
+              <c:f>Luz!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>8.5000000000000218E-8</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1818181818181842E-7</c:v>
+                  <c:v>14.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.513636363636366E-7</c:v>
+                  <c:v>28.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.3545454545454517E-7</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.2227272727272697E-7</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.9090909090908854E-8</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7.5909090909090529E-8</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.2727272727272279E-8</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0454545454545548E-8</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.363636363636399E-8</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0681818181818234E-7</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1435,7 +1967,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7BA0-4125-ABAF-D95F7A10CC41}"/>
+              <c16:uniqueId val="{00000001-D0F5-4187-9733-893DDD845D0E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1471,6 +2003,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Z</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1505,7 +2092,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701358000"/>
@@ -1533,6 +2120,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>fase</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1567,7 +2209,587 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1522629536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.62791073862548297"/>
+          <c:y val="0.6740881889763779"/>
+          <c:w val="0.31772588512272876"/>
+          <c:h val="0.15000104986876642"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Resíduos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Luz!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Luz!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9336363636363636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26727272727272577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.8990909090909085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.865454545454547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1681818181818215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.798181818181817</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2354545454545587</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26909090909090594</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3027272727272816</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.6636363636363569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95C1-4B51-9AC7-2F678E14F4B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1522629536"/>
+        <c:axId val="1701358000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1522629536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Z</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1701358000"/>
+        <c:crossesAt val="-10"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1701358000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>fase</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>- ajuste</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522629536"/>
@@ -1615,7 +2837,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1626,10 +2848,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1640,14 +2862,79 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Polarizador (55</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>°</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>) e Analisador</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1673,84 +2960,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Luz!$A$2:$A$12</c:f>
+              <c:f>Polarização!$G$3:$G$21</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>1.5707963267948966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3962634015954636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2217304763960306</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0471975511965976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87266462599716477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69813170079773179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52359877559829882</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3490658503988659</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17453292519943295</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.8</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>-0.17453292519943295</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.3490658503988659</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.52359877559829882</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.69813170079773179</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.87266462599716477</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.0471975511965976</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.2217304763960306</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.3962634015954636</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.5707963267948966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Luz!$C$2:$C$12</c:f>
+              <c:f>Polarização!$I$3:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.5921052631578948</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.9</c:v>
+                  <c:v>0.76315789473684215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.2</c:v>
+                  <c:v>0.88157894736842113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>0.96710526315789469</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54</c:v>
+                  <c:v>0.97368421052631593</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65.2</c:v>
+                  <c:v>0.88815789473684215</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.8</c:v>
+                  <c:v>0.76315789473684215</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95</c:v>
+                  <c:v>0.5921052631578948</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107</c:v>
+                  <c:v>0.43421052631578949</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>120</c:v>
+                  <c:v>0.26973684210526316</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14473684210526316</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9210526315789477E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9473684210526314E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.5789473684210523E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15789473684210525</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28947368421052633</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.44736842105263158</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.61842105263157898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1758,7 +3093,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8DAE-456A-9A0C-3C26AC5DD3D2}"/>
+              <c16:uniqueId val="{00000000-C79F-4310-A89B-2B59F4F98DDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1770,11 +3105,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1522629536"/>
-        <c:axId val="1701358000"/>
+        <c:axId val="1522638656"/>
+        <c:axId val="1939475904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1522629536"/>
+        <c:axId val="1522638656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,68 +3129,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1701358000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1701358000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Ângulo (radianos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1890,11 +3226,135 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1522629536"/>
+        <c:crossAx val="1939475904"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1939475904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>VPP (Volts)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1522638656"/>
+        <c:crossesAt val="-5"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1938,7 +3398,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1949,10 +3409,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1984,8 +3444,29 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>theta A</a:t>
+              <a:t>Polarizador(-8º)</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>, Analisador e Lâmina (83</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>°</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2014,7 +3495,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2028,7 +3509,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2051,132 +3532,138 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Polarização!$G$3:$G$21</c:f>
+              <c:f>'Lâmina - 83'!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.5707963267948966</c:v>
+                  <c:v>-0.78539816339744828</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3962634015954636</c:v>
+                  <c:v>-0.6108652381980153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2217304763960306</c:v>
+                  <c:v>-0.43633231299858238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0471975511965976</c:v>
+                  <c:v>-0.26179938779914941</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87266462599716477</c:v>
+                  <c:v>-8.7266462599716474E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69813170079773179</c:v>
+                  <c:v>8.7266462599716474E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52359877559829882</c:v>
+                  <c:v>0.26179938779914941</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3490658503988659</c:v>
+                  <c:v>0.43633231299858238</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17453292519943295</c:v>
+                  <c:v>0.6108652381980153</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.78539816339744828</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.17453292519943295</c:v>
+                  <c:v>0.95993108859688125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.3490658503988659</c:v>
+                  <c:v>1.1344640137963142</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.52359877559829882</c:v>
+                  <c:v>1.3089969389957472</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.69813170079773179</c:v>
+                  <c:v>1.4835298641951802</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.87266462599716477</c:v>
+                  <c:v>1.6580627893946132</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.0471975511965976</c:v>
+                  <c:v>1.8325957145940461</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.2217304763960306</c:v>
+                  <c:v>2.0071286397934789</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.3962634015954636</c:v>
+                  <c:v>2.1816615649929121</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.5707963267948966</c:v>
+                  <c:v>2.3561944901923448</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.530727415391778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Polarização!$H$3:$H$21</c:f>
+              <c:f>'Lâmina - 83'!$C$3:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>37.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.4</c:v>
+                  <c:v>40.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.6</c:v>
+                  <c:v>42.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.8</c:v>
+                  <c:v>41.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.8</c:v>
+                  <c:v>39.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.2</c:v>
+                  <c:v>35.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54</c:v>
+                  <c:v>30.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.4</c:v>
+                  <c:v>24.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.4</c:v>
+                  <c:v>14.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.399999999999999</c:v>
+                  <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.6</c:v>
+                  <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4</c:v>
+                  <c:v>12.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.6</c:v>
+                  <c:v>22.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.600000000000001</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27.2</c:v>
+                  <c:v>33.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37.6</c:v>
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2184,7 +3671,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C79F-4310-A89B-2B59F4F98DDE}"/>
+              <c16:uniqueId val="{00000000-3C5E-4A35-B8CF-F9BBCF3406CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2197,7 +3684,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:axId val="1522638656"/>
-        <c:axId val="1939475904"/>
+        <c:axId val="1701359488"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1522638656"/>
@@ -2220,6 +3707,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Ângulo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> de Analisador (radianos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2254,15 +3801,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1939475904"/>
+        <c:crossAx val="1701359488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1939475904"/>
+        <c:axId val="1701359488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2282,6 +3829,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>VPP</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> (Volts)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2889842632331903E-2"/>
+              <c:y val="0.34779247594050744"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2316,11 +3931,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2364,433 +3979,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>theta A</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Polarização!$G$3:$G$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.5707963267948966</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3962634015954636</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2217304763960306</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0471975511965976</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.87266462599716477</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.69813170079773179</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.52359877559829882</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.3490658503988659</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.17453292519943295</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.17453292519943295</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.3490658503988659</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.52359877559829882</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.69813170079773179</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.87266462599716477</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1.0471975511965976</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1.2217304763960306</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1.3962634015954636</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1.5707963267948966</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Polarização!$I$3:$I$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.5921052631578948</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.76315789473684215</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.88157894736842113</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96710526315789469</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.97368421052631593</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.88815789473684215</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.76315789473684215</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5921052631578948</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.43421052631578949</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.26973684210526316</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.14473684210526316</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.9210526315789477E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.9473684210526314E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.5789473684210523E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.15789473684210525</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.28947368421052633</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.44736842105263158</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.61842105263157898</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3BF6-458A-9676-186B3CB9001B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1522638656"/>
-        <c:axId val="1939475904"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1522638656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1939475904"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1939475904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1522638656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2804,439 +3993,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>V (theta)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Lâmina - 83'!$B$3:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-0.78539816339744828</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.6108652381980153</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.43633231299858238</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.26179938779914941</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-8.7266462599716474E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.7266462599716474E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26179938779914941</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.43633231299858238</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6108652381980153</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.78539816339744828</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.95993108859688125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1344640137963142</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3089969389957472</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4835298641951802</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6580627893946132</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.8325957145940461</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.0071286397934789</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.1816615649929121</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.3561944901923448</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.530727415391778</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Lâmina - 83'!$C$3:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>37.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3C5E-4A35-B8CF-F9BBCF3406CE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1522638656"/>
-        <c:axId val="1701359488"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1522638656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1701359488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1701359488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1522638656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3298,7 +4055,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3493,6 +4250,7 @@
         <c:axId val="1522638656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3510,6 +4268,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Ângulo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> do Analisador (radianos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3544,7 +4362,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701359488"/>
@@ -3555,6 +4373,7 @@
         <c:axId val="1701359488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3572,6 +4391,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>P</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="-25000"/>
+                  <a:t>A</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3606,7 +4484,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
@@ -3654,7 +4532,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3665,10 +4543,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3700,8 +4578,1351 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>V (theta)</a:t>
+              <a:t>Elipse</a:t>
             </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12925348923659222"/>
+          <c:y val="0.15595555555555554"/>
+          <c:w val="0.83274937199373689"/>
+          <c:h val="0.63780752405949259"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>43</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lâmina - 43'!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.93041344951996718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93627429026988906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9498213921045725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9694207746088257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99270846299655624</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0168756183585272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0390073250888583</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0564341727266671</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0670542262539546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0695865504800328</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0637257097301109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0501786078954274</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0305792253911743</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0072915370034439</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98312438164147276</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96099267491114171</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94356582727333282</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.93294577374604537</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93041344951996729</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93627429026988906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lâmina - 43'!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7B06-4EF4-8907-91D097ABF7CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>83</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lâmina - 83'!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.2347357813929456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5425824844015315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7849857321266633</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9327081154017673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9679321346536807</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.886409253309465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6979723340088217</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4253496502521492</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1014235211828014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76526421860705485</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4574175155984686</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21501426787333663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7291884598232793E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2067865346319196E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11359074669053505</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30202766599117831</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.57465034974785045</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8985764788171986</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2347357813929452</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5425824844015319</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lâmina - 83'!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B06-4EF4-8907-91D097ABF7CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1522638656"/>
+        <c:axId val="1701359488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1522638656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Ângulo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> do Analisador (radianos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1701359488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1701359488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>P</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="-25000"/>
+                  <a:t>A</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1522638656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85372106383697732"/>
+          <c:y val="0.60649798775153108"/>
+          <c:w val="9.1915559911234276E-2"/>
+          <c:h val="0.16073700787401574"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Polarizador(55º)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>, Analisador e Lâmina</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12925371453031889"/>
+          <c:y val="0.16484444444444443"/>
+          <c:w val="0.82380926633097895"/>
+          <c:h val="0.63780752405949259"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>43</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lâmina - 43'!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.78539816339744828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.6108652381980153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.43633231299858238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.26179938779914941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.7266462599716474E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7266462599716474E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26179938779914941</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43633231299858238</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6108652381980153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78539816339744828</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95993108859688125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1344640137963142</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3089969389957472</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4835298641951802</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6580627893946132</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8325957145940461</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0071286397934789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1816615649929121</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3561944901923448</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.530727415391778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lâmina - 43'!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CDFC-4D18-B054-606664F5DB65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>83</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lâmina - 83'!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.78539816339744828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.6108652381980153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.43633231299858238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.26179938779914941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.7266462599716474E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7266462599716474E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26179938779914941</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43633231299858238</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6108652381980153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78539816339744828</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95993108859688125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1344640137963142</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3089969389957472</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4835298641951802</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6580627893946132</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8325957145940461</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0071286397934789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1816615649929121</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3561944901923448</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.530727415391778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lâmina - 83'!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CDFC-4D18-B054-606664F5DB65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1522638656"/>
+        <c:axId val="1701359488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1522638656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Ângulo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> de Analisador (radianos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1701359488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1701359488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>VPP</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> (Volts)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2889842632331903E-2"/>
+              <c:y val="0.34779247594050744"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1522638656"/>
+        <c:crossesAt val="-100"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8422761425208114"/>
+          <c:y val="0.61983132108486449"/>
+          <c:w val="9.4776790240275757E-2"/>
+          <c:h val="0.16073700787401574"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Polarizador(-8º)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>, Analisador e Lâmina (43</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>°</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3730,7 +5951,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3906,7 +6127,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F341-480F-B25A-0B69B37533BB}"/>
+              <c16:uniqueId val="{00000000-E537-4C12-8A2E-9A82B2B66B8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3942,6 +6163,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Ângulo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> de Analisador (radianos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3976,7 +6257,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701359488"/>
@@ -4004,6 +6285,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>VPP</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> (Volts)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2889842632331903E-2"/>
+              <c:y val="0.34779247594050744"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4038,11 +6387,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -4086,7 +6435,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4097,10 +6446,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4162,7 +6511,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4338,7 +6687,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-61BC-4C0A-B9E4-10B25345CE7E}"/>
+              <c16:uniqueId val="{00000000-3E25-4AA2-88FD-A20699D7E3D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4374,6 +6723,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Ângulo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> do Analisador (radianos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4408,7 +6817,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701359488"/>
@@ -4419,6 +6828,7 @@
         <c:axId val="1701359488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4436,6 +6846,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>P</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="-25000"/>
+                  <a:t>A</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4470,7 +6939,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
@@ -4518,7 +6987,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4529,10 +6998,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4563,9 +7032,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Elipse</a:t>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Tempo</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> ??</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4577,162 +7051,141 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19107070843612359"/>
+          <c:y val="0.16484444444444443"/>
+          <c:w val="0.76026629718495486"/>
+          <c:h val="0.6644741907261591"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>43</c:v>
+            <c:v>ajuste</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Lâmina - 43'!$D$3:$D$22</c:f>
+              <c:f>Luz!$A$2:$A$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.93041344951996718</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93627429026988906</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9498213921045725</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9694207746088257</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99270846299655624</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0168756183585272</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0390073250888583</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0564341727266671</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0670542262539546</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0695865504800328</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0637257097301109</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0501786078954274</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0305792253911743</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0072915370034439</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.98312438164147276</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.96099267491114171</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.94356582727333282</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.93294577374604537</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.93041344951996729</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.93627429026988906</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Lâmina - 43'!$C$3:$C$22</c:f>
+              <c:f>Luz!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>14.4</c:v>
+                  <c:v>1.5000000000000068E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.399999999999999</c:v>
+                  <c:v>3.6854545454545462E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.4</c:v>
+                  <c:v>7.2209090909090918E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.2</c:v>
+                  <c:v>1.0756363636363636E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.799999999999997</c:v>
+                  <c:v>1.4291818181818183E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.799999999999997</c:v>
+                  <c:v>1.7827272727272728E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.6</c:v>
+                  <c:v>2.1362727272727269E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.4</c:v>
+                  <c:v>2.4898181818181814E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.2</c:v>
+                  <c:v>2.8433636363636367E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.4</c:v>
+                  <c:v>3.1969090909090912E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.2</c:v>
+                  <c:v>3.5504545454545457E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4740,18 +7193,18 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DBF3-4F3F-AA87-DB85A16BB36E}"/>
+              <c16:uniqueId val="{00000000-6AD1-4495-92B0-6D7DED1EC39F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>83</c:v>
+            <c:v>grafico</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -4774,138 +7227,84 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Lâmina - 83'!$D$3:$D$22</c:f>
+              <c:f>Luz!$A$2:$A$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.2347357813929456</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5425824844015315</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7849857321266633</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9327081154017673</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9679321346536807</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.886409253309465</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6979723340088217</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4253496502521492</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1014235211828014</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.76526421860705485</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4574175155984686</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.21501426787333663</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.7291884598232793E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2067865346319196E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11359074669053505</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.30202766599117831</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.57465034974785045</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.8985764788171986</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.2347357813929452</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5425824844015319</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Lâmina - 83'!$C$3:$C$22</c:f>
+              <c:f>Luz!$B$2:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>37.6</c:v>
+                  <c:v>2E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.4</c:v>
+                  <c:v>3.8000000000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.4</c:v>
+                  <c:v>7.4000000000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.6</c:v>
+                  <c:v>1.1200000000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.200000000000003</c:v>
+                  <c:v>1.35E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.200000000000003</c:v>
+                  <c:v>1.7400000000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.4</c:v>
+                  <c:v>2.1299999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.8</c:v>
+                  <c:v>2.5799999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>2.7499999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.4</c:v>
+                  <c:v>3.2200000000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41.6</c:v>
+                  <c:v>3.58E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4913,7 +7312,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DBF3-4F3F-AA87-DB85A16BB36E}"/>
+              <c16:uniqueId val="{00000001-6AD1-4495-92B0-6D7DED1EC39F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4925,11 +7324,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1522638656"/>
-        <c:axId val="1701359488"/>
+        <c:axId val="1522629536"/>
+        <c:axId val="1701358000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1522638656"/>
+        <c:axId val="1522629536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4949,6 +7348,182 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Z</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1701358000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1701358000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>Δ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>t osc</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4983,81 +7558,92 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1701359488"/>
+        <c:crossAx val="1522629536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="1701359488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7738334854065988"/>
+          <c:y val="0.64297707786526681"/>
+          <c:w val="0.15642283844954163"/>
+          <c:h val="0.15090648880157587"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1522638656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -5065,554 +7651,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>V (theta)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>43</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Lâmina - 43'!$B$3:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-0.78539816339744828</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.6108652381980153</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.43633231299858238</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.26179938779914941</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-8.7266462599716474E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.7266462599716474E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26179938779914941</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.43633231299858238</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6108652381980153</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.78539816339744828</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.95993108859688125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1344640137963142</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3089969389957472</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4835298641951802</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6580627893946132</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.8325957145940461</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.0071286397934789</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.1816615649929121</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.3561944901923448</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.530727415391778</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Lâmina - 43'!$C$3:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2752-423F-9292-64923171DE53}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>83</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Lâmina - 83'!$B$3:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-0.78539816339744828</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.6108652381980153</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.43633231299858238</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.26179938779914941</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-8.7266462599716474E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.7266462599716474E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26179938779914941</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.43633231299858238</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6108652381980153</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.78539816339744828</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.95993108859688125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1344640137963142</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3089969389957472</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4835298641951802</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6580627893946132</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.8325957145940461</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.0071286397934789</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.1816615649929121</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.3561944901923448</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.530727415391778</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Lâmina - 83'!$C$3:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>37.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2752-423F-9292-64923171DE53}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1522638656"/>
-        <c:axId val="1701359488"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1522638656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1701359488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1701359488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1522638656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11188,15 +13227,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>519525</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>155850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11224,15 +13263,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>329565</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>32385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>43815</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>32385</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11254,44 +13293,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88715AF4-2D20-4662-AD49-EE864979F12E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11340,16 +13341,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11383,23 +13384,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ACFC8F4-82EF-437F-9152-7F0DCF63CF72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED3FA03-40D3-4867-906C-21759C28A3DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11422,22 +13423,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F4C0DF5-928F-44D8-96AA-D910B123FBFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C31C3870-7866-4DC2-87E4-3895C532C804}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11459,23 +13460,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="6" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED3FA03-40D3-4867-906C-21759C28A3DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E2151F-8F62-45EB-84E4-8003769226E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11498,22 +13499,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="8" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C31C3870-7866-4DC2-87E4-3895C532C804}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B01674AA-839E-4764-BBC5-446B945085F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11541,15 +13542,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:colOff>207645</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11659,22 +13660,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="8" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5280D15A-B45D-4790-8842-C068927889BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55574DCD-B730-49E2-B4ED-4A08D0BD6344}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11694,11 +13695,49 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77578F83-B316-4D7A-9C17-629D5DA97068}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11996,30 +14035,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C756C681-8152-40A3-AC76-807F44F66683}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="13" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -12044,12 +14083,12 @@
       <c r="I2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="12"/>
+      <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>95</v>
       </c>
@@ -12064,6 +14103,7 @@
         <f>C3/$C$11</f>
         <v>0.69747899159663873</v>
       </c>
+      <c r="E3" s="15"/>
       <c r="F3" s="2">
         <v>90</v>
       </c>
@@ -12078,10 +14118,10 @@
         <f>H3/$H$7</f>
         <v>0.5921052631578948</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="12"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>90</v>
       </c>
@@ -12110,10 +14150,10 @@
         <f t="shared" ref="I4:I21" si="3">H4/$H$7</f>
         <v>0.76315789473684215</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="12"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>85</v>
       </c>
@@ -12142,10 +14182,10 @@
         <f t="shared" si="3"/>
         <v>0.88157894736842113</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="12"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>80</v>
       </c>
@@ -12174,10 +14214,10 @@
         <f t="shared" si="3"/>
         <v>0.96710526315789469</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="12"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>75</v>
       </c>
@@ -12207,7 +14247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>70</v>
       </c>
@@ -12237,7 +14277,7 @@
         <v>0.97368421052631593</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>65</v>
       </c>
@@ -12267,7 +14307,7 @@
         <v>0.88815789473684215</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>60</v>
       </c>
@@ -12297,15 +14337,15 @@
         <v>0.76315789473684215</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>55</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <f t="shared" si="0"/>
         <v>0.95993108859688125</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>95.2</v>
       </c>
       <c r="D11" s="2">
@@ -12327,7 +14367,7 @@
         <v>0.5921052631578948</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>50</v>
       </c>
@@ -12357,7 +14397,7 @@
         <v>0.43421052631578949</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45</v>
       </c>
@@ -12387,7 +14427,7 @@
         <v>0.26973684210526316</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>40</v>
       </c>
@@ -12417,7 +14457,7 @@
         <v>0.14473684210526316</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>35</v>
       </c>
@@ -12447,7 +14487,7 @@
         <v>5.9210526315789477E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>30</v>
       </c>
@@ -12477,7 +14517,7 @@
         <v>3.9473684210526314E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>25</v>
       </c>
@@ -12507,7 +14547,7 @@
         <v>6.5789473684210523E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>20</v>
       </c>
@@ -12537,7 +14577,7 @@
         <v>0.15789473684210525</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -12567,7 +14607,7 @@
         <v>0.28947368421052633</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>10</v>
       </c>
@@ -12597,7 +14637,7 @@
         <v>0.44736842105263158</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -12627,7 +14667,7 @@
         <v>0.61842105263157898</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -12643,7 +14683,7 @@
         <v>0.50420168067226889</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>-5</v>
       </c>
@@ -12659,7 +14699,7 @@
         <v>0.45378151260504201</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>-10</v>
       </c>
@@ -12675,7 +14715,7 @@
         <v>0.37815126050420167</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>-15</v>
       </c>
@@ -12691,7 +14731,7 @@
         <v>0.34453781512605036</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>-20</v>
       </c>
@@ -12707,7 +14747,7 @@
         <v>0.31932773109243695</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>-25</v>
       </c>
@@ -12723,7 +14763,7 @@
         <v>0.29831932773109243</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>-30</v>
       </c>
@@ -12739,15 +14779,15 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
         <v>-35</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="9">
         <f t="shared" si="0"/>
         <v>-0.6108652381980153</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="9">
         <v>27.2</v>
       </c>
       <c r="D29" s="2">
@@ -12755,7 +14795,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>-40</v>
       </c>
@@ -12771,7 +14811,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>-45</v>
       </c>
@@ -12787,7 +14827,7 @@
         <v>0.29831932773109243</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>-50</v>
       </c>
@@ -12803,7 +14843,7 @@
         <v>0.31092436974789917</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>-55</v>
       </c>
@@ -12819,7 +14859,7 @@
         <v>0.34453781512605036</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>-60</v>
       </c>
@@ -12835,7 +14875,7 @@
         <v>0.38655462184873945</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>-65</v>
       </c>
@@ -12851,7 +14891,7 @@
         <v>0.43697478991596639</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>-70</v>
       </c>
@@ -12867,7 +14907,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>-75</v>
       </c>
@@ -12883,7 +14923,7 @@
         <v>0.55462184873949572</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>-80</v>
       </c>
@@ -12899,7 +14939,7 @@
         <v>0.60504201680672265</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>-85</v>
       </c>
@@ -12915,7 +14955,7 @@
         <v>0.67226890756302515</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>-90</v>
       </c>
@@ -12931,7 +14971,7 @@
         <v>0.72689075630252098</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>-95</v>
       </c>
@@ -12962,24 +15002,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF3B386-072D-4DD8-952A-56344A1D5722}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -12990,10 +15030,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>-45</v>
       </c>
@@ -13008,13 +15048,13 @@
         <f>COS(B3)^2+COS(2*$G$10-B3)^2</f>
         <v>1.2347357813929456</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>-35</v>
       </c>
@@ -13029,11 +15069,11 @@
         <f t="shared" ref="D4:D22" si="1">COS(B4)^2+COS(2*$G$10-B4)^2</f>
         <v>1.5425824844015315</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>-25</v>
       </c>
@@ -13048,11 +15088,11 @@
         <f t="shared" si="1"/>
         <v>1.7849857321266633</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>-15</v>
       </c>
@@ -13067,11 +15107,11 @@
         <f t="shared" si="1"/>
         <v>1.9327081154017673</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>-5</v>
       </c>
@@ -13086,11 +15126,11 @@
         <f t="shared" si="1"/>
         <v>1.9679321346536807</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -13106,7 +15146,7 @@
         <v>1.886409253309465</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>15</v>
       </c>
@@ -13128,7 +15168,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>25</v>
       </c>
@@ -13151,7 +15191,7 @@
         <v>1.4486232791552935</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>35</v>
       </c>
@@ -13167,7 +15207,7 @@
         <v>1.1014235211828014</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45</v>
       </c>
@@ -13183,7 +15223,7 @@
         <v>0.76526421860705485</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>55</v>
       </c>
@@ -13199,7 +15239,7 @@
         <v>0.4574175155984686</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>65</v>
       </c>
@@ -13215,7 +15255,7 @@
         <v>0.21501426787333663</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>75</v>
       </c>
@@ -13231,7 +15271,7 @@
         <v>6.7291884598232793E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>85</v>
       </c>
@@ -13247,7 +15287,7 @@
         <v>3.2067865346319196E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>95</v>
       </c>
@@ -13263,7 +15303,7 @@
         <v>0.11359074669053505</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>105</v>
       </c>
@@ -13279,7 +15319,7 @@
         <v>0.30202766599117831</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>115</v>
       </c>
@@ -13295,7 +15335,7 @@
         <v>0.57465034974785045</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>125</v>
       </c>
@@ -13311,7 +15351,7 @@
         <v>0.8985764788171986</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>135</v>
       </c>
@@ -13327,7 +15367,7 @@
         <v>1.2347357813929452</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>145</v>
       </c>
@@ -13349,7 +15389,8 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13357,24 +15398,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5302B7-50F8-4784-AFBC-5E3A2AEE181A}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -13388,7 +15429,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>-45</v>
       </c>
@@ -13403,13 +15444,13 @@
         <f>COS(B3)^2+COS(2*$G$10-B3)^2</f>
         <v>0.93041344951996718</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>-35</v>
       </c>
@@ -13424,11 +15465,11 @@
         <f t="shared" ref="D4:D22" si="1">COS(B4)^2+COS(2*$G$10-B4)^2</f>
         <v>0.93627429026988906</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>-25</v>
       </c>
@@ -13443,11 +15484,11 @@
         <f t="shared" si="1"/>
         <v>0.9498213921045725</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>-15</v>
       </c>
@@ -13462,11 +15503,11 @@
         <f t="shared" si="1"/>
         <v>0.9694207746088257</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>-5</v>
       </c>
@@ -13481,11 +15522,11 @@
         <f t="shared" si="1"/>
         <v>0.99270846299655624</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -13501,7 +15542,7 @@
         <v>1.0168756183585272</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>15</v>
       </c>
@@ -13523,7 +15564,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>25</v>
       </c>
@@ -13546,7 +15587,7 @@
         <v>0.75049157835756175</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>35</v>
       </c>
@@ -13562,7 +15603,7 @@
         <v>1.0670542262539546</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45</v>
       </c>
@@ -13578,7 +15619,7 @@
         <v>1.0695865504800328</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>55</v>
       </c>
@@ -13594,7 +15635,7 @@
         <v>1.0637257097301109</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>65</v>
       </c>
@@ -13610,7 +15651,7 @@
         <v>1.0501786078954274</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>75</v>
       </c>
@@ -13626,7 +15667,7 @@
         <v>1.0305792253911743</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>85</v>
       </c>
@@ -13642,7 +15683,7 @@
         <v>1.0072915370034439</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>95</v>
       </c>
@@ -13658,7 +15699,7 @@
         <v>0.98312438164147276</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>105</v>
       </c>
@@ -13674,7 +15715,7 @@
         <v>0.96099267491114171</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>115</v>
       </c>
@@ -13690,7 +15731,7 @@
         <v>0.94356582727333282</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>125</v>
       </c>
@@ -13706,7 +15747,7 @@
         <v>0.93294577374604537</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>135</v>
       </c>
@@ -13722,7 +15763,7 @@
         <v>0.93041344951996729</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>145</v>
       </c>
@@ -13750,24 +15791,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD30DFD-D638-43EC-8030-F74C3758638B}">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="8.88671875" style="1"/>
+    <col min="4" max="17" width="8.85546875" style="1"/>
     <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="1"/>
-    <col min="20" max="20" width="11.5546875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="1"/>
+    <col min="19" max="19" width="8.85546875" style="1"/>
+    <col min="20" max="20" width="11.5703125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -13783,8 +15825,11 @@
       <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -13796,18 +15841,22 @@
       </c>
       <c r="D2" s="2">
         <f>A2*$H$3+$I$3</f>
-        <v>-6.5000000000000225E-8</v>
-      </c>
-      <c r="E2" s="2">
+        <v>1.5000000000000068E-8</v>
+      </c>
+      <c r="E2" s="5">
         <f>B2-D2</f>
-        <v>8.5000000000000218E-8</v>
-      </c>
-      <c r="G2" s="9" t="s">
+        <v>4.9999999999999323E-9</v>
+      </c>
+      <c r="F2" s="1">
+        <f>C2-C25</f>
+        <v>0.7</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
       <c r="L2" s="4" t="s">
         <v>20</v>
       </c>
@@ -13824,7 +15873,7 @@
       </c>
       <c r="R2" s="2">
         <f>M2*M4/H3</f>
-        <v>367176634.21418637</v>
+        <v>339418873.74646437</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>31</v>
@@ -13833,7 +15882,7 @@
         <v>299702547</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>0.2</v>
       </c>
@@ -13845,21 +15894,25 @@
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D12" si="0">A3*$H$3+$I$3</f>
-        <v>2.6181818181818159E-7</v>
+        <v>3.6854545454545462E-7</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E12" si="1">B3-D3</f>
-        <v>1.1818181818181842E-7</v>
+        <v>1.1454545454545391E-8</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F12" si="2">C3-C26</f>
+        <v>0.9336363636363636</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="2">
         <f t="array" ref="H3:I5">LINEST(B2:B12,A2:A12,1,1)</f>
-        <v>1.634090909090909E-6</v>
+        <v>1.7677272727272727E-6</v>
       </c>
       <c r="I3" s="2">
-        <v>-6.5000000000000225E-8</v>
+        <v>1.5000000000000068E-8</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>15</v>
@@ -13880,10 +15933,10 @@
       </c>
       <c r="R3" s="2">
         <f>SQRT((M4/H3*O2)^2+(M2/H3*O4)^2+(M2*M4/(H3^2)*H4)^2)</f>
-        <v>13689144.941653872</v>
+        <v>5181273.6907073669</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>0.4</v>
       </c>
@@ -13895,20 +15948,24 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>5.8863636363636341E-7</v>
+        <v>7.2209090909090918E-7</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>1.513636363636366E-7</v>
+        <v>1.790909090909083E-8</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.26727272727272577</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="2">
-        <v>6.0922469509145365E-8</v>
+        <v>2.698458901071382E-8</v>
       </c>
       <c r="I4" s="2">
-        <v>7.208443803991153E-8</v>
+        <v>3.1928596300307218E-8</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>16</v>
@@ -13932,35 +15989,39 @@
       </c>
       <c r="R4" s="6">
         <f>R3/R2</f>
-        <v>3.7282178837307327E-2</v>
+        <v>1.5265131350879509E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>0.6</v>
       </c>
       <c r="B5" s="5">
-        <v>6.7999999999999995E-7</v>
+        <v>1.1200000000000001E-6</v>
       </c>
       <c r="C5" s="2">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>9.1545454545454512E-7</v>
+        <v>1.0756363636363636E-6</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>-2.3545454545454517E-7</v>
+        <v>4.4363636363636501E-8</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.8990909090909085</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="2">
-        <v>0.98764491009269662</v>
+        <v>0.99790717100245185</v>
       </c>
       <c r="I5" s="2">
-        <v>1.2779205014713585E-7</v>
+        <v>5.6603351437343383E-8</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>17</v>
@@ -13984,140 +16045,288 @@
       </c>
       <c r="R5" s="6">
         <f>ABS(R2-T2)/T2</f>
-        <v>0.22513684948492069</v>
+        <v>0.13251914988384925</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>0.8</v>
       </c>
       <c r="B6" s="5">
-        <v>1.1200000000000001E-6</v>
+        <v>1.35E-6</v>
       </c>
       <c r="C6" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>1.242272727272727E-6</v>
+        <v>1.4291818181818183E-6</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>-1.2227272727272697E-7</v>
+        <v>-7.9181818181818298E-8</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.865454545454547</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
       <c r="B7" s="5">
-        <v>1.4699999999999999E-6</v>
+        <v>1.7400000000000001E-6</v>
       </c>
       <c r="C7" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>1.5690909090909088E-6</v>
+        <v>1.7827272727272728E-6</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>-9.9090909090908854E-8</v>
+        <v>-4.2727272727272722E-8</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1681818181818215</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>1.2</v>
       </c>
       <c r="B8" s="5">
-        <v>1.8199999999999999E-6</v>
+        <v>2.1299999999999999E-6</v>
       </c>
       <c r="C8" s="2">
-        <v>65.2</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>1.8959090909090905E-6</v>
+        <v>2.1362727272727269E-6</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>-7.5909090909090529E-8</v>
+        <v>-6.2727272727269355E-9</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.798181818181817</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1.4</v>
       </c>
       <c r="B9" s="5">
-        <v>2.2000000000000001E-6</v>
+        <v>2.5799999999999999E-6</v>
       </c>
       <c r="C9" s="2">
-        <v>79.8</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>2.2227272727272724E-6</v>
+        <v>2.4898181818181814E-6</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>-2.2727272727272279E-8</v>
+        <v>9.0181818181818489E-8</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2354545454545587</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1.6</v>
       </c>
       <c r="B10" s="5">
-        <v>2.5799999999999999E-6</v>
+        <v>2.7499999999999999E-6</v>
       </c>
       <c r="C10" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>2.5495454545454543E-6</v>
+        <v>2.8433636363636367E-6</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>3.0454545454545548E-8</v>
+        <v>-9.3363636363636794E-8</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.26909090909090594</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>1.8</v>
       </c>
       <c r="B11" s="5">
-        <v>2.9399999999999998E-6</v>
+        <v>3.2200000000000001E-6</v>
       </c>
       <c r="C11" s="2">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>2.8763636363636358E-6</v>
+        <v>3.1969090909090912E-6</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>6.363636363636399E-8</v>
+        <v>2.3090909090908862E-8</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3027272727272816</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="5">
-        <v>3.3100000000000001E-6</v>
+        <v>3.58E-6</v>
       </c>
       <c r="C12" s="2">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>3.2031818181818177E-6</v>
+        <v>3.5504545454545457E-6</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>1.0681818181818234E-7</v>
+        <v>2.9545454545454301E-8</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.6636363636363569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <f t="array" ref="B14">LINEST(B2:B4,A2:A4,1,1)</f>
+        <v>1.7999999999999993E-6</v>
+      </c>
+      <c r="C14" s="1" cm="1">
+        <f t="array" ref="C14:C24">A2:A12*B14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>3.5999999999999989E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>7.1999999999999978E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>1.0799999999999996E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>1.4399999999999996E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>1.7999999999999993E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>2.1599999999999992E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>2.5199999999999987E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>2.8799999999999991E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>3.2399999999999986E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>3.5999999999999986E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <f t="array" ref="B25">LINEST(C2:C12,A2:A12,1,1)</f>
+        <v>69.831818181818178</v>
+      </c>
+      <c r="C25" s="1" cm="1">
+        <f t="array" ref="C25:C35">A2:A12*B25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>13.966363636363637</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>27.932727272727274</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>41.899090909090908</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>55.865454545454547</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>69.831818181818178</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>83.798181818181817</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>97.764545454545441</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>111.73090909090909</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>125.69727272727272</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>139.66363636363636</v>
       </c>
     </row>
   </sheetData>

--- a/EXP 9/T9.xlsx
+++ b/EXP 9/T9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\faculdade\3º Ano\Labs III\LABSFISICAIII\EXP 9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAIII\EXP 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A28976E-DDED-4608-93C3-B43927C3D19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6172BC0F-639F-43D0-991A-EB342A7F01C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{CAF38A1F-BD9D-416B-BE17-8DE3D13292B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAF38A1F-BD9D-416B-BE17-8DE3D13292B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Polarização" sheetId="10" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Sem Analisador</t>
   </si>
@@ -240,12 +240,79 @@
   <si>
     <t>residuos</t>
   </si>
+  <si>
+    <r>
+      <t>cos</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Δθ)</t>
+    </r>
+  </si>
+  <si>
+    <t>Correção de 5º para a esquerda</t>
+  </si>
+  <si>
+    <t>Grau Polarização</t>
+  </si>
+  <si>
+    <t>r2 entre experimental e teórico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Δθ </t>
+  </si>
+  <si>
+    <t>c correção</t>
+  </si>
+  <si>
+    <r>
+      <t>cos</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Δθ) c correção</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +356,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -316,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -358,16 +458,33 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,23 +513,47 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,7 +575,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -497,7 +638,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -889,7 +1030,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -927,7 +1068,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1939475904"/>
@@ -1014,7 +1155,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1052,7 +1193,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
@@ -1100,7 +1241,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1114,7 +1255,1804 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Polarizador(-8º)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>, Analisador e Lâmina (43</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>°</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lâmina - 43'!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.78539816339744828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.6108652381980153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.43633231299858238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.26179938779914941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.7266462599716474E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7266462599716474E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26179938779914941</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43633231299858238</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6108652381980153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78539816339744828</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95993108859688125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1344640137963142</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3089969389957472</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4835298641951802</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6580627893946132</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8325957145940461</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0071286397934789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1816615649929121</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3561944901923448</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.530727415391778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lâmina - 43'!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E537-4C12-8A2E-9A82B2B66B8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1522638656"/>
+        <c:axId val="1701359488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1522638656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Ângulo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> de Analisador (radianos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1701359488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1701359488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>VPP</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> (Volts)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2889842632331903E-2"/>
+              <c:y val="0.34779247594050744"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1522638656"/>
+        <c:crossesAt val="-100"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Elipse</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lâmina - 43'!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.93041344951996718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93627429026988906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9498213921045725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9694207746088257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99270846299655624</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0168756183585272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0390073250888583</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0564341727266671</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0670542262539546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0695865504800328</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0637257097301109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0501786078954274</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0305792253911743</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0072915370034439</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98312438164147276</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96099267491114171</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94356582727333282</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.93294577374604537</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93041344951996729</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93627429026988906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lâmina - 43'!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E25-4AA2-88FD-A20699D7E3D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1522638656"/>
+        <c:axId val="1701359488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1522638656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Ângulo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> do Analisador (radianos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1701359488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1701359488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>P</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="-25000"/>
+                  <a:t>A</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1522638656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Tempo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> ??</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19107070843612359"/>
+          <c:y val="0.16484444444444443"/>
+          <c:w val="0.76026629718495486"/>
+          <c:h val="0.6644741907261591"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ajuste</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Luz!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Luz!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.5000000000000068E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6854545454545462E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2209090909090918E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0756363636363636E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4291818181818183E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7827272727272728E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1362727272727269E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4898181818181814E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8433636363636367E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1969090909090912E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5504545454545457E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6AD1-4495-92B0-6D7DED1EC39F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>grafico</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Luz!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Luz!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8000000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4000000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1200000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.35E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7400000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1299999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5799999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7499999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2200000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.58E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6AD1-4495-92B0-6D7DED1EC39F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1522629536"/>
+        <c:axId val="1701358000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1522629536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Z</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1701358000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1701358000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>Δ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>t osc</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1522629536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7738334854065988"/>
+          <c:y val="0.64297707786526681"/>
+          <c:w val="0.15642283844954163"/>
+          <c:h val="0.15090648880157587"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1176,7 +3114,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1262,7 +3200,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00E+00">
                   <c:v>4.9999999999999323E-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1388,7 +3326,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1426,7 +3364,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701358000"/>
@@ -1563,11 +3501,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1601,7 +3539,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522629536"/>
@@ -1649,7 +3587,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1660,10 +3598,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1725,7 +3663,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2054,7 +3992,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2092,7 +4030,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701358000"/>
@@ -2171,7 +4109,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2209,7 +4147,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522629536"/>
@@ -2265,7 +4203,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2302,7 +4240,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2313,10 +4251,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2378,7 +4316,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2587,7 +4525,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2625,7 +4563,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701358000"/>
@@ -2751,7 +4689,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2789,7 +4727,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522629536"/>
@@ -2837,7 +4775,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2851,7 +4789,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2923,7 +4861,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2960,75 +4898,75 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Polarização!$G$3:$G$21</c:f>
+              <c:f>Polarização!$H$3:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.5707963267948966</c:v>
+                  <c:v>0.6108652381980153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3962634015954636</c:v>
+                  <c:v>0.43633231299858233</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2217304763960306</c:v>
+                  <c:v>0.26179938779914935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0471975511965976</c:v>
+                  <c:v>8.7266462599716377E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87266462599716477</c:v>
+                  <c:v>-8.7266462599716488E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69813170079773179</c:v>
+                  <c:v>-0.26179938779914946</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52359877559829882</c:v>
+                  <c:v>-0.43633231299858244</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3490658503988659</c:v>
+                  <c:v>-0.6108652381980153</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17453292519943295</c:v>
+                  <c:v>-0.78539816339744828</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-0.95993108859688125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.17453292519943295</c:v>
+                  <c:v>-1.1344640137963142</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.3490658503988659</c:v>
+                  <c:v>-1.3089969389957472</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.52359877559829882</c:v>
+                  <c:v>-1.4835298641951802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.69813170079773179</c:v>
+                  <c:v>-1.6580627893946129</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.87266462599716477</c:v>
+                  <c:v>-1.8325957145940461</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.0471975511965976</c:v>
+                  <c:v>-2.0071286397934789</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.2217304763960306</c:v>
+                  <c:v>-2.1816615649929121</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.3962634015954636</c:v>
+                  <c:v>-2.3561944901923448</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.5707963267948966</c:v>
+                  <c:v>-2.5307274153917776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Polarização!$I$3:$I$21</c:f>
+              <c:f>Polarização!$K$3:$K$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0.5921052631578948</c:v>
@@ -3188,7 +5126,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3226,7 +5164,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1939475904"/>
@@ -3282,7 +5220,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>VPP (Volts)</a:t>
+                  <a:t>VPP/VPPmax (s.u.)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3312,11 +5250,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3350,7 +5288,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
@@ -3398,7 +5336,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3412,7 +5350,1878 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Lei de Malus</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>teórico</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Polarização!$H$3:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.6108652381980153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43633231299858233</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26179938779914935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7266462599716377E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.7266462599716488E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.26179938779914946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.43633231299858244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.6108652381980153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.78539816339744828</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.95993108859688125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.1344640137963142</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.3089969389957472</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.4835298641951802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.6580627893946129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8325957145940461</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.0071286397934789</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.1816615649929121</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.3561944901923448</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.5307274153917776</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Polarização!$L$3:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.67101007166283433</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82139380484326963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93301270189221941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99240387650610407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99240387650610407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93301270189221941</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82139380484326963</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67101007166283433</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32898992833716573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17860619515673035</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.698729810778066E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.5961234938959638E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5961234938959421E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6987298107780716E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17860619515673024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32898992833716573</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.49999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.671010071662834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5FF5-42B2-A917-B1D84562818B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1522638656"/>
+        <c:axId val="1939475904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1522638656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Ângulo (radianos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1939475904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1939475904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>VPP/VPPmax (s.u.)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1522638656"/>
+        <c:crossesAt val="-5"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Teórico e Experimental</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> sem correção</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15640169460145284"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.82069374108319448"/>
+          <c:h val="0.63401246719160109"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>teorico</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Polarização!$H$3:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.6108652381980153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43633231299858233</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26179938779914935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7266462599716377E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.7266462599716488E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.26179938779914946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.43633231299858244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.6108652381980153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.78539816339744828</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.95993108859688125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.1344640137963142</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.3089969389957472</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.4835298641951802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.6580627893946129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8325957145940461</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.0071286397934789</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.1816615649929121</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.3561944901923448</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.5307274153917776</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Polarização!$L$3:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.67101007166283433</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82139380484326963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93301270189221941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99240387650610407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99240387650610407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93301270189221941</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82139380484326963</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67101007166283433</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32898992833716573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17860619515673035</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.698729810778066E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.5961234938959638E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5961234938959421E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6987298107780716E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17860619515673024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32898992833716573</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.49999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.671010071662834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-10E7-4B6C-9914-6145C7FE05D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>experimental</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Polarização!$H$3:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.6108652381980153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43633231299858233</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26179938779914935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7266462599716377E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.7266462599716488E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.26179938779914946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.43633231299858244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.6108652381980153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.78539816339744828</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.95993108859688125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.1344640137963142</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.3089969389957472</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.4835298641951802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.6580627893946129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8325957145940461</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.0071286397934789</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.1816615649929121</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.3561944901923448</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.5307274153917776</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Polarização!$K$3:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.5921052631578948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76315789473684215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88157894736842113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96710526315789469</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97368421052631593</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88815789473684215</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76315789473684215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5921052631578948</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43421052631578949</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26973684210526316</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14473684210526316</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9210526315789477E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9473684210526314E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.5789473684210523E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15789473684210525</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28947368421052633</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.44736842105263158</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.61842105263157898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-10E7-4B6C-9914-6145C7FE05D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1522638656"/>
+        <c:axId val="1939475904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1522638656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Ângulo (radianos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1939475904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1939475904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>VPP/VPPmax (s.u.)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1522638656"/>
+        <c:crossesAt val="-5"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30026333845198816"/>
+          <c:y val="0.20352799650043746"/>
+          <c:w val="0.23228302893673561"/>
+          <c:h val="0.16919685039370078"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Teórico e Experimental</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> com correção</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15640169460145284"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.82069374108319448"/>
+          <c:h val="0.63401246719160109"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Polarização!$I$3:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.69813170079773179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52359877559829882</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34906585039886584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17453292519943286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.17453292519943298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.34906585039886595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.52359877559829893</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.69813170079773179</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.87266462599716477</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.0471975511965976</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.2217304763960306</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.3962634015954636</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.5707963267948966</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.7453292519943295</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.9198621771937625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.0943951023931953</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.2689280275926285</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.4434609527920612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Polarização!$M$3:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.58682408883346515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88302222155948906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9698463103929541</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9698463103929541</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88302222155948884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58682408883346515</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41317591116653485</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11697777844051105</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0153689607045831E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7524718414124473E-33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0153689607045793E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11697777844051097</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24999999999999978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.41317591116653485</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.58682408883346493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05B6-4C07-A133-F1C584541EF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Polarização!$I$3:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.69813170079773179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52359877559829882</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34906585039886584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17453292519943286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.17453292519943298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.34906585039886595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.52359877559829893</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.69813170079773179</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.87266462599716477</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.0471975511965976</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.2217304763960306</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.3962634015954636</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.5707963267948966</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.7453292519943295</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.9198621771937625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.0943951023931953</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.2689280275926285</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.4434609527920612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Polarização!$K$3:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.5921052631578948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76315789473684215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88157894736842113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96710526315789469</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97368421052631593</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88815789473684215</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76315789473684215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5921052631578948</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43421052631578949</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26973684210526316</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14473684210526316</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9210526315789477E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9473684210526314E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.5789473684210523E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15789473684210525</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28947368421052633</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.44736842105263158</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.61842105263157898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-05B6-4C07-A133-F1C584541EF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1522638656"/>
+        <c:axId val="1939475904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1522638656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Ângulo (radianos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1939475904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1939475904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>VPP/VPPmax (s.u.)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1522638656"/>
+        <c:crossesAt val="-5"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30026333845198816"/>
+          <c:y val="0.20352799650043746"/>
+          <c:w val="0.23228302893673561"/>
+          <c:h val="0.16743438320209975"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3495,7 +7304,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3763,7 +7572,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3801,7 +7610,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701359488"/>
@@ -3893,7 +7702,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3931,7 +7740,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
@@ -3979,7 +7788,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3990,10 +7799,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4055,7 +7864,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4324,7 +8133,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4362,7 +8171,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701359488"/>
@@ -4446,7 +8255,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4484,7 +8293,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
@@ -4532,7 +8341,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4543,10 +8352,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5037,7 +8846,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701359488"/>
@@ -5139,7 +8948,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
@@ -5183,7 +8992,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5194,10 +9003,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5700,7 +9509,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701359488"/>
@@ -5810,7 +9619,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
@@ -5854,1804 +9663,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Polarizador(-8º)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>, Analisador e Lâmina (43</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>°</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Lâmina - 43'!$B$3:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-0.78539816339744828</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.6108652381980153</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.43633231299858238</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.26179938779914941</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-8.7266462599716474E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.7266462599716474E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26179938779914941</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.43633231299858238</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6108652381980153</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.78539816339744828</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.95993108859688125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1344640137963142</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3089969389957472</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4835298641951802</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6580627893946132</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.8325957145940461</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.0071286397934789</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.1816615649929121</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.3561944901923448</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.530727415391778</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Lâmina - 43'!$C$3:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E537-4C12-8A2E-9A82B2B66B8B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1522638656"/>
-        <c:axId val="1701359488"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1522638656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>Ângulo</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> de Analisador (radianos)</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-PT"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1701359488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1701359488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>VPP</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> (Volts)</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-PT"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.2889842632331903E-2"/>
-              <c:y val="0.34779247594050744"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1522638656"/>
-        <c:crossesAt val="-100"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Elipse</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Lâmina - 43'!$D$3:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.93041344951996718</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93627429026988906</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9498213921045725</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9694207746088257</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.99270846299655624</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0168756183585272</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0390073250888583</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0564341727266671</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0670542262539546</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0695865504800328</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0637257097301109</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0501786078954274</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0305792253911743</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0072915370034439</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.98312438164147276</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.96099267491114171</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.94356582727333282</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.93294577374604537</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.93041344951996729</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.93627429026988906</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Lâmina - 43'!$C$3:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3E25-4AA2-88FD-A20699D7E3D0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1522638656"/>
-        <c:axId val="1701359488"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1522638656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>Ângulo</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> do Analisador (radianos)</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-PT"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1701359488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1701359488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>P</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" baseline="-25000"/>
-                  <a:t>A</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1522638656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-PT"/>
-              <a:t>Tempo</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-PT" baseline="0"/>
-              <a:t> ??</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.19107070843612359"/>
-          <c:y val="0.16484444444444443"/>
-          <c:w val="0.76026629718495486"/>
-          <c:h val="0.6644741907261591"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>ajuste</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Luz!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Luz!$D$2:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.5000000000000068E-8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6854545454545462E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.2209090909090918E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0756363636363636E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4291818181818183E-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7827272727272728E-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1362727272727269E-6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.4898181818181814E-6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.8433636363636367E-6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.1969090909090912E-6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.5504545454545457E-6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6AD1-4495-92B0-6D7DED1EC39F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>grafico</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Luz!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Luz!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2E-8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8000000000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.4000000000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1200000000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.35E-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7400000000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1299999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5799999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.7499999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.2200000000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.58E-6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6AD1-4495-92B0-6D7DED1EC39F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1522629536"/>
-        <c:axId val="1701358000"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1522629536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>Z</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1701358000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1701358000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="el-GR"/>
-                  <a:t>Δ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>t osc</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1522629536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.7738334854065988"/>
-          <c:y val="0.64297707786526681"/>
-          <c:w val="0.15642283844954163"/>
-          <c:h val="0.15090648880157587"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7703,6 +9715,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9094,7 +11146,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9610,7 +11662,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10126,7 +12178,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10642,7 +12694,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11158,7 +13210,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11674,7 +13726,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12190,7 +14242,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12706,7 +14758,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13222,17 +15274,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>519525</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>155850</xdr:rowOff>
@@ -13262,13 +15830,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>329565</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>32385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>43815</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>32385</xdr:rowOff>
@@ -13293,6 +15861,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF10C70-7FBA-4411-9B6C-24AED038E6E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37D267D-6E42-4BB6-9A65-1E86D9180662}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2210776F-32D8-4A96-8B9D-7DA6257F289C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13737,7 +16419,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14033,32 +16715,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C756C681-8152-40A3-AC76-807F44F66683}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -14077,18 +16767,30 @@
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="L2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>95</v>
       </c>
@@ -14103,7 +16805,7 @@
         <f>C3/$C$11</f>
         <v>0.69747899159663873</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="2">
         <v>90</v>
       </c>
@@ -14112,16 +16814,32 @@
         <v>1.5707963267948966</v>
       </c>
       <c r="H3" s="2">
+        <f>G3-RADIANS(55)</f>
+        <v>0.6108652381980153</v>
+      </c>
+      <c r="I3" s="2">
+        <f>G3-RADIANS(55-5)</f>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="J3" s="2">
         <v>36</v>
       </c>
-      <c r="I3" s="2">
-        <f>H3/$H$7</f>
+      <c r="K3" s="14">
+        <f>J3/$J$7</f>
         <v>0.5921052631578948</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="L3" s="14">
+        <f>COS(H3)^2</f>
+        <v>0.67101007166283433</v>
+      </c>
+      <c r="M3" s="14">
+        <f>COS(I3)^2</f>
+        <v>0.58682408883346515</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>90</v>
       </c>
@@ -14136,24 +16854,41 @@
         <f t="shared" ref="D4:D41" si="1">C4/$C$11</f>
         <v>0.74789915966386555</v>
       </c>
+      <c r="E4" s="10"/>
       <c r="F4" s="2">
         <v>80</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G21" si="2">RADIANS(F4)</f>
+        <f>RADIANS(F4)</f>
         <v>1.3962634015954636</v>
       </c>
       <c r="H4" s="2">
+        <f t="shared" ref="H4:H21" si="2">G4-RADIANS(55)</f>
+        <v>0.43633231299858233</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I21" si="3">G4-RADIANS(55-5)</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="J4" s="2">
         <v>46.4</v>
       </c>
-      <c r="I4" s="2">
-        <f t="shared" ref="I4:I21" si="3">H4/$H$7</f>
+      <c r="K4" s="14">
+        <f t="shared" ref="K4:K21" si="4">J4/$J$7</f>
         <v>0.76315789473684215</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="L4" s="14">
+        <f t="shared" ref="L4:L21" si="5">COS(H4)^2</f>
+        <v>0.82139380484326963</v>
+      </c>
+      <c r="M4" s="14">
+        <f t="shared" ref="M4:M26" si="6">COS(I4)^2</f>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>85</v>
       </c>
@@ -14168,24 +16903,41 @@
         <f t="shared" si="1"/>
         <v>0.80882352941176472</v>
       </c>
+      <c r="E5" s="10"/>
       <c r="F5" s="2">
         <v>70</v>
       </c>
       <c r="G5" s="2">
+        <f>RADIANS(F5)</f>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" si="2"/>
-        <v>1.2217304763960306</v>
-      </c>
-      <c r="H5" s="2">
-        <v>53.6</v>
+        <v>0.26179938779914935</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="3"/>
+        <v>0.34906585039886584</v>
+      </c>
+      <c r="J5" s="2">
+        <v>53.6</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" si="4"/>
         <v>0.88157894736842113</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="L5" s="14">
+        <f t="shared" si="5"/>
+        <v>0.93301270189221941</v>
+      </c>
+      <c r="M5" s="14">
+        <f t="shared" si="6"/>
+        <v>0.88302222155948906</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>80</v>
       </c>
@@ -14200,24 +16952,41 @@
         <f t="shared" si="1"/>
         <v>0.86554621848739499</v>
       </c>
+      <c r="E6" s="10"/>
       <c r="F6" s="2">
         <v>60</v>
       </c>
       <c r="G6" s="2">
+        <f>RADIANS(F6)</f>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="H6" s="2">
         <f t="shared" si="2"/>
-        <v>1.0471975511965976</v>
-      </c>
-      <c r="H6" s="2">
-        <v>58.8</v>
+        <v>8.7266462599716377E-2</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="3"/>
+        <v>0.17453292519943286</v>
+      </c>
+      <c r="J6" s="2">
+        <v>58.8</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" si="4"/>
         <v>0.96710526315789469</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="L6" s="14">
+        <f t="shared" si="5"/>
+        <v>0.99240387650610407</v>
+      </c>
+      <c r="M6" s="14">
+        <f t="shared" si="6"/>
+        <v>0.9698463103929541</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>75</v>
       </c>
@@ -14232,22 +17001,39 @@
         <f t="shared" si="1"/>
         <v>0.90756302521008403</v>
       </c>
+      <c r="E7" s="10"/>
       <c r="F7" s="2">
         <v>50</v>
       </c>
       <c r="G7" s="2">
+        <f>RADIANS(F7)</f>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="H7" s="2">
         <f t="shared" si="2"/>
-        <v>0.87266462599716477</v>
-      </c>
-      <c r="H7" s="2">
-        <v>60.8</v>
+        <v>-8.7266462599716488E-2</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>60.8</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="L7" s="14">
+        <f t="shared" si="5"/>
+        <v>0.99240387650610407</v>
+      </c>
+      <c r="M7" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>70</v>
       </c>
@@ -14262,22 +17048,39 @@
         <f t="shared" si="1"/>
         <v>0.94117647058823517</v>
       </c>
+      <c r="E8" s="10"/>
       <c r="F8" s="2">
         <v>40</v>
       </c>
       <c r="G8" s="2">
+        <f>RADIANS(F8)</f>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>0.69813170079773179</v>
-      </c>
-      <c r="H8" s="2">
-        <v>59.2</v>
+        <v>-0.26179938779914946</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="3"/>
+        <v>-0.17453292519943298</v>
+      </c>
+      <c r="J8" s="2">
+        <v>59.2</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="4"/>
         <v>0.97368421052631593</v>
       </c>
+      <c r="L8" s="14">
+        <f t="shared" si="5"/>
+        <v>0.93301270189221941</v>
+      </c>
+      <c r="M8" s="14">
+        <f t="shared" si="6"/>
+        <v>0.9698463103929541</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>65</v>
       </c>
@@ -14292,22 +17095,39 @@
         <f t="shared" si="1"/>
         <v>0.96638655462184875</v>
       </c>
+      <c r="E9" s="10"/>
       <c r="F9" s="2">
         <v>30</v>
       </c>
       <c r="G9" s="2">
+        <f>RADIANS(F9)</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>0.52359877559829882</v>
-      </c>
-      <c r="H9" s="2">
-        <v>54</v>
+        <v>-0.43633231299858244</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="3"/>
+        <v>-0.34906585039886595</v>
+      </c>
+      <c r="J9" s="2">
+        <v>54</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="4"/>
         <v>0.88815789473684215</v>
       </c>
+      <c r="L9" s="14">
+        <f t="shared" si="5"/>
+        <v>0.82139380484326963</v>
+      </c>
+      <c r="M9" s="14">
+        <f t="shared" si="6"/>
+        <v>0.88302222155948884</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>60</v>
       </c>
@@ -14322,22 +17142,39 @@
         <f t="shared" si="1"/>
         <v>0.98739495798319321</v>
       </c>
+      <c r="E10" s="10"/>
       <c r="F10" s="2">
         <v>20</v>
       </c>
       <c r="G10" s="2">
+        <f>RADIANS(F10)</f>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="H10" s="2">
         <f t="shared" si="2"/>
-        <v>0.3490658503988659</v>
-      </c>
-      <c r="H10" s="2">
-        <v>46.4</v>
+        <v>-0.6108652381980153</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="3"/>
+        <v>-0.52359877559829893</v>
+      </c>
+      <c r="J10" s="2">
+        <v>46.4</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="4"/>
         <v>0.76315789473684215</v>
       </c>
+      <c r="L10" s="14">
+        <f t="shared" si="5"/>
+        <v>0.67101007166283433</v>
+      </c>
+      <c r="M10" s="14">
+        <f t="shared" si="6"/>
+        <v>0.74999999999999989</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>55</v>
       </c>
@@ -14352,22 +17189,39 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="E11" s="10"/>
       <c r="F11" s="2">
         <v>10</v>
       </c>
       <c r="G11" s="2">
+        <f>RADIANS(F11)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="2"/>
-        <v>0.17453292519943295</v>
-      </c>
-      <c r="H11" s="2">
-        <v>36</v>
+        <v>-0.78539816339744828</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="3"/>
+        <v>-0.69813170079773179</v>
+      </c>
+      <c r="J11" s="2">
+        <v>36</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="4"/>
         <v>0.5921052631578948</v>
       </c>
+      <c r="L11" s="14">
+        <f t="shared" si="5"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="M11" s="14">
+        <f t="shared" si="6"/>
+        <v>0.58682408883346515</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>50</v>
       </c>
@@ -14382,22 +17236,39 @@
         <f t="shared" si="1"/>
         <v>0.99159663865546221</v>
       </c>
+      <c r="E12" s="10"/>
       <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="G12" s="2">
+        <f>RADIANS(F12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>26.4</v>
+        <v>-0.95993108859688125</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="3"/>
+        <v>-0.87266462599716477</v>
+      </c>
+      <c r="J12" s="2">
+        <v>26.4</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="4"/>
         <v>0.43421052631578949</v>
       </c>
+      <c r="L12" s="14">
+        <f t="shared" si="5"/>
+        <v>0.32898992833716573</v>
+      </c>
+      <c r="M12" s="14">
+        <f t="shared" si="6"/>
+        <v>0.41317591116653485</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45</v>
       </c>
@@ -14412,22 +17283,39 @@
         <f t="shared" si="1"/>
         <v>0.99159663865546221</v>
       </c>
+      <c r="E13" s="10"/>
       <c r="F13" s="2">
         <v>-10</v>
       </c>
       <c r="G13" s="2">
+        <f>RADIANS(F13)</f>
+        <v>-0.17453292519943295</v>
+      </c>
+      <c r="H13" s="2">
         <f t="shared" si="2"/>
-        <v>-0.17453292519943295</v>
-      </c>
-      <c r="H13" s="2">
-        <v>16.399999999999999</v>
+        <v>-1.1344640137963142</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="3"/>
+        <v>-1.0471975511965976</v>
+      </c>
+      <c r="J13" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="4"/>
         <v>0.26973684210526316</v>
       </c>
+      <c r="L13" s="14">
+        <f t="shared" si="5"/>
+        <v>0.17860619515673035</v>
+      </c>
+      <c r="M13" s="14">
+        <f t="shared" si="6"/>
+        <v>0.25000000000000011</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>40</v>
       </c>
@@ -14442,22 +17330,39 @@
         <f t="shared" si="1"/>
         <v>0.97058823529411764</v>
       </c>
+      <c r="E14" s="10"/>
       <c r="F14" s="2">
         <v>-20</v>
       </c>
       <c r="G14" s="2">
+        <f>RADIANS(F14)</f>
+        <v>-0.3490658503988659</v>
+      </c>
+      <c r="H14" s="2">
         <f t="shared" si="2"/>
-        <v>-0.3490658503988659</v>
-      </c>
-      <c r="H14" s="2">
-        <v>8.8000000000000007</v>
+        <v>-1.3089969389957472</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="3"/>
+        <v>-1.2217304763960306</v>
+      </c>
+      <c r="J14" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="4"/>
         <v>0.14473684210526316</v>
       </c>
+      <c r="L14" s="14">
+        <f t="shared" si="5"/>
+        <v>6.698729810778066E-2</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" si="6"/>
+        <v>0.11697777844051105</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>35</v>
       </c>
@@ -14472,22 +17377,39 @@
         <f t="shared" si="1"/>
         <v>0.9243697478991596</v>
       </c>
+      <c r="E15" s="10"/>
       <c r="F15" s="2">
         <v>-30</v>
       </c>
       <c r="G15" s="2">
+        <f>RADIANS(F15)</f>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="H15" s="2">
         <f t="shared" si="2"/>
-        <v>-0.52359877559829882</v>
-      </c>
-      <c r="H15" s="2">
-        <v>3.6</v>
+        <v>-1.4835298641951802</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="3"/>
+        <v>-1.3962634015954636</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="4"/>
         <v>5.9210526315789477E-2</v>
       </c>
+      <c r="L15" s="14">
+        <f t="shared" si="5"/>
+        <v>7.5961234938959638E-3</v>
+      </c>
+      <c r="M15" s="14">
+        <f t="shared" si="6"/>
+        <v>3.0153689607045831E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>30</v>
       </c>
@@ -14502,22 +17424,39 @@
         <f t="shared" si="1"/>
         <v>0.88235294117647056</v>
       </c>
+      <c r="E16" s="10"/>
       <c r="F16" s="2">
         <v>-40</v>
       </c>
       <c r="G16" s="2">
+        <f>RADIANS(F16)</f>
+        <v>-0.69813170079773179</v>
+      </c>
+      <c r="H16" s="2">
         <f t="shared" si="2"/>
-        <v>-0.69813170079773179</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2.4</v>
+        <v>-1.6580627893946129</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="3"/>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" si="4"/>
         <v>3.9473684210526314E-2</v>
       </c>
+      <c r="L16" s="14">
+        <f t="shared" si="5"/>
+        <v>7.5961234938959421E-3</v>
+      </c>
+      <c r="M16" s="14">
+        <f t="shared" si="6"/>
+        <v>3.7524718414124473E-33</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>25</v>
       </c>
@@ -14532,22 +17471,39 @@
         <f t="shared" si="1"/>
         <v>0.83193277310924374</v>
       </c>
+      <c r="E17" s="10"/>
       <c r="F17" s="2">
         <v>-50</v>
       </c>
       <c r="G17" s="2">
+        <f>RADIANS(F17)</f>
+        <v>-0.87266462599716477</v>
+      </c>
+      <c r="H17" s="2">
         <f t="shared" si="2"/>
-        <v>-0.87266462599716477</v>
-      </c>
-      <c r="H17" s="2">
-        <v>4</v>
+        <v>-1.8325957145940461</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="3"/>
+        <v>-1.7453292519943295</v>
+      </c>
+      <c r="J17" s="2">
+        <v>4</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" si="4"/>
         <v>6.5789473684210523E-2</v>
       </c>
+      <c r="L17" s="14">
+        <f t="shared" si="5"/>
+        <v>6.6987298107780716E-2</v>
+      </c>
+      <c r="M17" s="14">
+        <f t="shared" si="6"/>
+        <v>3.0153689607045793E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>20</v>
       </c>
@@ -14562,22 +17518,39 @@
         <f t="shared" si="1"/>
         <v>0.77310924369747891</v>
       </c>
+      <c r="E18" s="10"/>
       <c r="F18" s="2">
         <v>-60</v>
       </c>
       <c r="G18" s="2">
+        <f>RADIANS(F18)</f>
+        <v>-1.0471975511965976</v>
+      </c>
+      <c r="H18" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0471975511965976</v>
-      </c>
-      <c r="H18" s="2">
-        <v>9.6</v>
+        <v>-2.0071286397934789</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="3"/>
+        <v>-1.9198621771937625</v>
+      </c>
+      <c r="J18" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="4"/>
         <v>0.15789473684210525</v>
       </c>
+      <c r="L18" s="14">
+        <f t="shared" si="5"/>
+        <v>0.17860619515673024</v>
+      </c>
+      <c r="M18" s="14">
+        <f t="shared" si="6"/>
+        <v>0.11697777844051097</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -14592,22 +17565,39 @@
         <f t="shared" si="1"/>
         <v>0.69747899159663873</v>
       </c>
+      <c r="E19" s="10"/>
       <c r="F19" s="2">
         <v>-70</v>
       </c>
       <c r="G19" s="2">
+        <f>RADIANS(F19)</f>
+        <v>-1.2217304763960306</v>
+      </c>
+      <c r="H19" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2217304763960306</v>
-      </c>
-      <c r="H19" s="2">
-        <v>17.600000000000001</v>
+        <v>-2.1816615649929121</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="3"/>
+        <v>-2.0943951023931953</v>
+      </c>
+      <c r="J19" s="2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="4"/>
         <v>0.28947368421052633</v>
       </c>
+      <c r="L19" s="14">
+        <f t="shared" si="5"/>
+        <v>0.32898992833716573</v>
+      </c>
+      <c r="M19" s="14">
+        <f t="shared" si="6"/>
+        <v>0.24999999999999978</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>10</v>
       </c>
@@ -14622,22 +17612,39 @@
         <f t="shared" si="1"/>
         <v>0.63025210084033612</v>
       </c>
+      <c r="E20" s="10"/>
       <c r="F20" s="2">
         <v>-80</v>
       </c>
       <c r="G20" s="2">
+        <f>RADIANS(F20)</f>
+        <v>-1.3962634015954636</v>
+      </c>
+      <c r="H20" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3962634015954636</v>
-      </c>
-      <c r="H20" s="2">
-        <v>27.2</v>
+        <v>-2.3561944901923448</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="3"/>
+        <v>-2.2689280275926285</v>
+      </c>
+      <c r="J20" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="4"/>
         <v>0.44736842105263158</v>
       </c>
+      <c r="L20" s="14">
+        <f t="shared" si="5"/>
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="M20" s="14">
+        <f t="shared" si="6"/>
+        <v>0.41317591116653485</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -14652,22 +17659,39 @@
         <f t="shared" si="1"/>
         <v>0.5714285714285714</v>
       </c>
+      <c r="E21" s="10"/>
       <c r="F21" s="2">
         <v>-90</v>
       </c>
       <c r="G21" s="2">
+        <f>RADIANS(F21)</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="H21" s="2">
         <f t="shared" si="2"/>
-        <v>-1.5707963267948966</v>
-      </c>
-      <c r="H21" s="2">
-        <v>37.6</v>
+        <v>-2.5307274153917776</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="3"/>
+        <v>-2.4434609527920612</v>
+      </c>
+      <c r="J21" s="2">
+        <v>37.6</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="4"/>
         <v>0.61842105263157898</v>
       </c>
+      <c r="L21" s="14">
+        <f t="shared" si="5"/>
+        <v>0.671010071662834</v>
+      </c>
+      <c r="M21" s="14">
+        <f t="shared" si="6"/>
+        <v>0.58682408883346493</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -14682,8 +17706,11 @@
         <f t="shared" si="1"/>
         <v>0.50420168067226889</v>
       </c>
+      <c r="I22" s="23" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>-5</v>
       </c>
@@ -14698,8 +17725,9 @@
         <f t="shared" si="1"/>
         <v>0.45378151260504201</v>
       </c>
+      <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>-10</v>
       </c>
@@ -14714,8 +17742,9 @@
         <f t="shared" si="1"/>
         <v>0.37815126050420167</v>
       </c>
+      <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>-15</v>
       </c>
@@ -14730,8 +17759,9 @@
         <f t="shared" si="1"/>
         <v>0.34453781512605036</v>
       </c>
+      <c r="I25" s="15"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>-20</v>
       </c>
@@ -14746,8 +17776,9 @@
         <f t="shared" si="1"/>
         <v>0.31932773109243695</v>
       </c>
+      <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>-25</v>
       </c>
@@ -14763,7 +17794,7 @@
         <v>0.29831932773109243</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>-30</v>
       </c>
@@ -14778,8 +17809,17 @@
         <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
+      <c r="F28" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="6">
+        <f>(C11-C29)/(C11+C29)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>-35</v>
       </c>
@@ -14795,7 +17835,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>-40</v>
       </c>
@@ -14811,7 +17851,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>-45</v>
       </c>
@@ -14827,7 +17867,7 @@
         <v>0.29831932773109243</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>-50</v>
       </c>
@@ -14843,7 +17883,7 @@
         <v>0.31092436974789917</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>-55</v>
       </c>
@@ -14859,7 +17899,7 @@
         <v>0.34453781512605036</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>-60</v>
       </c>
@@ -14875,7 +17915,7 @@
         <v>0.38655462184873945</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>-65</v>
       </c>
@@ -14891,7 +17931,7 @@
         <v>0.43697478991596639</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>-70</v>
       </c>
@@ -14907,7 +17947,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>-75</v>
       </c>
@@ -14923,7 +17963,7 @@
         <v>0.55462184873949572</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>-80</v>
       </c>
@@ -14939,7 +17979,7 @@
         <v>0.60504201680672265</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>-85</v>
       </c>
@@ -14955,7 +17995,7 @@
         <v>0.67226890756302515</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>-90</v>
       </c>
@@ -14971,7 +18011,7 @@
         <v>0.72689075630252098</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>-95</v>
       </c>
@@ -14986,12 +18026,46 @@
         <f t="shared" si="1"/>
         <v>0.78991596638655459</v>
       </c>
+      <c r="Y41" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="18">
+        <f>RSQ(K3:K21,L3:L21)</f>
+        <v>0.97059649523454494</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="19"/>
+    </row>
+    <row r="58" spans="25:27" x14ac:dyDescent="0.3">
+      <c r="Y58" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z58" s="17"/>
+      <c r="AA58" s="18">
+        <f>RSQ(M3:M21,K3:K21)</f>
+        <v>0.99949954907022054</v>
+      </c>
+    </row>
+    <row r="59" spans="25:27" x14ac:dyDescent="0.3">
+      <c r="Y59" s="17"/>
+      <c r="Z59" s="17"/>
+      <c r="AA59" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="J2:K6"/>
+  <mergeCells count="9">
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="Y41:Z42"/>
+    <mergeCell ref="AA41:AA42"/>
+    <mergeCell ref="Y58:Z59"/>
+    <mergeCell ref="AA58:AA59"/>
+    <mergeCell ref="N2:O6"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="F1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15002,24 +18076,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF3B386-072D-4DD8-952A-56344A1D5722}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -15033,7 +18107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>-45</v>
       </c>
@@ -15048,13 +18122,13 @@
         <f>COS(B3)^2+COS(2*$G$10-B3)^2</f>
         <v>1.2347357813929456</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>-35</v>
       </c>
@@ -15069,11 +18143,11 @@
         <f t="shared" ref="D4:D22" si="1">COS(B4)^2+COS(2*$G$10-B4)^2</f>
         <v>1.5425824844015315</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>-25</v>
       </c>
@@ -15088,11 +18162,11 @@
         <f t="shared" si="1"/>
         <v>1.7849857321266633</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>-15</v>
       </c>
@@ -15107,11 +18181,11 @@
         <f t="shared" si="1"/>
         <v>1.9327081154017673</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>-5</v>
       </c>
@@ -15126,11 +18200,11 @@
         <f t="shared" si="1"/>
         <v>1.9679321346536807</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -15146,7 +18220,7 @@
         <v>1.886409253309465</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>15</v>
       </c>
@@ -15168,7 +18242,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>25</v>
       </c>
@@ -15191,7 +18265,7 @@
         <v>1.4486232791552935</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>35</v>
       </c>
@@ -15207,7 +18281,7 @@
         <v>1.1014235211828014</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45</v>
       </c>
@@ -15223,7 +18297,7 @@
         <v>0.76526421860705485</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>55</v>
       </c>
@@ -15239,7 +18313,7 @@
         <v>0.4574175155984686</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>65</v>
       </c>
@@ -15255,7 +18329,7 @@
         <v>0.21501426787333663</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>75</v>
       </c>
@@ -15271,7 +18345,7 @@
         <v>6.7291884598232793E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>85</v>
       </c>
@@ -15287,7 +18361,7 @@
         <v>3.2067865346319196E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>95</v>
       </c>
@@ -15303,7 +18377,7 @@
         <v>0.11359074669053505</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>105</v>
       </c>
@@ -15319,7 +18393,7 @@
         <v>0.30202766599117831</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>115</v>
       </c>
@@ -15335,7 +18409,7 @@
         <v>0.57465034974785045</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>125</v>
       </c>
@@ -15351,7 +18425,7 @@
         <v>0.8985764788171986</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>135</v>
       </c>
@@ -15367,7 +18441,7 @@
         <v>1.2347357813929452</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>145</v>
       </c>
@@ -15402,20 +18476,20 @@
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -15429,7 +18503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>-45</v>
       </c>
@@ -15444,13 +18518,13 @@
         <f>COS(B3)^2+COS(2*$G$10-B3)^2</f>
         <v>0.93041344951996718</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>-35</v>
       </c>
@@ -15465,11 +18539,11 @@
         <f t="shared" ref="D4:D22" si="1">COS(B4)^2+COS(2*$G$10-B4)^2</f>
         <v>0.93627429026988906</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>-25</v>
       </c>
@@ -15484,11 +18558,11 @@
         <f t="shared" si="1"/>
         <v>0.9498213921045725</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>-15</v>
       </c>
@@ -15503,11 +18577,11 @@
         <f t="shared" si="1"/>
         <v>0.9694207746088257</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>-5</v>
       </c>
@@ -15522,11 +18596,11 @@
         <f t="shared" si="1"/>
         <v>0.99270846299655624</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -15542,7 +18616,7 @@
         <v>1.0168756183585272</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>15</v>
       </c>
@@ -15564,7 +18638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>25</v>
       </c>
@@ -15587,7 +18661,7 @@
         <v>0.75049157835756175</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>35</v>
       </c>
@@ -15603,7 +18677,7 @@
         <v>1.0670542262539546</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45</v>
       </c>
@@ -15619,7 +18693,7 @@
         <v>1.0695865504800328</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>55</v>
       </c>
@@ -15635,7 +18709,7 @@
         <v>1.0637257097301109</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>65</v>
       </c>
@@ -15651,7 +18725,7 @@
         <v>1.0501786078954274</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>75</v>
       </c>
@@ -15667,7 +18741,7 @@
         <v>1.0305792253911743</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>85</v>
       </c>
@@ -15683,7 +18757,7 @@
         <v>1.0072915370034439</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>95</v>
       </c>
@@ -15699,7 +18773,7 @@
         <v>0.98312438164147276</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>105</v>
       </c>
@@ -15715,7 +18789,7 @@
         <v>0.96099267491114171</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>115</v>
       </c>
@@ -15731,7 +18805,7 @@
         <v>0.94356582727333282</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>125</v>
       </c>
@@ -15747,7 +18821,7 @@
         <v>0.93294577374604537</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>135</v>
       </c>
@@ -15763,7 +18837,7 @@
         <v>0.93041344951996729</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>145</v>
       </c>
@@ -15791,25 +18865,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD30DFD-D638-43EC-8030-F74C3758638B}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="8.85546875" style="1"/>
+    <col min="4" max="17" width="8.88671875" style="1"/>
     <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" style="1"/>
-    <col min="20" max="20" width="11.5703125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="1"/>
+    <col min="19" max="19" width="8.88671875" style="1"/>
+    <col min="20" max="20" width="11.5546875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -15828,8 +18902,14 @@
       <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="Q1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="7">
+        <v>299702547</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -15851,12 +18931,12 @@
         <f>C2-C25</f>
         <v>0.7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
       <c r="L2" s="4" t="s">
         <v>20</v>
       </c>
@@ -15875,14 +18955,8 @@
         <f>M2*M4/H3</f>
         <v>339418873.74646437</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="7">
-        <v>299702547</v>
-      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>0.2</v>
       </c>
@@ -15936,7 +19010,7 @@
         <v>5181273.6907073669</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>0.4</v>
       </c>
@@ -15992,7 +19066,7 @@
         <v>1.5265131350879509E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>0.6</v>
       </c>
@@ -16044,11 +19118,11 @@
         <v>30</v>
       </c>
       <c r="R5" s="6">
-        <f>ABS(R2-T2)/T2</f>
+        <f>ABS(R2-R1)/R1</f>
         <v>0.13251914988384925</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>0.8</v>
       </c>
@@ -16071,7 +19145,7 @@
         <v>-2.865454545454547</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -16094,7 +19168,7 @@
         <v>2.1681818181818215</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>1.2</v>
       </c>
@@ -16117,7 +19191,7 @@
         <v>-2.798181818181817</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>1.4</v>
       </c>
@@ -16140,7 +19214,7 @@
         <v>1.2354545454545587</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>1.6</v>
       </c>
@@ -16163,7 +19237,7 @@
         <v>0.26909090909090594</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>1.8</v>
       </c>
@@ -16186,7 +19260,7 @@
         <v>2.3027272727272816</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>2</v>
       </c>
@@ -16209,7 +19283,7 @@
         <v>-1.6636363636363569</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <f t="array" ref="B14">LINEST(B2:B4,A2:A4,1,1)</f>
         <v>1.7999999999999993E-6</v>
@@ -16219,57 +19293,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>3.5999999999999989E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>7.1999999999999978E-7</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>1.0799999999999996E-6</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>1.4399999999999996E-6</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>1.7999999999999993E-6</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>2.1599999999999992E-6</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>2.5199999999999987E-6</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>2.8799999999999991E-6</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>3.2399999999999986E-6</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>3.5999999999999986E-6</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <f t="array" ref="B25">LINEST(C2:C12,A2:A12,1,1)</f>
         <v>69.831818181818178</v>
@@ -16279,52 +19353,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>13.966363636363637</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
         <v>27.932727272727274</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>41.899090909090908</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>55.865454545454547</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>69.831818181818178</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <v>83.798181818181817</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>97.764545454545441</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>111.73090909090909</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <v>125.69727272727272</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
         <v>139.66363636363636</v>
       </c>

--- a/EXP 9/T9.xlsx
+++ b/EXP 9/T9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAIII\EXP 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6172BC0F-639F-43D0-991A-EB342A7F01C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA04765-75C1-47C7-A8D7-D012A129017C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAF38A1F-BD9D-416B-BE17-8DE3D13292B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{CAF38A1F-BD9D-416B-BE17-8DE3D13292B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Polarização" sheetId="10" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>Sem Analisador</t>
   </si>
@@ -213,9 +213,6 @@
     <t>Registamos valores  "corretos" de theta. -40º excel = 90 º escala; 45º excel = 5º escala</t>
   </si>
   <si>
-    <t>Elipse</t>
-  </si>
-  <si>
     <t>beta</t>
   </si>
   <si>
@@ -303,14 +300,53 @@
       <t>(Δθ) c correção</t>
     </r>
   </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>escala</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>n acr</t>
+  </si>
+  <si>
+    <t>u(n acr)</t>
+  </si>
+  <si>
+    <t>c acr</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>t ar</t>
+  </si>
+  <si>
+    <t>t ar+acr</t>
+  </si>
+  <si>
+    <t>u(c acr)</t>
+  </si>
+  <si>
+    <t>u(n acr) (%)</t>
+  </si>
+  <si>
+    <t>u(c acr) (%)</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -516,34 +552,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -552,8 +564,32 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1352,7 +1388,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1444,69 +1480,69 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Lâmina - 43'!$C$3:$C$22</c:f>
+              <c:f>'Lâmina - 43'!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>14.4</c:v>
+                  <c:v>0.339622641509434</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.399999999999999</c:v>
+                  <c:v>0.43396226415094336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.4</c:v>
+                  <c:v>0.57547169811320753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.2</c:v>
+                  <c:v>0.68867924528301883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.799999999999997</c:v>
+                  <c:v>0.820754716981132</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.799999999999997</c:v>
+                  <c:v>0.91509433962264153</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.6</c:v>
+                  <c:v>0.98113207547169823</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.2</c:v>
+                  <c:v>0.97169811320754729</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.4</c:v>
+                  <c:v>0.90566037735849059</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.799999999999997</c:v>
+                  <c:v>0.79716981132075471</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.8</c:v>
+                  <c:v>0.679245283018868</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.2</c:v>
+                  <c:v>0.54716981132075471</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.600000000000001</c:v>
+                  <c:v>0.41509433962264158</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>0.33018867924528306</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.2</c:v>
+                  <c:v>0.26415094339622641</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.4</c:v>
+                  <c:v>0.24528301886792456</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.2</c:v>
+                  <c:v>0.26415094339622641</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.4</c:v>
+                  <c:v>0.339622641509434</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.2</c:v>
+                  <c:v>0.45283018867924529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1515,6 +1551,179 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E537-4C12-8A2E-9A82B2B66B8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>teorico</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lâmina - 43'!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.78539816339744828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.6108652381980153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.43633231299858238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.26179938779914941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.7266462599716474E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7266462599716474E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26179938779914941</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43633231299858238</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6108652381980153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78539816339744828</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95993108859688125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1344640137963142</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3089969389957472</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4835298641951802</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6580627893946132</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8325957145940461</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0071286397934789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1816615649929121</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3561944901923448</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.530727415391778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lâmina - 43'!$E$3:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.93041344951996718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93627429026988906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9498213921045725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9694207746088257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99270846299655624</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0168756183585272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0390073250888583</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0564341727266671</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0670542262539546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0695865504800328</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0637257097301109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0501786078954274</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0305792253911743</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0072915370034439</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98312438164147276</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96099267491114171</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94356582727333282</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.93294577374604537</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93041344951996729</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93627429026988906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B8A-4C56-8525-11028A89ACA2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1935,7 +2144,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Lâmina - 43'!$D$3:$D$22</c:f>
+              <c:f>'Lâmina - 43'!$E$3:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2537,7 +2746,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Luz!$D$2:$D$12</c:f>
+              <c:f>Luz!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3196,7 +3405,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Luz!$E$2:$E$12</c:f>
+              <c:f>Luz!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4395,7 +4604,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Luz!$F$2:$F$12</c:f>
+              <c:f>Luz!$G$2:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7318,7 +7527,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -7346,133 +7555,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-0.78539816339744828</c:v>
+                  <c:v>-0.69813170079773179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.6108652381980153</c:v>
+                  <c:v>-0.52359877559829882</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.43633231299858238</c:v>
+                  <c:v>-0.3490658503988659</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.26179938779914941</c:v>
+                  <c:v>-0.17453292519943295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.7266462599716474E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7266462599716474E-2</c:v>
+                  <c:v>0.17453292519943295</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26179938779914941</c:v>
+                  <c:v>0.3490658503988659</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43633231299858238</c:v>
+                  <c:v>0.52359877559829882</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6108652381980153</c:v>
+                  <c:v>0.69813170079773179</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.78539816339744828</c:v>
+                  <c:v>0.87266462599716477</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.95993108859688125</c:v>
+                  <c:v>1.0471975511965976</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1344640137963142</c:v>
+                  <c:v>1.2217304763960306</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3089969389957472</c:v>
+                  <c:v>1.3962634015954636</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4835298641951802</c:v>
+                  <c:v>1.5707963267948966</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6580627893946132</c:v>
+                  <c:v>1.7453292519943295</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8325957145940461</c:v>
+                  <c:v>1.9198621771937625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0071286397934789</c:v>
+                  <c:v>2.0943951023931953</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1816615649929121</c:v>
+                  <c:v>2.2689280275926285</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.3561944901923448</c:v>
+                  <c:v>2.4434609527920612</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.530727415391778</c:v>
+                  <c:v>2.6179938779914944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Lâmina - 83'!$C$3:$C$22</c:f>
+              <c:f>'Lâmina - 83'!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>37.6</c:v>
+                  <c:v>0.8867924528301887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.4</c:v>
+                  <c:v>0.95283018867924529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.6</c:v>
+                  <c:v>0.98113207547169823</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.200000000000003</c:v>
+                  <c:v>0.92452830188679258</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.200000000000003</c:v>
+                  <c:v>0.83018867924528317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.4</c:v>
+                  <c:v>0.71698113207547165</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.8</c:v>
+                  <c:v>0.58490566037735847</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>0.47169811320754718</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.4</c:v>
+                  <c:v>0.339622641509434</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.2</c:v>
+                  <c:v>0.26415094339622641</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.6</c:v>
+                  <c:v>0.22641509433962265</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.4</c:v>
+                  <c:v>0.24528301886792456</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.8</c:v>
+                  <c:v>0.30188679245283023</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.8</c:v>
+                  <c:v>0.39622641509433965</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.4</c:v>
+                  <c:v>0.52830188679245282</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28</c:v>
+                  <c:v>0.66037735849056611</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.6</c:v>
+                  <c:v>0.79245283018867929</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38.4</c:v>
+                  <c:v>0.90566037735849059</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41.6</c:v>
+                  <c:v>0.98113207547169823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7481,6 +7690,179 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3C5E-4A35-B8CF-F9BBCF3406CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>teorico</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lâmina - 83'!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.69813170079773179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.52359877559829882</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.3490658503988659</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.17453292519943295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17453292519943295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3490658503988659</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52359877559829882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69813170079773179</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87266462599716477</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0471975511965976</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2217304763960306</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3962634015954636</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5707963267948966</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7453292519943295</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9198621771937625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0943951023931953</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2689280275926285</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4434609527920612</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6179938779914944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lâmina - 83'!$E$3:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.3946548264962941</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6740240480782131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8720960219263918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9649803447637391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9414737964294635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8044116135723833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5703255182674449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2674497483512508</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93231559164599132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60534517350370576</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32597595192178719</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12790397807360826</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5019655236260661E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8526203570536506E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19558838642761667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.42967448173255496</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7325502516487491</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0676844083540087</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3946548264962939</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6740240480782131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4AC4-420E-8AA0-D73C3A3F3B51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7878,7 +8260,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -7901,138 +8283,138 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>'Lâmina - 83'!$E$3:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.3946548264962941</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6740240480782131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8720960219263918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9649803447637391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9414737964294635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8044116135723833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5703255182674449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2674497483512508</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93231559164599132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60534517350370576</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32597595192178719</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12790397807360826</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5019655236260661E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8526203570536506E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19558838642761667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.42967448173255496</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7325502516487491</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0676844083540087</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3946548264962939</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6740240480782131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>'Lâmina - 83'!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.2347357813929456</c:v>
+                  <c:v>0.8867924528301887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5425824844015315</c:v>
+                  <c:v>0.95283018867924529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7849857321266633</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9327081154017673</c:v>
+                  <c:v>0.98113207547169823</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9679321346536807</c:v>
+                  <c:v>0.92452830188679258</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.886409253309465</c:v>
+                  <c:v>0.83018867924528317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6979723340088217</c:v>
+                  <c:v>0.71698113207547165</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4253496502521492</c:v>
+                  <c:v>0.58490566037735847</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1014235211828014</c:v>
+                  <c:v>0.47169811320754718</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.76526421860705485</c:v>
+                  <c:v>0.339622641509434</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4574175155984686</c:v>
+                  <c:v>0.26415094339622641</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.21501426787333663</c:v>
+                  <c:v>0.22641509433962265</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7291884598232793E-2</c:v>
+                  <c:v>0.24528301886792456</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2067865346319196E-2</c:v>
+                  <c:v>0.30188679245283023</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.11359074669053505</c:v>
+                  <c:v>0.39622641509433965</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.30202766599117831</c:v>
+                  <c:v>0.52830188679245282</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.57465034974785045</c:v>
+                  <c:v>0.66037735849056611</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.8985764788171986</c:v>
+                  <c:v>0.79245283018867929</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2347357813929452</c:v>
+                  <c:v>0.90566037735849059</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5425824844015319</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Lâmina - 83'!$C$3:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>37.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41.6</c:v>
+                  <c:v>0.98113207547169823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8059,7 +8441,6 @@
         <c:axId val="1522638656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8182,7 +8563,6 @@
         <c:axId val="1701359488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8434,7 +8814,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Lâmina - 43'!$D$3:$D$22</c:f>
+              <c:f>'Lâmina - 43'!$E$3:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -8596,69 +8976,69 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Lâmina - 83'!$D$3:$D$22</c:f>
+              <c:f>'Lâmina - 83'!$E$3:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.2347357813929456</c:v>
+                  <c:v>1.3946548264962941</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5425824844015315</c:v>
+                  <c:v>1.6740240480782131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7849857321266633</c:v>
+                  <c:v>1.8720960219263918</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9327081154017673</c:v>
+                  <c:v>1.9649803447637391</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9679321346536807</c:v>
+                  <c:v>1.9414737964294635</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.886409253309465</c:v>
+                  <c:v>1.8044116135723833</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6979723340088217</c:v>
+                  <c:v>1.5703255182674449</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4253496502521492</c:v>
+                  <c:v>1.2674497483512508</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1014235211828014</c:v>
+                  <c:v>0.93231559164599132</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.76526421860705485</c:v>
+                  <c:v>0.60534517350370576</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4574175155984686</c:v>
+                  <c:v>0.32597595192178719</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.21501426787333663</c:v>
+                  <c:v>0.12790397807360826</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7291884598232793E-2</c:v>
+                  <c:v>3.5019655236260661E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2067865346319196E-2</c:v>
+                  <c:v>5.8526203570536506E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.11359074669053505</c:v>
+                  <c:v>0.19558838642761667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.30202766599117831</c:v>
+                  <c:v>0.42967448173255496</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.57465034974785045</c:v>
+                  <c:v>0.7325502516487491</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.8985764788171986</c:v>
+                  <c:v>1.0676844083540087</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2347357813929452</c:v>
+                  <c:v>1.3946548264962939</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5425824844015319</c:v>
+                  <c:v>1.6740240480782131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9265,64 +9645,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-0.78539816339744828</c:v>
+                  <c:v>-0.69813170079773179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.6108652381980153</c:v>
+                  <c:v>-0.52359877559829882</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.43633231299858238</c:v>
+                  <c:v>-0.3490658503988659</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.26179938779914941</c:v>
+                  <c:v>-0.17453292519943295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.7266462599716474E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7266462599716474E-2</c:v>
+                  <c:v>0.17453292519943295</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26179938779914941</c:v>
+                  <c:v>0.3490658503988659</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43633231299858238</c:v>
+                  <c:v>0.52359877559829882</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6108652381980153</c:v>
+                  <c:v>0.69813170079773179</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.78539816339744828</c:v>
+                  <c:v>0.87266462599716477</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.95993108859688125</c:v>
+                  <c:v>1.0471975511965976</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1344640137963142</c:v>
+                  <c:v>1.2217304763960306</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3089969389957472</c:v>
+                  <c:v>1.3962634015954636</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4835298641951802</c:v>
+                  <c:v>1.5707963267948966</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6580627893946132</c:v>
+                  <c:v>1.7453292519943295</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8325957145940461</c:v>
+                  <c:v>1.9198621771937625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0071286397934789</c:v>
+                  <c:v>2.0943951023931953</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1816615649929121</c:v>
+                  <c:v>2.2689280275926285</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.3561944901923448</c:v>
+                  <c:v>2.4434609527920612</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.530727415391778</c:v>
+                  <c:v>2.6179938779914944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15987,16 +16367,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16023,16 +16403,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>455295</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16066,13 +16446,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -16104,13 +16484,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -16142,13 +16522,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -16180,13 +16560,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -16223,16 +16603,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>207645</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16259,13 +16639,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -16297,16 +16677,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>23022</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>297342</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>22909</xdr:rowOff>
+      <xdr:rowOff>38149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16329,7 +16709,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13144500" y="190500"/>
+          <a:off x="12824460" y="205740"/>
           <a:ext cx="1867062" cy="563929"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16342,15 +16722,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>603885</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>299085</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16379,13 +16759,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -16413,6 +16793,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>282281</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>30641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0389D294-6981-741C-A26B-5ABD6222FBD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19270980" y="365760"/>
+          <a:ext cx="3939881" cy="1859441"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16717,7 +17141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C756C681-8152-40A3-AC76-807F44F66683}">
   <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
@@ -16731,22 +17155,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -16768,10 +17192,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>46</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>2</v>
@@ -16780,15 +17204,15 @@
         <v>34</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="11"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -16810,7 +17234,7 @@
         <v>90</v>
       </c>
       <c r="G3" s="2">
-        <f>RADIANS(F3)</f>
+        <f t="shared" ref="G3:G21" si="0">RADIANS(F3)</f>
         <v>1.5707963267948966</v>
       </c>
       <c r="H3" s="2">
@@ -16824,34 +17248,34 @@
       <c r="J3" s="2">
         <v>36</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="11">
         <f>J3/$J$7</f>
         <v>0.5921052631578948</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="11">
         <f>COS(H3)^2</f>
         <v>0.67101007166283433</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="11">
         <f>COS(I3)^2</f>
         <v>0.58682408883346515</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>90</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B41" si="0">RADIANS(A4)</f>
+        <f t="shared" ref="B4:B41" si="1">RADIANS(A4)</f>
         <v>1.5707963267948966</v>
       </c>
       <c r="C4" s="2">
         <v>71.2</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D41" si="1">C4/$C$11</f>
+        <f t="shared" ref="D4:D41" si="2">C4/$C$11</f>
         <v>0.74789915966386555</v>
       </c>
       <c r="E4" s="10"/>
@@ -16859,48 +17283,48 @@
         <v>80</v>
       </c>
       <c r="G4" s="2">
-        <f>RADIANS(F4)</f>
+        <f t="shared" si="0"/>
         <v>1.3962634015954636</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H21" si="2">G4-RADIANS(55)</f>
+        <f t="shared" ref="H4:H21" si="3">G4-RADIANS(55)</f>
         <v>0.43633231299858233</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:I21" si="3">G4-RADIANS(55-5)</f>
+        <f t="shared" ref="I4:I21" si="4">G4-RADIANS(55-5)</f>
         <v>0.52359877559829882</v>
       </c>
       <c r="J4" s="2">
         <v>46.4</v>
       </c>
-      <c r="K4" s="14">
-        <f t="shared" ref="K4:K21" si="4">J4/$J$7</f>
+      <c r="K4" s="11">
+        <f t="shared" ref="K4:K21" si="5">J4/$J$7</f>
         <v>0.76315789473684215</v>
       </c>
-      <c r="L4" s="14">
-        <f t="shared" ref="L4:L21" si="5">COS(H4)^2</f>
+      <c r="L4" s="11">
+        <f t="shared" ref="L4:L21" si="6">COS(H4)^2</f>
         <v>0.82139380484326963</v>
       </c>
-      <c r="M4" s="14">
-        <f t="shared" ref="M4:M26" si="6">COS(I4)^2</f>
+      <c r="M4" s="11">
+        <f t="shared" ref="M4:M21" si="7">COS(I4)^2</f>
         <v>0.75000000000000011</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>85</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4835298641951802</v>
       </c>
       <c r="C5" s="2">
         <v>77</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.80882352941176472</v>
       </c>
       <c r="E5" s="10"/>
@@ -16908,48 +17332,48 @@
         <v>70</v>
       </c>
       <c r="G5" s="2">
-        <f>RADIANS(F5)</f>
+        <f t="shared" si="0"/>
         <v>1.2217304763960306</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26179938779914935</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.34906585039886584</v>
       </c>
       <c r="J5" s="2">
         <v>53.6</v>
       </c>
-      <c r="K5" s="14">
-        <f t="shared" si="4"/>
+      <c r="K5" s="11">
+        <f t="shared" si="5"/>
         <v>0.88157894736842113</v>
       </c>
-      <c r="L5" s="14">
-        <f t="shared" si="5"/>
+      <c r="L5" s="11">
+        <f t="shared" si="6"/>
         <v>0.93301270189221941</v>
       </c>
-      <c r="M5" s="14">
-        <f t="shared" si="6"/>
+      <c r="M5" s="11">
+        <f t="shared" si="7"/>
         <v>0.88302222155948906</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>80</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3962634015954636</v>
       </c>
       <c r="C6" s="2">
         <v>82.4</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.86554621848739499</v>
       </c>
       <c r="E6" s="10"/>
@@ -16957,48 +17381,48 @@
         <v>60</v>
       </c>
       <c r="G6" s="2">
-        <f>RADIANS(F6)</f>
+        <f t="shared" si="0"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.7266462599716377E-2</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17453292519943286</v>
       </c>
       <c r="J6" s="2">
         <v>58.8</v>
       </c>
-      <c r="K6" s="14">
-        <f t="shared" si="4"/>
+      <c r="K6" s="11">
+        <f t="shared" si="5"/>
         <v>0.96710526315789469</v>
       </c>
-      <c r="L6" s="14">
-        <f t="shared" si="5"/>
+      <c r="L6" s="11">
+        <f t="shared" si="6"/>
         <v>0.99240387650610407</v>
       </c>
-      <c r="M6" s="14">
-        <f t="shared" si="6"/>
+      <c r="M6" s="11">
+        <f t="shared" si="7"/>
         <v>0.9698463103929541</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>75</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3089969389957472</v>
       </c>
       <c r="C7" s="2">
         <v>86.4</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90756302521008403</v>
       </c>
       <c r="E7" s="10"/>
@@ -17006,30 +17430,30 @@
         <v>50</v>
       </c>
       <c r="G7" s="2">
-        <f>RADIANS(F7)</f>
+        <f t="shared" si="0"/>
         <v>0.87266462599716477</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.7266462599716488E-2</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J7" s="2">
         <v>60.8</v>
       </c>
-      <c r="K7" s="14">
-        <f t="shared" si="4"/>
+      <c r="K7" s="11">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L7" s="14">
-        <f t="shared" si="5"/>
+      <c r="L7" s="11">
+        <f t="shared" si="6"/>
         <v>0.99240387650610407</v>
       </c>
-      <c r="M7" s="14">
-        <f t="shared" si="6"/>
+      <c r="M7" s="11">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -17038,14 +17462,14 @@
         <v>70</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2217304763960306</v>
       </c>
       <c r="C8" s="2">
         <v>89.6</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94117647058823517</v>
       </c>
       <c r="E8" s="10"/>
@@ -17053,30 +17477,30 @@
         <v>40</v>
       </c>
       <c r="G8" s="2">
-        <f>RADIANS(F8)</f>
+        <f t="shared" si="0"/>
         <v>0.69813170079773179</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.26179938779914946</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.17453292519943298</v>
       </c>
       <c r="J8" s="2">
         <v>59.2</v>
       </c>
-      <c r="K8" s="14">
-        <f t="shared" si="4"/>
+      <c r="K8" s="11">
+        <f t="shared" si="5"/>
         <v>0.97368421052631593</v>
       </c>
-      <c r="L8" s="14">
-        <f t="shared" si="5"/>
+      <c r="L8" s="11">
+        <f t="shared" si="6"/>
         <v>0.93301270189221941</v>
       </c>
-      <c r="M8" s="14">
-        <f t="shared" si="6"/>
+      <c r="M8" s="11">
+        <f t="shared" si="7"/>
         <v>0.9698463103929541</v>
       </c>
     </row>
@@ -17085,14 +17509,14 @@
         <v>65</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1344640137963142</v>
       </c>
       <c r="C9" s="2">
         <v>92</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96638655462184875</v>
       </c>
       <c r="E9" s="10"/>
@@ -17100,30 +17524,30 @@
         <v>30</v>
       </c>
       <c r="G9" s="2">
-        <f>RADIANS(F9)</f>
+        <f t="shared" si="0"/>
         <v>0.52359877559829882</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.43633231299858244</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.34906585039886595</v>
       </c>
       <c r="J9" s="2">
         <v>54</v>
       </c>
-      <c r="K9" s="14">
-        <f t="shared" si="4"/>
+      <c r="K9" s="11">
+        <f t="shared" si="5"/>
         <v>0.88815789473684215</v>
       </c>
-      <c r="L9" s="14">
-        <f t="shared" si="5"/>
+      <c r="L9" s="11">
+        <f t="shared" si="6"/>
         <v>0.82139380484326963</v>
       </c>
-      <c r="M9" s="14">
-        <f t="shared" si="6"/>
+      <c r="M9" s="11">
+        <f t="shared" si="7"/>
         <v>0.88302222155948884</v>
       </c>
     </row>
@@ -17132,14 +17556,14 @@
         <v>60</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="C10" s="2">
         <v>94</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98739495798319321</v>
       </c>
       <c r="E10" s="10"/>
@@ -17147,30 +17571,30 @@
         <v>20</v>
       </c>
       <c r="G10" s="2">
-        <f>RADIANS(F10)</f>
+        <f t="shared" si="0"/>
         <v>0.3490658503988659</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.6108652381980153</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.52359877559829893</v>
       </c>
       <c r="J10" s="2">
         <v>46.4</v>
       </c>
-      <c r="K10" s="14">
-        <f t="shared" si="4"/>
+      <c r="K10" s="11">
+        <f t="shared" si="5"/>
         <v>0.76315789473684215</v>
       </c>
-      <c r="L10" s="14">
-        <f t="shared" si="5"/>
+      <c r="L10" s="11">
+        <f t="shared" si="6"/>
         <v>0.67101007166283433</v>
       </c>
-      <c r="M10" s="14">
-        <f t="shared" si="6"/>
+      <c r="M10" s="11">
+        <f t="shared" si="7"/>
         <v>0.74999999999999989</v>
       </c>
     </row>
@@ -17179,14 +17603,14 @@
         <v>55</v>
       </c>
       <c r="B11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95993108859688125</v>
       </c>
       <c r="C11" s="9">
         <v>95.2</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E11" s="10"/>
@@ -17194,30 +17618,30 @@
         <v>10</v>
       </c>
       <c r="G11" s="2">
-        <f>RADIANS(F11)</f>
+        <f t="shared" si="0"/>
         <v>0.17453292519943295</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.78539816339744828</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.69813170079773179</v>
       </c>
       <c r="J11" s="2">
         <v>36</v>
       </c>
-      <c r="K11" s="14">
-        <f t="shared" si="4"/>
+      <c r="K11" s="11">
+        <f t="shared" si="5"/>
         <v>0.5921052631578948</v>
       </c>
-      <c r="L11" s="14">
-        <f t="shared" si="5"/>
+      <c r="L11" s="11">
+        <f t="shared" si="6"/>
         <v>0.50000000000000011</v>
       </c>
-      <c r="M11" s="14">
-        <f t="shared" si="6"/>
+      <c r="M11" s="11">
+        <f t="shared" si="7"/>
         <v>0.58682408883346515</v>
       </c>
     </row>
@@ -17226,14 +17650,14 @@
         <v>50</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87266462599716477</v>
       </c>
       <c r="C12" s="2">
         <v>94.4</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99159663865546221</v>
       </c>
       <c r="E12" s="10"/>
@@ -17241,30 +17665,30 @@
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <f>RADIANS(F12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.95993108859688125</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.87266462599716477</v>
       </c>
       <c r="J12" s="2">
         <v>26.4</v>
       </c>
-      <c r="K12" s="14">
-        <f t="shared" si="4"/>
+      <c r="K12" s="11">
+        <f t="shared" si="5"/>
         <v>0.43421052631578949</v>
       </c>
-      <c r="L12" s="14">
-        <f t="shared" si="5"/>
+      <c r="L12" s="11">
+        <f t="shared" si="6"/>
         <v>0.32898992833716573</v>
       </c>
-      <c r="M12" s="14">
-        <f t="shared" si="6"/>
+      <c r="M12" s="11">
+        <f t="shared" si="7"/>
         <v>0.41317591116653485</v>
       </c>
     </row>
@@ -17273,14 +17697,14 @@
         <v>45</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="C13" s="2">
         <v>94.4</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99159663865546221</v>
       </c>
       <c r="E13" s="10"/>
@@ -17288,30 +17712,30 @@
         <v>-10</v>
       </c>
       <c r="G13" s="2">
-        <f>RADIANS(F13)</f>
+        <f t="shared" si="0"/>
         <v>-0.17453292519943295</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.1344640137963142</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.0471975511965976</v>
       </c>
       <c r="J13" s="2">
         <v>16.399999999999999</v>
       </c>
-      <c r="K13" s="14">
-        <f t="shared" si="4"/>
+      <c r="K13" s="11">
+        <f t="shared" si="5"/>
         <v>0.26973684210526316</v>
       </c>
-      <c r="L13" s="14">
-        <f t="shared" si="5"/>
+      <c r="L13" s="11">
+        <f t="shared" si="6"/>
         <v>0.17860619515673035</v>
       </c>
-      <c r="M13" s="14">
-        <f t="shared" si="6"/>
+      <c r="M13" s="11">
+        <f t="shared" si="7"/>
         <v>0.25000000000000011</v>
       </c>
     </row>
@@ -17320,14 +17744,14 @@
         <v>40</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69813170079773179</v>
       </c>
       <c r="C14" s="2">
         <v>92.4</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="E14" s="10"/>
@@ -17335,30 +17759,30 @@
         <v>-20</v>
       </c>
       <c r="G14" s="2">
-        <f>RADIANS(F14)</f>
+        <f t="shared" si="0"/>
         <v>-0.3490658503988659</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.3089969389957472</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.2217304763960306</v>
       </c>
       <c r="J14" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K14" s="14">
-        <f t="shared" si="4"/>
+      <c r="K14" s="11">
+        <f t="shared" si="5"/>
         <v>0.14473684210526316</v>
       </c>
-      <c r="L14" s="14">
-        <f t="shared" si="5"/>
+      <c r="L14" s="11">
+        <f t="shared" si="6"/>
         <v>6.698729810778066E-2</v>
       </c>
-      <c r="M14" s="14">
-        <f t="shared" si="6"/>
+      <c r="M14" s="11">
+        <f t="shared" si="7"/>
         <v>0.11697777844051105</v>
       </c>
     </row>
@@ -17367,14 +17791,14 @@
         <v>35</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.6108652381980153</v>
       </c>
       <c r="C15" s="2">
         <v>88</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9243697478991596</v>
       </c>
       <c r="E15" s="10"/>
@@ -17382,30 +17806,30 @@
         <v>-30</v>
       </c>
       <c r="G15" s="2">
-        <f>RADIANS(F15)</f>
+        <f t="shared" si="0"/>
         <v>-0.52359877559829882</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.4835298641951802</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.3962634015954636</v>
       </c>
       <c r="J15" s="2">
         <v>3.6</v>
       </c>
-      <c r="K15" s="14">
-        <f t="shared" si="4"/>
+      <c r="K15" s="11">
+        <f t="shared" si="5"/>
         <v>5.9210526315789477E-2</v>
       </c>
-      <c r="L15" s="14">
-        <f t="shared" si="5"/>
+      <c r="L15" s="11">
+        <f t="shared" si="6"/>
         <v>7.5961234938959638E-3</v>
       </c>
-      <c r="M15" s="14">
-        <f t="shared" si="6"/>
+      <c r="M15" s="11">
+        <f t="shared" si="7"/>
         <v>3.0153689607045831E-2</v>
       </c>
     </row>
@@ -17414,14 +17838,14 @@
         <v>30</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.52359877559829882</v>
       </c>
       <c r="C16" s="2">
         <v>84</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="E16" s="10"/>
@@ -17429,30 +17853,30 @@
         <v>-40</v>
       </c>
       <c r="G16" s="2">
-        <f>RADIANS(F16)</f>
+        <f t="shared" si="0"/>
         <v>-0.69813170079773179</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.6580627893946129</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.5707963267948966</v>
       </c>
       <c r="J16" s="2">
         <v>2.4</v>
       </c>
-      <c r="K16" s="14">
-        <f t="shared" si="4"/>
+      <c r="K16" s="11">
+        <f t="shared" si="5"/>
         <v>3.9473684210526314E-2</v>
       </c>
-      <c r="L16" s="14">
-        <f t="shared" si="5"/>
+      <c r="L16" s="11">
+        <f t="shared" si="6"/>
         <v>7.5961234938959421E-3</v>
       </c>
-      <c r="M16" s="14">
-        <f t="shared" si="6"/>
+      <c r="M16" s="11">
+        <f t="shared" si="7"/>
         <v>3.7524718414124473E-33</v>
       </c>
     </row>
@@ -17461,14 +17885,14 @@
         <v>25</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="C17" s="2">
         <v>79.2</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83193277310924374</v>
       </c>
       <c r="E17" s="10"/>
@@ -17476,30 +17900,30 @@
         <v>-50</v>
       </c>
       <c r="G17" s="2">
-        <f>RADIANS(F17)</f>
+        <f t="shared" si="0"/>
         <v>-0.87266462599716477</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.8325957145940461</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.7453292519943295</v>
       </c>
       <c r="J17" s="2">
         <v>4</v>
       </c>
-      <c r="K17" s="14">
-        <f t="shared" si="4"/>
+      <c r="K17" s="11">
+        <f t="shared" si="5"/>
         <v>6.5789473684210523E-2</v>
       </c>
-      <c r="L17" s="14">
-        <f t="shared" si="5"/>
+      <c r="L17" s="11">
+        <f t="shared" si="6"/>
         <v>6.6987298107780716E-2</v>
       </c>
-      <c r="M17" s="14">
-        <f t="shared" si="6"/>
+      <c r="M17" s="11">
+        <f t="shared" si="7"/>
         <v>3.0153689607045793E-2</v>
       </c>
     </row>
@@ -17508,14 +17932,14 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3490658503988659</v>
       </c>
       <c r="C18" s="2">
         <v>73.599999999999994</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.77310924369747891</v>
       </c>
       <c r="E18" s="10"/>
@@ -17523,30 +17947,30 @@
         <v>-60</v>
       </c>
       <c r="G18" s="2">
-        <f>RADIANS(F18)</f>
+        <f t="shared" si="0"/>
         <v>-1.0471975511965976</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.0071286397934789</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.9198621771937625</v>
       </c>
       <c r="J18" s="2">
         <v>9.6</v>
       </c>
-      <c r="K18" s="14">
-        <f t="shared" si="4"/>
+      <c r="K18" s="11">
+        <f t="shared" si="5"/>
         <v>0.15789473684210525</v>
       </c>
-      <c r="L18" s="14">
-        <f t="shared" si="5"/>
+      <c r="L18" s="11">
+        <f t="shared" si="6"/>
         <v>0.17860619515673024</v>
       </c>
-      <c r="M18" s="14">
-        <f t="shared" si="6"/>
+      <c r="M18" s="11">
+        <f t="shared" si="7"/>
         <v>0.11697777844051097</v>
       </c>
     </row>
@@ -17555,14 +17979,14 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26179938779914941</v>
       </c>
       <c r="C19" s="2">
         <v>66.400000000000006</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.69747899159663873</v>
       </c>
       <c r="E19" s="10"/>
@@ -17570,30 +17994,30 @@
         <v>-70</v>
       </c>
       <c r="G19" s="2">
-        <f>RADIANS(F19)</f>
+        <f t="shared" si="0"/>
         <v>-1.2217304763960306</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.1816615649929121</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.0943951023931953</v>
       </c>
       <c r="J19" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="K19" s="14">
-        <f t="shared" si="4"/>
+      <c r="K19" s="11">
+        <f t="shared" si="5"/>
         <v>0.28947368421052633</v>
       </c>
-      <c r="L19" s="14">
-        <f t="shared" si="5"/>
+      <c r="L19" s="11">
+        <f t="shared" si="6"/>
         <v>0.32898992833716573</v>
       </c>
-      <c r="M19" s="14">
-        <f t="shared" si="6"/>
+      <c r="M19" s="11">
+        <f t="shared" si="7"/>
         <v>0.24999999999999978</v>
       </c>
     </row>
@@ -17602,14 +18026,14 @@
         <v>10</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17453292519943295</v>
       </c>
       <c r="C20" s="2">
         <v>60</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.63025210084033612</v>
       </c>
       <c r="E20" s="10"/>
@@ -17617,30 +18041,30 @@
         <v>-80</v>
       </c>
       <c r="G20" s="2">
-        <f>RADIANS(F20)</f>
+        <f t="shared" si="0"/>
         <v>-1.3962634015954636</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.3561944901923448</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.2689280275926285</v>
       </c>
       <c r="J20" s="2">
         <v>27.2</v>
       </c>
-      <c r="K20" s="14">
-        <f t="shared" si="4"/>
+      <c r="K20" s="11">
+        <f t="shared" si="5"/>
         <v>0.44736842105263158</v>
       </c>
-      <c r="L20" s="14">
-        <f t="shared" si="5"/>
+      <c r="L20" s="11">
+        <f t="shared" si="6"/>
         <v>0.49999999999999989</v>
       </c>
-      <c r="M20" s="14">
-        <f t="shared" si="6"/>
+      <c r="M20" s="11">
+        <f t="shared" si="7"/>
         <v>0.41317591116653485</v>
       </c>
     </row>
@@ -17649,14 +18073,14 @@
         <v>5</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.7266462599716474E-2</v>
       </c>
       <c r="C21" s="2">
         <v>54.4</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="E21" s="10"/>
@@ -17664,30 +18088,30 @@
         <v>-90</v>
       </c>
       <c r="G21" s="2">
-        <f>RADIANS(F21)</f>
+        <f t="shared" si="0"/>
         <v>-1.5707963267948966</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.5307274153917776</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.4434609527920612</v>
       </c>
       <c r="J21" s="2">
         <v>37.6</v>
       </c>
-      <c r="K21" s="14">
-        <f t="shared" si="4"/>
+      <c r="K21" s="11">
+        <f t="shared" si="5"/>
         <v>0.61842105263157898</v>
       </c>
-      <c r="L21" s="14">
-        <f t="shared" si="5"/>
+      <c r="L21" s="11">
+        <f t="shared" si="6"/>
         <v>0.671010071662834</v>
       </c>
-      <c r="M21" s="14">
-        <f t="shared" si="6"/>
+      <c r="M21" s="11">
+        <f t="shared" si="7"/>
         <v>0.58682408883346493</v>
       </c>
     </row>
@@ -17696,18 +18120,18 @@
         <v>0</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C22" s="2">
         <v>48</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.50420168067226889</v>
       </c>
-      <c r="I22" s="23" t="s">
-        <v>42</v>
+      <c r="I22" s="21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -17715,82 +18139,82 @@
         <v>-5</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.7266462599716474E-2</v>
       </c>
       <c r="C23" s="2">
         <v>43.2</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.45378151260504201</v>
       </c>
-      <c r="I23" s="15"/>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>-10</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.17453292519943295</v>
       </c>
       <c r="C24" s="2">
         <v>36</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37815126050420167</v>
       </c>
-      <c r="I24" s="15"/>
+      <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>-15</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.26179938779914941</v>
       </c>
       <c r="C25" s="2">
         <v>32.799999999999997</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34453781512605036</v>
       </c>
-      <c r="I25" s="15"/>
+      <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>-20</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.3490658503988659</v>
       </c>
       <c r="C26" s="2">
         <v>30.4</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31932773109243695</v>
       </c>
-      <c r="I26" s="15"/>
+      <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>-25</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.43633231299858238</v>
       </c>
       <c r="C27" s="2">
         <v>28.4</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29831932773109243</v>
       </c>
     </row>
@@ -17799,39 +18223,39 @@
         <v>-30</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.52359877559829882</v>
       </c>
       <c r="C28" s="2">
         <v>27.2</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="16"/>
+      <c r="F28" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="15"/>
       <c r="H28" s="6">
         <f>(C11-C29)/(C11+C29)</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="I28" s="20"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>-35</v>
       </c>
       <c r="B29" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.6108652381980153</v>
       </c>
       <c r="C29" s="9">
         <v>27.2</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -17840,14 +18264,14 @@
         <v>-40</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.69813170079773179</v>
       </c>
       <c r="C30" s="2">
         <v>27.2</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -17856,14 +18280,14 @@
         <v>-45</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.78539816339744828</v>
       </c>
       <c r="C31" s="2">
         <v>28.4</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29831932773109243</v>
       </c>
     </row>
@@ -17872,14 +18296,14 @@
         <v>-50</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.87266462599716477</v>
       </c>
       <c r="C32" s="2">
         <v>29.6</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31092436974789917</v>
       </c>
     </row>
@@ -17888,14 +18312,14 @@
         <v>-55</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.95993108859688125</v>
       </c>
       <c r="C33" s="2">
         <v>32.799999999999997</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34453781512605036</v>
       </c>
     </row>
@@ -17904,14 +18328,14 @@
         <v>-60</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.0471975511965976</v>
       </c>
       <c r="C34" s="2">
         <v>36.799999999999997</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.38655462184873945</v>
       </c>
     </row>
@@ -17920,14 +18344,14 @@
         <v>-65</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.1344640137963142</v>
       </c>
       <c r="C35" s="2">
         <v>41.6</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.43697478991596639</v>
       </c>
     </row>
@@ -17936,14 +18360,14 @@
         <v>-70</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.2217304763960306</v>
       </c>
       <c r="C36" s="2">
         <v>47.6</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -17952,14 +18376,14 @@
         <v>-75</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.3089969389957472</v>
       </c>
       <c r="C37" s="2">
         <v>52.8</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.55462184873949572</v>
       </c>
     </row>
@@ -17968,14 +18392,14 @@
         <v>-80</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.3962634015954636</v>
       </c>
       <c r="C38" s="2">
         <v>57.6</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60504201680672265</v>
       </c>
     </row>
@@ -17984,14 +18408,14 @@
         <v>-85</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.4835298641951802</v>
       </c>
       <c r="C39" s="2">
         <v>64</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.67226890756302515</v>
       </c>
     </row>
@@ -18000,14 +18424,14 @@
         <v>-90</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.5707963267948966</v>
       </c>
       <c r="C40" s="2">
         <v>69.2</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.72689075630252098</v>
       </c>
     </row>
@@ -18016,56 +18440,56 @@
         <v>-95</v>
       </c>
       <c r="B41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.6580627893946132</v>
       </c>
       <c r="C41" s="2">
         <v>75.2</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78991596638655459</v>
       </c>
-      <c r="Y41" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="18">
+      <c r="Y41" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="17">
         <f>RSQ(K3:K21,L3:L21)</f>
         <v>0.97059649523454494</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="19"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="18"/>
     </row>
     <row r="58" spans="25:27" x14ac:dyDescent="0.3">
-      <c r="Y58" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z58" s="17"/>
-      <c r="AA58" s="18">
+      <c r="Y58" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z58" s="16"/>
+      <c r="AA58" s="17">
         <f>RSQ(M3:M21,K3:K21)</f>
         <v>0.99949954907022054</v>
       </c>
     </row>
     <row r="59" spans="25:27" x14ac:dyDescent="0.3">
-      <c r="Y59" s="17"/>
-      <c r="Z59" s="17"/>
-      <c r="AA59" s="19"/>
+      <c r="Y59" s="16"/>
+      <c r="Z59" s="16"/>
+      <c r="AA59" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="N2:O6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="F1:M1"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="Y41:Z42"/>
     <mergeCell ref="AA41:AA42"/>
     <mergeCell ref="Y58:Z59"/>
     <mergeCell ref="AA58:AA59"/>
-    <mergeCell ref="N2:O6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="F1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18074,10 +18498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF3B386-072D-4DD8-952A-56344A1D5722}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18085,15 +18509,16 @@
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -18104,363 +18529,630 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>-45</v>
       </c>
       <c r="B3" s="2">
-        <f>RADIANS(A3)</f>
-        <v>-0.78539816339744828</v>
+        <f>RADIANS(A3+5)</f>
+        <v>-0.69813170079773179</v>
       </c>
       <c r="C3" s="2">
         <v>37.6</v>
       </c>
       <c r="D3" s="2">
-        <f>COS(B3)^2+COS(2*$G$10-B3)^2</f>
-        <v>1.2347357813929456</v>
-      </c>
-      <c r="F3" s="13" t="s">
+        <f>C3/$C$5</f>
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="E3" s="2">
+        <f>COS(B3)^2+COS(2*$H$10-B3)^2</f>
+        <v>1.3946548264962941</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>-35</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B22" si="0">RADIANS(A4)</f>
-        <v>-0.6108652381980153</v>
+        <f t="shared" ref="B4:B22" si="0">RADIANS(A4+5)</f>
+        <v>-0.52359877559829882</v>
       </c>
       <c r="C4" s="2">
         <v>40.4</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D22" si="1">COS(B4)^2+COS(2*$G$10-B4)^2</f>
-        <v>1.5425824844015315</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+        <f t="shared" ref="D4:D35" si="1">C4/$C$5</f>
+        <v>0.95283018867924529</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E22" si="2">COS(B4)^2+COS(2*$H$10-B4)^2</f>
+        <v>1.6740240480782131</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>-25</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
-        <v>-0.43633231299858238</v>
+        <v>-0.3490658503988659</v>
       </c>
       <c r="C5" s="2">
         <v>42.4</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>1.7849857321266633</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8720960219263918</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>-15</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
-        <v>-0.26179938779914941</v>
+        <v>-0.17453292519943295</v>
       </c>
       <c r="C6" s="2">
         <v>41.6</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>1.9327081154017673</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+        <v>0.98113207547169823</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9649803447637391</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>-5</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
-        <v>-8.7266462599716474E-2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>39.200000000000003</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>1.9679321346536807</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+        <v>0.92452830188679258</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9414737964294635</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>8.7266462599716474E-2</v>
+        <v>0.17453292519943295</v>
       </c>
       <c r="C8" s="2">
         <v>35.200000000000003</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>1.886409253309465</v>
+        <v>0.83018867924528317</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8044116135723833</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>15</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>0.26179938779914941</v>
+        <v>0.3490658503988659</v>
       </c>
       <c r="C9" s="2">
         <v>30.4</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>1.6979723340088217</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="2">
+        <v>0.71698113207547165</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5703255182674449</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>25</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>0.43633231299858238</v>
+        <v>0.52359877559829882</v>
       </c>
       <c r="C10" s="2">
         <v>24.8</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>1.4253496502521492</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="2">
-        <f>RADIANS(G9)</f>
+        <v>0.58490566037735847</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2674497483512508</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="2">
+        <f>RADIANS(H9)</f>
         <v>1.4486232791552935</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>35</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>0.6108652381980153</v>
+        <v>0.69813170079773179</v>
       </c>
       <c r="C11" s="2">
         <v>20</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>1.1014235211828014</v>
+        <v>0.47169811320754718</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.93231559164599132</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>0.78539816339744828</v>
+        <v>0.87266462599716477</v>
       </c>
       <c r="C12" s="2">
         <v>14.4</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>0.76526421860705485</v>
+        <v>0.339622641509434</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.60534517350370576</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>55</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>0.95993108859688125</v>
+        <v>1.0471975511965976</v>
       </c>
       <c r="C13" s="2">
         <v>11.2</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>0.4574175155984686</v>
+        <v>0.26415094339622641</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.32597595192178719</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>65</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>1.1344640137963142</v>
+        <v>1.2217304763960306</v>
       </c>
       <c r="C14" s="2">
         <v>9.6</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>0.21501426787333663</v>
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.12790397807360826</v>
+      </c>
+      <c r="I14" s="1">
+        <v>90</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-40</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>75</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>1.3089969389957472</v>
+        <v>1.3962634015954636</v>
       </c>
       <c r="C15" s="2">
         <v>10.4</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>6.7291884598232793E-2</v>
+        <v>0.24528301886792456</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5019655236260661E-2</v>
+      </c>
+      <c r="F15" s="1" cm="1">
+        <f t="array" ref="F15:G15">LINEST(I14:I15,J14:J15)</f>
+        <v>-1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>50</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5</v>
+      </c>
+      <c r="J15" s="1">
+        <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>85</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>1.4835298641951802</v>
+        <v>1.5707963267948966</v>
       </c>
       <c r="C16" s="2">
         <v>12.8</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>3.2067865346319196E-2</v>
+        <v>0.30188679245283023</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="2"/>
+        <v>5.8526203570536506E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>95</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>1.6580627893946132</v>
+        <v>1.7453292519943295</v>
       </c>
       <c r="C17" s="2">
         <v>16.8</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>0.11359074669053505</v>
+        <v>0.39622641509433965</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19558838642761667</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-90</v>
+      </c>
+      <c r="J17" s="1">
+        <f>I17*$F$15+$G$15</f>
+        <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>105</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>1.8325957145940461</v>
+        <v>1.9198621771937625</v>
       </c>
       <c r="C18" s="2">
         <v>22.4</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>0.30202766599117831</v>
+        <v>0.52830188679245282</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.42967448173255496</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-80</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" ref="J18:J35" si="3">I18*$F$15+$G$15</f>
+        <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>115</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>2.0071286397934789</v>
+        <v>2.0943951023931953</v>
       </c>
       <c r="C19" s="2">
         <v>28</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>0.57465034974785045</v>
+        <v>0.66037735849056611</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.7325502516487491</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-70</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="3"/>
+        <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>125</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>2.1816615649929121</v>
+        <v>2.2689280275926285</v>
       </c>
       <c r="C20" s="2">
         <v>33.6</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>0.8985764788171986</v>
+        <v>0.79245283018867929</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0676844083540087</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-60</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="3"/>
+        <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>135</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>2.3561944901923448</v>
+        <v>2.4434609527920612</v>
       </c>
       <c r="C21" s="2">
         <v>38.4</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>1.2347357813929452</v>
+        <v>0.90566037735849059</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3946548264962939</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-50</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>145</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>2.530727415391778</v>
+        <v>2.6179938779914944</v>
       </c>
       <c r="C22" s="2">
         <v>41.6</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>1.5425824844015319</v>
+        <v>0.98113207547169823</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6740240480782131</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-40</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I23" s="1">
+        <v>-30</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I24" s="1">
+        <v>-20</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I25" s="1">
+        <v>-10</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I27" s="1">
+        <v>10</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I28" s="1">
+        <v>20</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I29" s="1">
+        <v>30</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I30" s="1">
+        <v>40</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I31" s="1">
+        <v>50</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I32" s="1">
+        <v>60</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I33" s="1">
+        <v>70</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I34" s="1">
+        <v>80</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="3"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I35" s="1">
+        <v>90</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="3"/>
+        <v>-40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F3:H7"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G3:I7"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18470,10 +19162,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5302B7-50F8-4784-AFBC-5E3A2AEE181A}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18481,15 +19173,16 @@
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -18500,10 +19193,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>-45</v>
       </c>
@@ -18515,16 +19211,20 @@
         <v>14.4</v>
       </c>
       <c r="D3" s="2">
-        <f>COS(B3)^2+COS(2*$G$10-B3)^2</f>
+        <f>C3/C$10</f>
+        <v>0.339622641509434</v>
+      </c>
+      <c r="E3" s="2">
+        <f>COS(B3)^2+COS(2*$H$10-B3)^2</f>
         <v>0.93041344951996718</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>-35</v>
       </c>
@@ -18536,14 +19236,18 @@
         <v>18.399999999999999</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D22" si="1">COS(B4)^2+COS(2*$G$10-B4)^2</f>
+        <f t="shared" ref="D4:D22" si="1">C4/C$10</f>
+        <v>0.43396226415094336</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E22" si="2">COS(B4)^2+COS(2*$H$10-B4)^2</f>
         <v>0.93627429026988906</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>-25</v>
       </c>
@@ -18556,13 +19260,17 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
+        <v>0.57547169811320753</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="2"/>
         <v>0.9498213921045725</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>-15</v>
       </c>
@@ -18575,13 +19283,17 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
+        <v>0.68867924528301883</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="2"/>
         <v>0.9694207746088257</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>-5</v>
       </c>
@@ -18594,13 +19306,17 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
+        <v>0.820754716981132</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="2"/>
         <v>0.99270846299655624</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -18613,10 +19329,14 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
+        <v>0.91509433962264153</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
         <v>1.0168756183585272</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>15</v>
       </c>
@@ -18629,16 +19349,20 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
+        <v>0.98113207547169823</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
         <v>1.0390073250888583</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>25</v>
       </c>
@@ -18651,17 +19375,21 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="2"/>
         <v>1.0564341727266671</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="2">
-        <f>RADIANS(G9)</f>
+      <c r="G10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="2">
+        <f>RADIANS(H9)</f>
         <v>0.75049157835756175</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>35</v>
       </c>
@@ -18674,10 +19402,14 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
+        <v>0.97169811320754729</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="2"/>
         <v>1.0670542262539546</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45</v>
       </c>
@@ -18690,10 +19422,14 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
+        <v>0.90566037735849059</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="2"/>
         <v>1.0695865504800328</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>55</v>
       </c>
@@ -18706,10 +19442,14 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
+        <v>0.79716981132075471</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="2"/>
         <v>1.0637257097301109</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>65</v>
       </c>
@@ -18722,10 +19462,14 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
+        <v>0.679245283018868</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="2"/>
         <v>1.0501786078954274</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>75</v>
       </c>
@@ -18738,10 +19482,14 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
+        <v>0.54716981132075471</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="2"/>
         <v>1.0305792253911743</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>85</v>
       </c>
@@ -18754,10 +19502,14 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
+        <v>0.41509433962264158</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="2"/>
         <v>1.0072915370034439</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>95</v>
       </c>
@@ -18770,10 +19522,14 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
+        <v>0.33018867924528306</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
         <v>0.98312438164147276</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>105</v>
       </c>
@@ -18786,10 +19542,14 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
+        <v>0.26415094339622641</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
         <v>0.96099267491114171</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>115</v>
       </c>
@@ -18802,10 +19562,14 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
+        <v>0.24528301886792456</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
         <v>0.94356582727333282</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>125</v>
       </c>
@@ -18818,10 +19582,14 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
+        <v>0.26415094339622641</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="2"/>
         <v>0.93294577374604537</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>135</v>
       </c>
@@ -18834,10 +19602,14 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
+        <v>0.339622641509434</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="2"/>
         <v>0.93041344951996729</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>145</v>
       </c>
@@ -18850,13 +19622,17 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
+        <v>0.45283018867924529</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
         <v>0.93627429026988906</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F3:H7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G3:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18865,10 +19641,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD30DFD-D638-43EC-8030-F74C3758638B}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18876,14 +19652,20 @@
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="1"/>
-    <col min="20" max="20" width="11.5546875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="8.88671875" style="1"/>
+    <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="1"/>
+    <col min="21" max="21" width="11.5546875" style="1" customWidth="1"/>
+    <col min="22" max="26" width="8.88671875" style="1"/>
+    <col min="27" max="27" width="10" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11.109375" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -18893,23 +19675,24 @@
       <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="7">
+      <c r="S1" s="7">
         <v>299702547</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -18920,43 +19703,49 @@
         <v>0.7</v>
       </c>
       <c r="D2" s="2">
-        <f>A2*$H$3+$I$3</f>
+        <f>RADIANS(C2)</f>
+        <v>1.2217304763960306E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <f>A2*$I$3+$J$3</f>
         <v>1.5000000000000068E-8</v>
       </c>
-      <c r="E2" s="5">
-        <f>B2-D2</f>
+      <c r="F2" s="5">
+        <f>B2-E2</f>
         <v>4.9999999999999323E-9</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <f>C2-C25</f>
         <v>0.7</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="L2" s="4" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="M2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <f>60*10^6</f>
         <v>60000000</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="Q2" s="4" t="s">
+      <c r="P2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="2">
-        <f>M2*M4/H3</f>
+      <c r="S2" s="5">
+        <f>N2*N4/I3</f>
         <v>339418873.74646437</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>0.2</v>
       </c>
@@ -18967,50 +19756,62 @@
         <v>14.9</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D12" si="0">A3*$H$3+$I$3</f>
+        <f t="shared" ref="D3:D12" si="0">RADIANS(C3)</f>
+        <v>0.26005405854715513</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E12" si="1">A3*$I$3+$J$3</f>
         <v>3.6854545454545462E-7</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E12" si="1">B3-D3</f>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F12" si="2">B3-E3</f>
         <v>1.1454545454545391E-8</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F12" si="2">C3-C26</f>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G12" si="3">C3-C26</f>
         <v>0.9336363636363636</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2">
-        <f t="array" ref="H3:I5">LINEST(B2:B12,A2:A12,1,1)</f>
+      <c r="I3" s="2">
+        <f t="array" ref="I3:J5">LINEST(B2:B12,A2:A12,1,1)</f>
         <v>1.7677272727272727E-6</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>1.5000000000000068E-8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="5">
-        <f>M2-M5</f>
+      <c r="N3" s="5">
+        <f>N2-N5</f>
         <v>100000</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="Q3" s="4" t="s">
+      <c r="P3" s="2">
+        <v>5000</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="2">
-        <f>SQRT((M4/H3*O2)^2+(M2/H3*O4)^2+(M2*M4/(H3^2)*H4)^2)</f>
-        <v>5181273.6907073669</v>
+      <c r="S3" s="5">
+        <f>SQRT((N4/I3*P2)^2+(N2/I3*P4)^2+(N2*N4/(I3^2)*I4)^2)</f>
+        <v>17744275.886387356</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>0.4</v>
       </c>
@@ -19022,51 +19823,64 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>7.2209090909090918E-7</v>
+        <v>0.4921828490624009</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
+        <v>7.2209090909090918E-7</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="2"/>
         <v>1.790909090909083E-8</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" si="2"/>
+      <c r="G4" s="1">
+        <f t="shared" si="3"/>
         <v>0.26727272727272577</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>2.698458901071382E-8</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>3.1928596300307218E-8</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="2">
-        <f>1/M3</f>
+      <c r="N4" s="2">
+        <f>1/N3</f>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="2">
-        <f>ABS(1/(M3^2)*O3)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4" t="s">
+      <c r="P4" s="2">
+        <f>ABS(1/(N3^2)*P3)</f>
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="6">
-        <f>R3/R2</f>
-        <v>1.5265131350879509E-2</v>
+      <c r="S4" s="6">
+        <f>S3/S2</f>
+        <v>5.2278400698606384E-2</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>2.5399999999999998E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>0.6</v>
       </c>
@@ -19078,51 +19892,60 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>1.0756363636363636E-6</v>
+        <v>0.69813170079773179</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
+        <v>1.0756363636363636E-6</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
         <v>4.4363636363636501E-8</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" si="2"/>
+      <c r="G5" s="1">
+        <f t="shared" si="3"/>
         <v>-1.8990909090909085</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>0.99790717100245185</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>5.6603351437343383E-8</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <f>59.9*10^6</f>
         <v>59900000</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="2">
-        <f>SQRT(O3^2+O2^2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4" t="s">
+      <c r="P5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="6">
-        <f>ABS(R2-R1)/R1</f>
+      <c r="S5" s="6">
+        <f>ABS(S2-S1)/S1</f>
         <v>0.13251914988384925</v>
       </c>
+      <c r="AA5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>2.61E-6</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>0.8</v>
       </c>
@@ -19134,18 +19957,28 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>1.4291818181818183E-6</v>
+        <v>0.92502450355699462</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
+        <v>1.4291818181818183E-6</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
         <v>-7.9181818181818298E-8</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" si="2"/>
+      <c r="G6" s="1">
+        <f t="shared" si="3"/>
         <v>-2.865454545454547</v>
       </c>
+      <c r="AA6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>299702547</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -19157,18 +19990,29 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>1.7827272727272728E-6</v>
+        <v>1.2566370614359172</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
+        <v>1.7827272727272728E-6</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
         <v>-4.2727272727272722E-8</v>
       </c>
-      <c r="F7" s="1">
-        <f t="shared" si="2"/>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
         <v>2.1681818181818215</v>
       </c>
+      <c r="AA7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB7" s="23">
+        <f>1 + (AB6*(AB5-AB4))/(N2*N4*AB3)</f>
+        <v>1.6993059430000019</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>1.2</v>
       </c>
@@ -19180,18 +20024,28 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1362727272727269E-6</v>
+        <v>1.4137166941154069</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
+        <v>2.1362727272727269E-6</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
         <v>-6.2727272727269355E-9</v>
       </c>
-      <c r="F8" s="1">
-        <f t="shared" si="2"/>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
         <v>-2.798181818181817</v>
       </c>
+      <c r="AA8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0.14571000000000001</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>1.4</v>
       </c>
@@ -19203,18 +20057,29 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>2.4898181818181814E-6</v>
+        <v>1.7278759594743862</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
+        <v>2.4898181818181814E-6</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
         <v>9.0181818181818489E-8</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" si="2"/>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
         <v>1.2354545454545587</v>
       </c>
+      <c r="AA9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB9" s="6">
+        <f>AB8/AB7</f>
+        <v>8.5746772439787691E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>1.6</v>
       </c>
@@ -19226,18 +20091,35 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>2.8433636363636367E-6</v>
+        <v>1.9547687622336491</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
+        <v>2.8433636363636367E-6</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
         <v>-9.3363636363636794E-8</v>
       </c>
-      <c r="F10" s="1">
-        <f t="shared" si="2"/>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
         <v>0.26909090909090594</v>
       </c>
+      <c r="AA10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB10" s="6">
+        <f>(AB7-AD10)/AD10</f>
+        <v>0.14047378724832346</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>1.49</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>1.8</v>
       </c>
@@ -19249,18 +20131,22 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>3.1969090909090912E-6</v>
+        <v>2.2340214425527418</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
+        <v>3.1969090909090912E-6</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
         <v>2.3090909090908862E-8</v>
       </c>
-      <c r="F11" s="1">
-        <f t="shared" si="2"/>
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
         <v>2.3027272727272816</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>2</v>
       </c>
@@ -19272,18 +20158,38 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>3.5504545454545457E-6</v>
+        <v>2.4085543677521746</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
+        <v>3.5504545454545457E-6</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
         <v>2.9545454545454301E-8</v>
       </c>
-      <c r="F12" s="1">
-        <f t="shared" si="2"/>
+      <c r="G12" s="1">
+        <f t="shared" si="3"/>
         <v>-1.6636363636363569</v>
       </c>
+      <c r="AA12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB12" s="5">
+        <f>AB6/AB7</f>
+        <v>176367621.28360289</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AA13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB13" s="5">
+        <f>SQRT((0)^2+(AB6/(AB7^2)*AB8)^2)</f>
+        <v>15122954.287951753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <f t="array" ref="B14">LINEST(B2:B4,A2:A4,1,1)</f>
         <v>1.7999999999999993E-6</v>
@@ -19292,58 +20198,112 @@
         <f t="array" ref="C14:C24">A2:A12*B14</f>
         <v>0</v>
       </c>
+      <c r="AA14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB14" s="6">
+        <f>AB13/AB12</f>
+        <v>8.5746772439787691E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>3.5999999999999989E-7</v>
       </c>
+      <c r="AA15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB15" s="6">
+        <f>ABS(AB12-AD15)/AD15</f>
+        <v>0.12317142999599436</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD15" s="5">
+        <f>AB6/AD10</f>
+        <v>201142648.99328861</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>7.1999999999999978E-7</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>1.0799999999999996E-6</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>1.4399999999999996E-6</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>1.7999999999999993E-6</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>2.1599999999999992E-6</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>2.5199999999999987E-6</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>2.8799999999999991E-6</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>3.2399999999999986E-6</v>
       </c>
+      <c r="H23" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="M23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="5">
+        <f>2*PI()*N2/I24</f>
+        <v>309314586.99472755</v>
+      </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>3.5999999999999986E-6</v>
       </c>
+      <c r="H24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="array" ref="I24:J26">LINEST(D2:D12,A2:A12,1,1)</f>
+        <v>1.2187951499267675</v>
+      </c>
+      <c r="J24" s="2">
+        <v>-2.1419949910841396E-3</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="5">
+        <f>SQRT((2*PI()/I24*P2)^2+(2*PI()/(I24^2)*N2*I25)^2)</f>
+        <v>4181196.0795863708</v>
+      </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <f t="array" ref="B25">LINEST(C2:C12,A2:A12,1,1)</f>
         <v>69.831818181818178</v>
@@ -19352,38 +20312,76 @@
         <f t="array" ref="C25:C35">A2:A12*B25</f>
         <v>0</v>
       </c>
+      <c r="H25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1.6474892810309644E-2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1.9493356056761221E-2</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="6">
+        <f>N24/N23</f>
+        <v>1.3517616870935485E-2</v>
+      </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>13.966363636363637</v>
       </c>
+      <c r="H26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.99835822865286106</v>
+      </c>
+      <c r="J26" s="2">
+        <v>3.4558026704215136E-2</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="6">
+        <f>ABS(N23-S1)/S1</f>
+        <v>3.20719329580057E-2</v>
+      </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
         <v>27.932727272727274</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>41.899090909090908</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>55.865454545454547</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>69.831818181818178</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <v>83.798181818181817</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>97.764545454545441</v>
       </c>
@@ -19404,8 +20402,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G2:J2"/>
+  <mergeCells count="2">
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/EXP 9/T9.xlsx
+++ b/EXP 9/T9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAIII\EXP 9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\faculdade\3º Ano\Labs III\LABSFISICAIII\EXP 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA04765-75C1-47C7-A8D7-D012A129017C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735B465E-926B-4B3D-B139-2CC6E07251FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{CAF38A1F-BD9D-416B-BE17-8DE3D13292B8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -344,9 +344,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0E+00"/>
+    <numFmt numFmtId="168" formatCode="0.000E+00"/>
+    <numFmt numFmtId="175" formatCode="0.0%"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -520,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,6 +567,18 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -576,19 +591,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -611,7 +626,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -674,7 +689,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1066,7 +1081,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1104,7 +1119,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1939475904"/>
@@ -1153,7 +1168,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>VPP (Volts)</a:t>
+                  <a:t>VPP/VPPmax  (s.u.)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1191,7 +1206,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1229,7 +1244,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
@@ -1277,7 +1292,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1291,7 +1306,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1374,7 +1389,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1815,7 +1830,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1853,7 +1868,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701359488"/>
@@ -1945,7 +1960,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1983,7 +1998,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
@@ -2031,7 +2046,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2045,7 +2060,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2107,7 +2122,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2120,8 +2135,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>43</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2144,6 +2162,75 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>'Lâmina - 43'!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.339622641509434</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43396226415094336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57547169811320753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68867924528301883</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.820754716981132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91509433962264153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98113207547169823</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97169811320754729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90566037735849059</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79716981132075471</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.679245283018868</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54716981132075471</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41509433962264158</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33018867924528306</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26415094339622641</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24528301886792456</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26415094339622641</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.339622641509434</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.45283018867924529</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>'Lâmina - 43'!$E$3:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2210,80 +2297,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Lâmina - 43'!$C$3:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3E25-4AA2-88FD-A20699D7E3D0}"/>
+              <c16:uniqueId val="{00000000-CF56-41EF-8B52-5DD3FBE026D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2340,11 +2358,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>Ângulo</a:t>
+                  <a:t>VPP/VPPmax</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> do Analisador (radianos)</a:t>
+                  <a:t> (s.u.)</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT"/>
               </a:p>
@@ -2375,7 +2393,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2413,7 +2431,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701359488"/>
@@ -2424,7 +2442,6 @@
         <c:axId val="1701359488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2497,7 +2514,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2535,7 +2552,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
@@ -2583,7 +2600,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2597,7 +2614,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2633,7 +2650,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pt-PT" baseline="0"/>
-              <a:t> ??</a:t>
+              <a:t> de atraso </a:t>
             </a:r>
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
@@ -2664,7 +2681,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2965,7 +2982,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>Z</a:t>
+                  <a:t>Z (metros)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2995,7 +3012,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3033,7 +3050,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701358000"/>
@@ -3086,7 +3103,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>t osc</a:t>
+                  <a:t>t osc (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3116,7 +3133,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3154,7 +3171,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522629536"/>
@@ -3210,7 +3227,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3247,7 +3264,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3261,7 +3278,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3323,7 +3340,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3505,7 +3522,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>Z</a:t>
+                  <a:t>Z (metros)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3535,7 +3552,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3573,7 +3590,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701358000"/>
@@ -3658,7 +3675,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>- ajuste</a:t>
+                  <a:t>- ajuste (segundos)</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
@@ -3710,7 +3727,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3748,7 +3765,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522629536"/>
@@ -3796,7 +3813,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3810,7 +3827,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3872,7 +3889,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4171,7 +4188,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>Z</a:t>
+                  <a:t>Z (metros)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4201,7 +4218,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4239,7 +4256,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701358000"/>
@@ -4288,7 +4305,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>fase</a:t>
+                  <a:t>fase (graus)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4318,7 +4335,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4356,7 +4373,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522629536"/>
@@ -4412,7 +4429,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4449,7 +4466,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4463,7 +4480,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4525,7 +4542,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4704,7 +4721,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>Z</a:t>
+                  <a:t>Z (metros)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4734,7 +4751,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4772,7 +4789,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701358000"/>
@@ -4846,7 +4863,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>- ajuste</a:t>
+                  <a:t>- ajuste (graus)</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
@@ -4898,7 +4915,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4936,7 +4953,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522629536"/>
@@ -4984,7 +5001,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4998,7 +5015,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5070,7 +5087,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5335,7 +5352,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5373,7 +5390,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1939475904"/>
@@ -5459,7 +5476,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5497,7 +5514,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
@@ -5545,7 +5562,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5559,7 +5576,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5595,11 +5612,11 @@
             </a:r>
             <a:r>
               <a:rPr lang="pt-PT" baseline="0"/>
-              <a:t> - </a:t>
+              <a:t> - Valores T</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pt-PT"/>
-              <a:t>teórico</a:t>
+              <a:t>eóricos</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -5630,7 +5647,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5895,7 +5912,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5933,7 +5950,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1939475904"/>
@@ -6019,7 +6036,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6057,7 +6074,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
@@ -6105,7 +6122,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6119,7 +6136,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6189,7 +6206,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>teorico</c:v>
+            <c:v>Valores Teóricos</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -6345,7 +6362,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>experimental</c:v>
+            <c:v>Valores Experimentais</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -6619,7 +6636,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1939475904"/>
@@ -6723,7 +6740,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
@@ -6737,10 +6754,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.30026333845198816"/>
-          <c:y val="0.20352799650043746"/>
-          <c:w val="0.23228302893673561"/>
-          <c:h val="0.16919685039370078"/>
+          <c:x val="0.1564182485488069"/>
+          <c:y val="0.17614687404328344"/>
+          <c:w val="0.30697182561723352"/>
+          <c:h val="0.20114116069388088"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6754,6 +6771,16 @@
           </a:solidFill>
         </a:ln>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900"/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -6767,7 +6794,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6781,7 +6808,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6850,6 +6877,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Valores Teóricos</c:v>
+          </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
@@ -6996,6 +7026,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Valores Experimentais</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
@@ -7268,7 +7301,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1939475904"/>
@@ -7372,7 +7405,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
@@ -7386,10 +7419,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.30026333845198816"/>
-          <c:y val="0.20352799650043746"/>
-          <c:w val="0.23228302893673561"/>
-          <c:h val="0.16743438320209975"/>
+          <c:x val="0.1564182485488069"/>
+          <c:y val="0.17614717007844535"/>
+          <c:w val="0.3042055738883262"/>
+          <c:h val="0.22219639038619712"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7403,6 +7436,16 @@
           </a:solidFill>
         </a:ln>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900"/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -7416,7 +7459,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7430,7 +7473,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7513,7 +7556,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7954,7 +7997,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7992,7 +8035,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701359488"/>
@@ -8084,7 +8127,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8122,7 +8165,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
@@ -8170,7 +8213,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8184,7 +8227,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8246,7 +8289,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8283,6 +8326,75 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>'Lâmina - 83'!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.8867924528301887</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95283018867924529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98113207547169823</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92452830188679258</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83018867924528317</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71698113207547165</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58490566037735847</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47169811320754718</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.339622641509434</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26415094339622641</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22641509433962265</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24528301886792456</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30188679245283023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39622641509433965</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52830188679245282</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66037735849056611</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79245283018867929</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90566037735849059</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98113207547169823</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>'Lâmina - 83'!$E$3:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -8346,75 +8458,6 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1.6740240480782131</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Lâmina - 83'!$D$3:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.8867924528301887</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95283018867924529</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98113207547169823</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.92452830188679258</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83018867924528317</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.71698113207547165</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.58490566037735847</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.47169811320754718</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.339622641509434</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.26415094339622641</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.22641509433962265</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.24528301886792456</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.30188679245283023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.39622641509433965</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.52830188679245282</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.66037735849056611</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.79245283018867929</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.90566037735849059</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.98113207547169823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8441,6 +8484,7 @@
         <c:axId val="1522638656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8478,17 +8522,21 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>Ângulo</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> do Analisador (radianos)</a:t>
+                  <a:t>VPP/VPPmax (s.u.)</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47594275819257043"/>
+              <c:y val="0.87868037328667248"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8514,7 +8562,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8552,17 +8600,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701359488"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1701359488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.2000000000000002"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8605,8 +8654,13 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="pt-PT" baseline="-25000"/>
-                  <a:t>A</a:t>
+                  <a:t>A </a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> (s.u.)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT" baseline="-25000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -8635,7 +8689,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8673,7 +8727,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
@@ -8721,7 +8775,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8735,7 +8789,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8801,10 +8855,10 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>43</c:v>
+            <c:v>Beta = 43º</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="19050">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -8814,6 +8868,75 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>'Lâmina - 43'!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.339622641509434</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43396226415094336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57547169811320753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68867924528301883</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.820754716981132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91509433962264153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98113207547169823</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97169811320754729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90566037735849059</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79716981132075471</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.679245283018868</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54716981132075471</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41509433962264158</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33018867924528306</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26415094339622641</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24528301886792456</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26415094339622641</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.339622641509434</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.45283018867924529</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>'Lâmina - 43'!$E$3:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -8877,75 +9000,6 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.93627429026988906</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Lâmina - 43'!$C$3:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8961,14 +9015,12 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>83</c:v>
+            <c:v>Beta = 83º</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="19050">
               <a:noFill/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -8976,6 +9028,75 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>'Lâmina - 83'!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.8867924528301887</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95283018867924529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98113207547169823</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92452830188679258</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83018867924528317</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71698113207547165</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58490566037735847</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47169811320754718</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.339622641509434</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26415094339622641</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22641509433962265</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24528301886792456</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30188679245283023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39622641509433965</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52830188679245282</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66037735849056611</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79245283018867929</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90566037735849059</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98113207547169823</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>'Lâmina - 83'!$E$3:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -9039,75 +9160,6 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1.6740240480782131</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Lâmina - 83'!$C$3:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>37.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9134,7 +9186,6 @@
         <c:axId val="1522638656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9172,12 +9223,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>Ângulo</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> do Analisador (radianos)</a:t>
+                  <a:t>VPP / VPPmax (s.u.)</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT"/>
               </a:p>
@@ -9226,7 +9273,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701359488"/>
@@ -9237,7 +9284,7 @@
         <c:axId val="1701359488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="5"/>
+          <c:max val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9328,7 +9375,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
@@ -9342,9 +9389,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.85372106383697732"/>
-          <c:y val="0.60649798775153108"/>
-          <c:w val="9.1915559911234276E-2"/>
+          <c:x val="0.74538779527559063"/>
+          <c:y val="0.63411691191555108"/>
+          <c:w val="0.21413779527559054"/>
           <c:h val="0.16073700787401574"/>
         </c:manualLayout>
       </c:layout>
@@ -9359,6 +9406,16 @@
           </a:solidFill>
         </a:ln>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900"/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -9372,7 +9429,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9386,7 +9443,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9889,7 +9946,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701359488"/>
@@ -9999,7 +10056,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
@@ -10043,7 +10100,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16446,16 +16503,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>518988</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>214188</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16485,15 +16542,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>68973</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>37443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>373773</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>37443</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16560,16 +16617,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>603623</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>12809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>298823</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>12809</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16604,15 +16661,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>207645</xdr:colOff>
+      <xdr:colOff>139065</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:colOff>474345</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16722,15 +16779,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>603885</xdr:colOff>
+      <xdr:colOff>527685</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>299085</xdr:colOff>
+      <xdr:colOff>222885</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16798,15 +16855,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>282281</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>30641</xdr:rowOff>
+      <xdr:colOff>366101</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16829,7 +16886,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19270980" y="365760"/>
+          <a:off x="19796760" y="320040"/>
           <a:ext cx="3939881" cy="1859441"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16843,7 +16900,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -17141,8 +17198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C756C681-8152-40A3-AC76-807F44F66683}">
   <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="Q50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17155,22 +17212,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -17209,10 +17266,10 @@
       <c r="M2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="19"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -17260,8 +17317,8 @@
         <f>COS(I3)^2</f>
         <v>0.58682408883346515</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -17309,8 +17366,8 @@
         <f t="shared" ref="M4:M21" si="7">COS(I4)^2</f>
         <v>0.75000000000000011</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -17358,8 +17415,8 @@
         <f t="shared" si="7"/>
         <v>0.88302222155948906</v>
       </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -17407,8 +17464,8 @@
         <f t="shared" si="7"/>
         <v>0.9698463103929541</v>
       </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -18130,7 +18187,7 @@
         <f t="shared" si="2"/>
         <v>0.50420168067226889</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -18149,7 +18206,7 @@
         <f t="shared" si="2"/>
         <v>0.45378151260504201</v>
       </c>
-      <c r="I23" s="21"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
@@ -18166,7 +18223,7 @@
         <f t="shared" si="2"/>
         <v>0.37815126050420167</v>
       </c>
-      <c r="I24" s="21"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
@@ -18183,7 +18240,7 @@
         <f t="shared" si="2"/>
         <v>0.34453781512605036</v>
       </c>
-      <c r="I25" s="21"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -18200,7 +18257,7 @@
         <f t="shared" si="2"/>
         <v>0.31932773109243695</v>
       </c>
-      <c r="I26" s="21"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -18233,10 +18290,10 @@
         <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="15"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="6">
         <f>(C11-C29)/(C11+C29)</f>
         <v>0.55555555555555558</v>
@@ -18450,46 +18507,46 @@
         <f t="shared" si="2"/>
         <v>0.78991596638655459</v>
       </c>
-      <c r="Y41" s="16" t="s">
+      <c r="Y41" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="17">
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="21">
         <f>RSQ(K3:K21,L3:L21)</f>
         <v>0.97059649523454494</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="Y42" s="16"/>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="18"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="22"/>
     </row>
     <row r="58" spans="25:27" x14ac:dyDescent="0.3">
-      <c r="Y58" s="16" t="s">
+      <c r="Y58" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="Z58" s="16"/>
-      <c r="AA58" s="17">
+      <c r="Z58" s="20"/>
+      <c r="AA58" s="21">
         <f>RSQ(M3:M21,K3:K21)</f>
         <v>0.99949954907022054</v>
       </c>
     </row>
     <row r="59" spans="25:27" x14ac:dyDescent="0.3">
-      <c r="Y59" s="16"/>
-      <c r="Z59" s="16"/>
-      <c r="AA59" s="18"/>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="20"/>
+      <c r="AA59" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="Y41:Z42"/>
+    <mergeCell ref="AA41:AA42"/>
+    <mergeCell ref="Y58:Z59"/>
+    <mergeCell ref="AA58:AA59"/>
     <mergeCell ref="N2:O6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="I22:I26"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F28:G28"/>
-    <mergeCell ref="Y41:Z42"/>
-    <mergeCell ref="AA41:AA42"/>
-    <mergeCell ref="Y58:Z59"/>
-    <mergeCell ref="AA58:AA59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18498,10 +18555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF3B386-072D-4DD8-952A-56344A1D5722}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18510,13 +18567,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -18554,11 +18611,11 @@
         <f>COS(B3)^2+COS(2*$H$10-B3)^2</f>
         <v>1.3946548264962941</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -18572,16 +18629,16 @@
         <v>40.4</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D35" si="1">C4/$C$5</f>
+        <f t="shared" ref="D4:D22" si="1">C4/$C$5</f>
         <v>0.95283018867924529</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:E22" si="2">COS(B4)^2+COS(2*$H$10-B4)^2</f>
         <v>1.6740240480782131</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -18602,9 +18659,9 @@
         <f t="shared" si="2"/>
         <v>1.8720960219263918</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -18625,9 +18682,9 @@
         <f t="shared" si="2"/>
         <v>1.9649803447637391</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -18648,9 +18705,9 @@
         <f t="shared" si="2"/>
         <v>1.9414737964294635</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -19042,6 +19099,10 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" cm="1">
+        <f t="array" ref="B24:B43">COS(B3:B22)^2</f>
+        <v>0.58682408883346515</v>
+      </c>
       <c r="I24" s="1">
         <v>-20</v>
       </c>
@@ -19051,6 +19112,9 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>0.75000000000000011</v>
+      </c>
       <c r="I25" s="1">
         <v>-10</v>
       </c>
@@ -19060,6 +19124,9 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>0.88302222155948906</v>
+      </c>
       <c r="I26" s="1">
         <v>0</v>
       </c>
@@ -19069,6 +19136,9 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>0.9698463103929541</v>
+      </c>
       <c r="I27" s="1">
         <v>10</v>
       </c>
@@ -19078,6 +19148,9 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
       <c r="I28" s="1">
         <v>20</v>
       </c>
@@ -19087,6 +19160,9 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>0.9698463103929541</v>
+      </c>
       <c r="I29" s="1">
         <v>30</v>
       </c>
@@ -19096,6 +19172,9 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>0.88302222155948906</v>
+      </c>
       <c r="I30" s="1">
         <v>40</v>
       </c>
@@ -19105,6 +19184,9 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>0.75000000000000011</v>
+      </c>
       <c r="I31" s="1">
         <v>50</v>
       </c>
@@ -19114,6 +19196,9 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>0.58682408883346515</v>
+      </c>
       <c r="I32" s="1">
         <v>60</v>
       </c>
@@ -19122,7 +19207,10 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>0.41317591116653485</v>
+      </c>
       <c r="I33" s="1">
         <v>70</v>
       </c>
@@ -19131,7 +19219,10 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>0.25000000000000011</v>
+      </c>
       <c r="I34" s="1">
         <v>80</v>
       </c>
@@ -19140,13 +19231,56 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>0.11697777844051105</v>
+      </c>
       <c r="I35" s="1">
         <v>90</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="3"/>
         <v>-40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>3.0153689607045831E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>3.7524718414124473E-33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>3.0153689607045793E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>0.11697777844051097</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>0.24999999999999978</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>0.41317591116653485</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>0.58682408883346493</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>0.75000000000000011</v>
       </c>
     </row>
   </sheetData>
@@ -19164,8 +19298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5302B7-50F8-4784-AFBC-5E3A2AEE181A}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19174,13 +19308,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -19218,11 +19352,11 @@
         <f>COS(B3)^2+COS(2*$H$10-B3)^2</f>
         <v>0.93041344951996718</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -19243,9 +19377,9 @@
         <f t="shared" ref="E4:E22" si="2">COS(B4)^2+COS(2*$H$10-B4)^2</f>
         <v>0.93627429026988906</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -19266,9 +19400,9 @@
         <f t="shared" si="2"/>
         <v>0.9498213921045725</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -19289,9 +19423,9 @@
         <f t="shared" si="2"/>
         <v>0.9694207746088257</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -19312,9 +19446,9 @@
         <f t="shared" si="2"/>
         <v>0.99270846299655624</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -19643,8 +19777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD30DFD-D638-43EC-8030-F74C3758638B}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AC21" sqref="AC21"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19653,7 +19787,9 @@
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="12" width="8.88671875" style="1"/>
+    <col min="5" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="10" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.88671875" style="1"/>
     <col min="13" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="8.88671875" style="1"/>
     <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -19718,12 +19854,12 @@
         <f>C2-C25</f>
         <v>0.7</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
       <c r="M2" s="4" t="s">
         <v>20</v>
       </c>
@@ -19774,7 +19910,7 @@
       <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="25">
         <f t="array" ref="I3:J5">LINEST(B2:B12,A2:A12,1,1)</f>
         <v>1.7677272727272727E-6</v>
       </c>
@@ -19840,10 +19976,10 @@
       <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="24">
         <v>2.698458901071382E-8</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="24">
         <v>3.1928596300307218E-8</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -19909,10 +20045,10 @@
       <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="11">
         <v>0.99790717100245185</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="24">
         <v>5.6603351437343383E-8</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -19974,7 +20110,7 @@
       <c r="AA6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AB6" s="5">
         <v>299702547</v>
       </c>
     </row>
@@ -20007,7 +20143,7 @@
       <c r="AA7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AB7" s="23">
+      <c r="AB7" s="11">
         <f>1 + (AB6*(AB5-AB4))/(N2*N4*AB3)</f>
         <v>1.6993059430000019</v>
       </c>
@@ -20041,7 +20177,7 @@
       <c r="AA8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB8" s="11">
         <v>0.14571000000000001</v>
       </c>
     </row>
@@ -20074,7 +20210,7 @@
       <c r="AA9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AB9" s="26">
         <f>AB8/AB7</f>
         <v>8.5746772439787691E-2</v>
       </c>
@@ -20108,7 +20244,7 @@
       <c r="AA10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AB10" s="27">
         <f>(AB7-AD10)/AD10</f>
         <v>0.14047378724832346</v>
       </c>
@@ -20201,7 +20337,7 @@
       <c r="AA14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AB14" s="6">
+      <c r="AB14" s="26">
         <f>AB13/AB12</f>
         <v>8.5746772439787691E-2</v>
       </c>
@@ -20213,7 +20349,7 @@
       <c r="AA15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AB15" s="6">
+      <c r="AB15" s="27">
         <f>ABS(AB12-AD15)/AD15</f>
         <v>0.12317142999599436</v>
       </c>
@@ -20264,16 +20400,16 @@
       <c r="C23" s="1">
         <v>3.2399999999999986E-6</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
       <c r="M23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="24">
         <f>2*PI()*N2/I24</f>
         <v>309314586.99472755</v>
       </c>
@@ -20285,11 +20421,11 @@
       <c r="H24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="11">
         <f t="array" ref="I24:J26">LINEST(D2:D12,A2:A12,1,1)</f>
         <v>1.2187951499267675</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="15">
         <v>-2.1419949910841396E-3</v>
       </c>
       <c r="K24" s="4" t="s">
@@ -20298,7 +20434,7 @@
       <c r="M24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="25">
         <f>SQRT((2*PI()/I24*P2)^2+(2*PI()/(I24^2)*N2*I25)^2)</f>
         <v>4181196.0795863708</v>
       </c>
@@ -20315,10 +20451,10 @@
       <c r="H25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="11">
         <v>1.6474892810309644E-2</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="15">
         <v>1.9493356056761221E-2</v>
       </c>
       <c r="K25" s="4" t="s">
@@ -20339,10 +20475,10 @@
       <c r="H26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="11">
         <v>0.99835822865286106</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="11">
         <v>3.4558026704215136E-2</v>
       </c>
       <c r="K26" s="4" t="s">

--- a/EXP 9/T9.xlsx
+++ b/EXP 9/T9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\faculdade\3º Ano\Labs III\LABSFISICAIII\EXP 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735B465E-926B-4B3D-B139-2CC6E07251FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCACB47-EDA6-48AC-9A5A-D48EBB9246F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{CAF38A1F-BD9D-416B-BE17-8DE3D13292B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CAF38A1F-BD9D-416B-BE17-8DE3D13292B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Polarização" sheetId="10" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t>Sem Analisador</t>
   </si>
@@ -339,6 +339,18 @@
   <si>
     <t>ref</t>
   </si>
+  <si>
+    <t>pa norm</t>
+  </si>
+  <si>
+    <t>vpp norm</t>
+  </si>
+  <si>
+    <t>Laser, polarizado linearmente (penso eu). Entra no primeiro polarizador e consequentemente transforma a polarização da luz numa polarização linear com o ângulo alpha (θ P) . Ao usar a lamina temos indice de refração diferentes para diferentes eixos ( O eixo da lamina e o eixo perpendicular ao mesmo.). Isto transforma a polarização linear numa polarização circular(45º) ou eliptica (diferente de 45º). Ao atingir o analisador, forçamos novamente a projetar a polarização sobre o eixo do analisador, obtendo novamente uma polarização linear.</t>
+  </si>
+  <si>
+    <t>Esta correção provem do facto do laser não estar perfeitamente polarizado para 45º, valor pretendido pela lei de malus.</t>
+  </si>
 </sst>
 </file>
 
@@ -348,8 +360,8 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0E+00"/>
-    <numFmt numFmtId="168" formatCode="0.000E+00"/>
-    <numFmt numFmtId="175" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -523,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,6 +582,27 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -582,28 +615,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,7 +1067,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>Ângulo</a:t>
+                  <a:t>Ângulo do polarizador</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="pt-PT" baseline="0"/>
@@ -1304,6 +1325,1331 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Elipse</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12925348923659222"/>
+          <c:y val="0.15595555555555554"/>
+          <c:w val="0.83274937199373689"/>
+          <c:h val="0.63780752405949259"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Beta = 43º</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lâmina - 43'!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.339622641509434</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43396226415094336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57547169811320753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68867924528301883</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.820754716981132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91509433962264153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98113207547169823</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97169811320754729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90566037735849059</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79716981132075471</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.679245283018868</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54716981132075471</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41509433962264158</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33018867924528306</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26415094339622641</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24528301886792456</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26415094339622641</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.339622641509434</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.45283018867924529</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lâmina - 43'!$E$3:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.93041344951996718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93627429026988906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9498213921045725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9694207746088257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99270846299655624</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0168756183585272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0390073250888583</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0564341727266671</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0670542262539546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0695865504800328</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0637257097301109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0501786078954274</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0305792253911743</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0072915370034439</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98312438164147276</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96099267491114171</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94356582727333282</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.93294577374604537</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93041344951996729</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93627429026988906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7B06-4EF4-8907-91D097ABF7CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Beta = 83º</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lâmina - 83'!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.8867924528301887</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95283018867924529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98113207547169823</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92452830188679258</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83018867924528317</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71698113207547165</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58490566037735847</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47169811320754718</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.339622641509434</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26415094339622641</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22641509433962265</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24528301886792456</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30188679245283023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39622641509433965</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52830188679245282</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66037735849056611</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79245283018867929</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90566037735849059</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98113207547169823</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lâmina - 83'!$E$3:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.3946548264962941</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6740240480782131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8720960219263918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9649803447637391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9414737964294635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8044116135723833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5703255182674449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2674497483512508</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93231559164599132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60534517350370576</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32597595192178719</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12790397807360826</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5019655236260661E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8526203570536506E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19558838642761667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.42967448173255496</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7325502516487491</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0676844083540087</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3946548264962939</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6740240480782131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B06-4EF4-8907-91D097ABF7CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1522638656"/>
+        <c:axId val="1701359488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1522638656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t>VPP / VPPmax (s.u.)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1701359488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1701359488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>P</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="-25000"/>
+                  <a:t>A</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1522638656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74538779527559063"/>
+          <c:y val="0.63411691191555108"/>
+          <c:w val="0.21413779527559054"/>
+          <c:h val="0.16073700787401574"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900"/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Polarizador(55º)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>, Analisador e Lâmina</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12925371453031889"/>
+          <c:y val="0.16484444444444443"/>
+          <c:w val="0.82380926633097895"/>
+          <c:h val="0.63780752405949259"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>43</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lâmina - 43'!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.78539816339744828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.6108652381980153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.43633231299858238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.26179938779914941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.7266462599716474E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7266462599716474E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26179938779914941</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43633231299858238</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6108652381980153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78539816339744828</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95993108859688125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1344640137963142</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3089969389957472</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4835298641951802</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6580627893946132</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8325957145940461</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0071286397934789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1816615649929121</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3561944901923448</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.530727415391778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lâmina - 43'!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CDFC-4D18-B054-606664F5DB65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>83</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lâmina - 83'!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.69813170079773179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.52359877559829882</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.3490658503988659</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.17453292519943295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17453292519943295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3490658503988659</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52359877559829882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69813170079773179</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87266462599716477</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0471975511965976</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2217304763960306</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3962634015954636</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5707963267948966</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7453292519943295</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9198621771937625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0943951023931953</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2689280275926285</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4434609527920612</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6179938779914944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lâmina - 83'!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CDFC-4D18-B054-606664F5DB65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1522638656"/>
+        <c:axId val="1701359488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1522638656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Ângulo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> de Analisador (radianos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1701359488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1701359488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>VPP</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> (Volts)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2889842632331903E-2"/>
+              <c:y val="0.34779247594050744"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1522638656"/>
+        <c:crossesAt val="-100"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8422761425208114"/>
+          <c:y val="0.61983132108486449"/>
+          <c:w val="9.4776790240275757E-2"/>
+          <c:h val="0.16073700787401574"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -2057,7 +3403,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -2611,7 +3957,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -3275,7 +4621,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -3824,7 +5170,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -4477,7 +5823,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -5124,7 +6470,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Polarização!$H$3:$H$21</c:f>
+              <c:f>Polarização!$I$3:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -5190,7 +6536,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Polarização!$K$3:$K$21</c:f>
+              <c:f>Polarização!$L$3:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -5684,7 +7030,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Polarização!$H$3:$H$21</c:f>
+              <c:f>Polarização!$I$3:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -5750,7 +7096,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Polarização!$L$3:$L$21</c:f>
+              <c:f>Polarização!$M$3:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -6221,7 +7567,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Polarização!$H$3:$H$21</c:f>
+              <c:f>Polarização!$I$3:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -6287,7 +7633,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Polarização!$L$3:$L$21</c:f>
+              <c:f>Polarização!$M$3:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -6390,7 +7736,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Polarização!$H$3:$H$21</c:f>
+              <c:f>Polarização!$I$3:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -6456,7 +7802,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Polarização!$K$3:$K$21</c:f>
+              <c:f>Polarização!$L$3:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -6886,7 +8232,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Polarização!$I$3:$I$21</c:f>
+              <c:f>Polarização!$J$3:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -6952,7 +8298,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Polarização!$M$3:$M$21</c:f>
+              <c:f>Polarização!$N$3:$N$21</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7055,7 +8401,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Polarização!$I$3:$I$21</c:f>
+              <c:f>Polarização!$J$3:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7121,7 +8467,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Polarização!$K$3:$K$21</c:f>
+              <c:f>Polarização!$L$3:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7471,6 +8817,686 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t>Apenas com o Polarizador (caso para o qual está perfeitamente polarizado) </a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14746555822153132"/>
+          <c:y val="0.16484444444444443"/>
+          <c:w val="0.81453730300879756"/>
+          <c:h val="0.66002974628171474"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Polarização!$B$3:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>1.6580627893946132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5707963267948966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4835298641951802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3962634015954636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3089969389957472</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2217304763960306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1344640137963142</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0471975511965976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95993108859688125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87266462599716477</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78539816339744828</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69813170079773179</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6108652381980153</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52359877559829882</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43633231299858238</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3490658503988659</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26179938779914941</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17453292519943295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.7266462599716474E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8.7266462599716474E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.17453292519943295</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.26179938779914941</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.3490658503988659</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.43633231299858238</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.52359877559829882</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.6108652381980153</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.69813170079773179</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.78539816339744828</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.87266462599716477</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.95993108859688125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.0471975511965976</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.1344640137963142</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.2217304763960306</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.3089969389957472</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.3962634015954636</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.4835298641951802</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.5707963267948966</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.6580627893946132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Polarização!$E$3:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.57647058823529418</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6470588235294118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73235294117647054</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81176470588235294</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87058823529411766</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91764705882352926</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95294117647058818</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98235294117647054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95882352941176474</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89411764705882346</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83529411764705874</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76470588235294112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6823529411764705</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.57647058823529418</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.48235294117647054</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30588235294117649</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23529411764705888</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.12941176470588237</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.2352941176470559E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7058823529411757E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7647058823529401E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7647058823529401E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5294117647058858E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.2352941176470559E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.14117647058823526</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.21176470588235297</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.37647058823529411</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.44705882352941179</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.54117647058823526</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.61764705882352944</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.70588235294117652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6579-4271-A32C-127C97A55625}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1522638656"/>
+        <c:axId val="1939475904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1522638656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Ângulo do polarizador</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> (radianos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1939475904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1939475904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>VPP/VPPmax  (s.u.)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.3776936681198119E-2"/>
+              <c:y val="0.3819037620297463"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1522638656"/>
+        <c:crossesAt val="-3"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -8224,7 +10250,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -8523,7 +10549,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t>VPP/VPPmax (s.u.)</a:t>
+                  <a:t>VPP-vppmedio/deltavpp (s.u.)</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT"/>
               </a:p>
@@ -8658,7 +10684,16 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> (s.u.)</a:t>
+                  <a:t> - pa med / deltavpp</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t>(s.u.)</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" baseline="-25000"/>
               </a:p>
@@ -8786,7 +10821,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -8834,172 +10869,192 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12925348923659222"/>
-          <c:y val="0.15595555555555554"/>
-          <c:w val="0.83274937199373689"/>
-          <c:h val="0.63780752405949259"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Beta = 43º</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="19050">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Lâmina - 43'!$D$3:$D$22</c:f>
+              <c:f>'Lâmina - 83'!$G$3:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.339622641509434</c:v>
+                  <c:v>0.30670731707317084</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43396226415094336</c:v>
+                  <c:v>0.39207317073170733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57547169811320753</c:v>
+                  <c:v>0.45304878048780489</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68867924528301883</c:v>
+                  <c:v>0.42865853658536596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.820754716981132</c:v>
+                  <c:v>0.35548780487804893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91509433962264153</c:v>
+                  <c:v>0.23353658536585378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98113207547169823</c:v>
+                  <c:v>8.7195121951219506E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>-8.3536585365853622E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97169811320754729</c:v>
+                  <c:v>-0.22987804878048779</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.90566037735849059</c:v>
+                  <c:v>-0.400609756097561</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79716981132075471</c:v>
+                  <c:v>-0.49817073170731713</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.679245283018868</c:v>
+                  <c:v>-0.54695121951219505</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.54716981132075471</c:v>
+                  <c:v>-0.52256097560975612</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.41509433962264158</c:v>
+                  <c:v>-0.44939024390243903</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33018867924528306</c:v>
+                  <c:v>-0.32743902439024386</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.26415094339622641</c:v>
+                  <c:v>-0.15670731707317076</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.24528301886792456</c:v>
+                  <c:v>1.4024390243902467E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.26415094339622641</c:v>
+                  <c:v>0.18475609756097569</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.339622641509434</c:v>
+                  <c:v>0.33109756097560977</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.45283018867924529</c:v>
+                  <c:v>0.42865853658536596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Lâmina - 43'!$E$3:$E$22</c:f>
+              <c:f>'Lâmina - 83'!$F$3:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.93041344951996718</c:v>
+                  <c:v>0.17680198597781371</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93627429026988906</c:v>
+                  <c:v>0.32155582635283103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9498213921045725</c:v>
+                  <c:v>0.42418588245862332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9694207746088257</c:v>
+                  <c:v>0.47231345487051973</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99270846299655624</c:v>
+                  <c:v>0.46013364806832485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0168756183585272</c:v>
+                  <c:v>0.38911552650718684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0390073250888583</c:v>
+                  <c:v>0.26782492376322586</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0564341727266671</c:v>
+                  <c:v>0.11089127658601383</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0670542262539546</c:v>
+                  <c:v>-6.2756901080916791E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0695865504800328</c:v>
+                  <c:v>-0.23217507623677414</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0637257097301109</c:v>
+                  <c:v>-0.37692891661179123</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0501786078954274</c:v>
+                  <c:v>-0.47955897271758369</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0305792253911743</c:v>
+                  <c:v>-0.52768654512948021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0072915370034439</c:v>
+                  <c:v>-0.51550673832728522</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.98312438164147276</c:v>
+                  <c:v>-0.4444886167661472</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.96099267491114171</c:v>
+                  <c:v>-0.32319801402218629</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.94356582727333282</c:v>
+                  <c:v>-0.16626436684497425</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93294577374604537</c:v>
+                  <c:v>7.3838108219564129E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93041344951996729</c:v>
+                  <c:v>0.1768019859778136</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.93627429026988906</c:v>
+                  <c:v>0.32155582635283103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9007,167 +11062,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7B06-4EF4-8907-91D097ABF7CF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Beta = 83º</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Lâmina - 83'!$D$3:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.8867924528301887</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95283018867924529</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98113207547169823</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.92452830188679258</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83018867924528317</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.71698113207547165</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.58490566037735847</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.47169811320754718</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.339622641509434</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.26415094339622641</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.22641509433962265</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.24528301886792456</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.30188679245283023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.39622641509433965</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.52830188679245282</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.66037735849056611</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.79245283018867929</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.90566037735849059</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.98113207547169823</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Lâmina - 83'!$E$3:$E$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1.3946548264962941</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6740240480782131</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.8720960219263918</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9649803447637391</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9414737964294635</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8044116135723833</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5703255182674449</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2674497483512508</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.93231559164599132</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.60534517350370576</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.32597595192178719</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.12790397807360826</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.5019655236260661E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.8526203570536506E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.19558838642761667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.42967448173255496</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.7325502516487491</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0676844083540087</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.3946548264962939</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.6740240480782131</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7B06-4EF4-8907-91D097ABF7CF}"/>
+              <c16:uniqueId val="{00000000-0287-44BD-89D4-0F7FA0ECC871}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9186,6 +11081,8 @@
         <c:axId val="1522638656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+          <c:min val="-0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9224,12 +11121,20 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t>VPP / VPPmax (s.u.)</a:t>
+                  <a:t>VPP-vppmedio/deltavpp (s.u.)</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47594275819257043"/>
+              <c:y val="0.87868037328667248"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9238,6 +11143,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -9277,14 +11202,15 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1701359488"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1701359488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2"/>
+          <c:max val="0.60000000000000009"/>
+          <c:min val="-0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9327,8 +11253,22 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="pt-PT" baseline="-25000"/>
-                  <a:t>A</a:t>
+                  <a:t>A </a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> - pa med / deltavpp</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t>(s.u.)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT" baseline="-25000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -9340,6 +11280,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -9379,113 +11339,9 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1522638656"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-15"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.74538779527559063"/>
-          <c:y val="0.63411691191555108"/>
-          <c:w val="0.21413779527559054"/>
-          <c:h val="0.16073700787401574"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900"/>
-          </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Polarizador(55º)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>, Analisador e Lâmina</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -9493,606 +11349,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12925371453031889"/>
-          <c:y val="0.16484444444444443"/>
-          <c:w val="0.82380926633097895"/>
-          <c:h val="0.63780752405949259"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>43</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Lâmina - 43'!$B$3:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-0.78539816339744828</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.6108652381980153</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.43633231299858238</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.26179938779914941</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-8.7266462599716474E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.7266462599716474E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26179938779914941</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.43633231299858238</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6108652381980153</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.78539816339744828</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.95993108859688125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1344640137963142</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3089969389957472</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4835298641951802</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6580627893946132</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.8325957145940461</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.0071286397934789</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.1816615649929121</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.3561944901923448</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.530727415391778</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Lâmina - 43'!$C$3:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CDFC-4D18-B054-606664F5DB65}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>83</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Lâmina - 83'!$B$3:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-0.69813170079773179</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.52359877559829882</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.3490658503988659</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.17453292519943295</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17453292519943295</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3490658503988659</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.52359877559829882</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.69813170079773179</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.87266462599716477</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0471975511965976</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2217304763960306</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3962634015954636</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.5707963267948966</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.7453292519943295</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.9198621771937625</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.0943951023931953</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.2689280275926285</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.4434609527920612</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.6179938779914944</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Lâmina - 83'!$C$3:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>37.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CDFC-4D18-B054-606664F5DB65}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1522638656"/>
-        <c:axId val="1701359488"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1522638656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>Ângulo</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> de Analisador (radianos)</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-PT"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1701359488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1701359488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>VPP</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> (Volts)</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-PT"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.2889842632331903E-2"/>
-              <c:y val="0.34779247594050744"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1522638656"/>
-        <c:crossesAt val="-100"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.8422761425208114"/>
-          <c:y val="0.61983132108486449"/>
-          <c:w val="9.4776790240275757E-2"/>
-          <c:h val="0.16073700787401574"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -10192,6 +11475,86 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12099,7 +13462,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12615,7 +13978,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13131,7 +14494,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13647,7 +15010,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14163,7 +15526,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14679,7 +16042,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15195,7 +16558,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15711,7 +17074,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16227,20 +17590,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>340001</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>113472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>519525</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>526151</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>155850</xdr:rowOff>
+      <xdr:rowOff>135972</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16267,13 +18662,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>329565</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>32385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>43815</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>32385</xdr:rowOff>
@@ -16305,13 +18700,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>339090</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -16343,13 +18738,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -16381,13 +18776,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -16412,6 +18807,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>589722</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>112643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>166272</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>135143</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D426C0D9-5E24-4609-B7C3-D5C6C79F9447}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16491,6 +18924,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C603216A-62D3-49E8-9678-0EA972481D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17196,40 +19667,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C756C681-8152-40A3-AC76-807F44F66683}">
-  <dimension ref="A1:AA59"/>
+  <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView topLeftCell="Q50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView topLeftCell="AC27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AL22" sqref="AF22:AL48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="F1" s="17" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="28"/>
+      <c r="G1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
     </row>
-    <row r="2" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -17242,36 +19714,37 @@
       <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="29"/>
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="O2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="16"/>
+      <c r="P2" s="23"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>95</v>
       </c>
@@ -17286,41 +19759,45 @@
         <f>C3/$C$11</f>
         <v>0.69747899159663873</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="2">
+      <c r="E3" s="30">
+        <f>(C3-C$29)/($C$11-C$29)</f>
+        <v>0.57647058823529418</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="2">
         <v>90</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G21" si="0">RADIANS(F3)</f>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H21" si="0">RADIANS(G3)</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="H3" s="2">
-        <f>G3-RADIANS(55)</f>
+      <c r="I3" s="2">
+        <f>H3-RADIANS(55)</f>
         <v>0.6108652381980153</v>
       </c>
-      <c r="I3" s="2">
-        <f>G3-RADIANS(55-5)</f>
+      <c r="J3" s="2">
+        <f>H3-RADIANS(55-5)</f>
         <v>0.69813170079773179</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>36</v>
       </c>
-      <c r="K3" s="11">
-        <f>J3/$J$7</f>
+      <c r="L3" s="11">
+        <f>K3/$K$7</f>
         <v>0.5921052631578948</v>
-      </c>
-      <c r="L3" s="11">
-        <f>COS(H3)^2</f>
-        <v>0.67101007166283433</v>
       </c>
       <c r="M3" s="11">
         <f>COS(I3)^2</f>
+        <v>0.67101007166283433</v>
+      </c>
+      <c r="N3" s="11">
+        <f>COS(J3)^2</f>
         <v>0.58682408883346515</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>90</v>
       </c>
@@ -17332,44 +19809,48 @@
         <v>71.2</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D41" si="2">C4/$C$11</f>
+        <f>C4/$C$11</f>
         <v>0.74789915966386555</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="2">
+      <c r="E4" s="30">
+        <f t="shared" ref="E4:E41" si="2">(C4-C$29)/($C$11-C$29)</f>
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="2">
         <v>80</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
         <v>1.3962634015954636</v>
       </c>
-      <c r="H4" s="2">
-        <f t="shared" ref="H4:H21" si="3">G4-RADIANS(55)</f>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I21" si="3">H4-RADIANS(55)</f>
         <v>0.43633231299858233</v>
       </c>
-      <c r="I4" s="2">
-        <f t="shared" ref="I4:I21" si="4">G4-RADIANS(55-5)</f>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J21" si="4">H4-RADIANS(55-5)</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>46.4</v>
       </c>
-      <c r="K4" s="11">
-        <f t="shared" ref="K4:K21" si="5">J4/$J$7</f>
+      <c r="L4" s="11">
+        <f t="shared" ref="L4:L21" si="5">K4/$K$7</f>
         <v>0.76315789473684215</v>
       </c>
-      <c r="L4" s="11">
-        <f t="shared" ref="L4:L21" si="6">COS(H4)^2</f>
+      <c r="M4" s="11">
+        <f t="shared" ref="M4:M21" si="6">COS(I4)^2</f>
         <v>0.82139380484326963</v>
       </c>
-      <c r="M4" s="11">
-        <f t="shared" ref="M4:M21" si="7">COS(I4)^2</f>
+      <c r="N4" s="11">
+        <f t="shared" ref="N4:N21" si="7">COS(J4)^2</f>
         <v>0.75000000000000011</v>
       </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>85</v>
       </c>
@@ -17381,44 +19862,48 @@
         <v>77</v>
       </c>
       <c r="D5" s="2">
+        <f>C5/$C$11</f>
+        <v>0.80882352941176472</v>
+      </c>
+      <c r="E5" s="30">
         <f t="shared" si="2"/>
-        <v>0.80882352941176472</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="2">
+        <v>0.73235294117647054</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="2">
         <v>70</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>1.2217304763960306</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <f t="shared" si="3"/>
         <v>0.26179938779914935</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <f t="shared" si="4"/>
         <v>0.34906585039886584</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>53.6</v>
       </c>
-      <c r="K5" s="11">
+      <c r="L5" s="11">
         <f t="shared" si="5"/>
         <v>0.88157894736842113</v>
       </c>
-      <c r="L5" s="11">
+      <c r="M5" s="11">
         <f t="shared" si="6"/>
         <v>0.93301270189221941</v>
       </c>
-      <c r="M5" s="11">
+      <c r="N5" s="11">
         <f t="shared" si="7"/>
         <v>0.88302222155948906</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>80</v>
       </c>
@@ -17430,44 +19915,48 @@
         <v>82.4</v>
       </c>
       <c r="D6" s="2">
+        <f>C6/$C$11</f>
+        <v>0.86554621848739499</v>
+      </c>
+      <c r="E6" s="30">
         <f t="shared" si="2"/>
-        <v>0.86554621848739499</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="2">
+        <v>0.81176470588235294</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="2">
         <v>60</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>1.0471975511965976</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <f t="shared" si="3"/>
         <v>8.7266462599716377E-2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <f t="shared" si="4"/>
         <v>0.17453292519943286</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>58.8</v>
       </c>
-      <c r="K6" s="11">
+      <c r="L6" s="11">
         <f t="shared" si="5"/>
         <v>0.96710526315789469</v>
       </c>
-      <c r="L6" s="11">
+      <c r="M6" s="11">
         <f t="shared" si="6"/>
         <v>0.99240387650610407</v>
       </c>
-      <c r="M6" s="11">
+      <c r="N6" s="11">
         <f t="shared" si="7"/>
         <v>0.9698463103929541</v>
       </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>75</v>
       </c>
@@ -17479,42 +19968,46 @@
         <v>86.4</v>
       </c>
       <c r="D7" s="2">
+        <f>C7/$C$11</f>
+        <v>0.90756302521008403</v>
+      </c>
+      <c r="E7" s="30">
         <f t="shared" si="2"/>
-        <v>0.90756302521008403</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="2">
+        <v>0.87058823529411766</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="2">
         <v>50</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>0.87266462599716477</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <f t="shared" si="3"/>
         <v>-8.7266462599716488E-2</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>60.8</v>
       </c>
-      <c r="K7" s="11">
+      <c r="L7" s="11">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L7" s="11">
+      <c r="M7" s="11">
         <f t="shared" si="6"/>
         <v>0.99240387650610407</v>
       </c>
-      <c r="M7" s="11">
+      <c r="N7" s="11">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>70</v>
       </c>
@@ -17526,42 +20019,46 @@
         <v>89.6</v>
       </c>
       <c r="D8" s="2">
+        <f>C8/$C$11</f>
+        <v>0.94117647058823517</v>
+      </c>
+      <c r="E8" s="30">
         <f t="shared" si="2"/>
-        <v>0.94117647058823517</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="2">
+        <v>0.91764705882352926</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="2">
         <v>40</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>0.69813170079773179</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <f t="shared" si="3"/>
         <v>-0.26179938779914946</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <f t="shared" si="4"/>
         <v>-0.17453292519943298</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>59.2</v>
       </c>
-      <c r="K8" s="11">
+      <c r="L8" s="11">
         <f t="shared" si="5"/>
         <v>0.97368421052631593</v>
       </c>
-      <c r="L8" s="11">
+      <c r="M8" s="11">
         <f t="shared" si="6"/>
         <v>0.93301270189221941</v>
       </c>
-      <c r="M8" s="11">
+      <c r="N8" s="11">
         <f t="shared" si="7"/>
         <v>0.9698463103929541</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>65</v>
       </c>
@@ -17573,42 +20070,46 @@
         <v>92</v>
       </c>
       <c r="D9" s="2">
+        <f>C9/$C$11</f>
+        <v>0.96638655462184875</v>
+      </c>
+      <c r="E9" s="30">
         <f t="shared" si="2"/>
-        <v>0.96638655462184875</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="2">
+        <v>0.95294117647058818</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="2">
         <v>30</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>0.52359877559829882</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <f t="shared" si="3"/>
         <v>-0.43633231299858244</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <f t="shared" si="4"/>
         <v>-0.34906585039886595</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>54</v>
       </c>
-      <c r="K9" s="11">
+      <c r="L9" s="11">
         <f t="shared" si="5"/>
         <v>0.88815789473684215</v>
       </c>
-      <c r="L9" s="11">
+      <c r="M9" s="11">
         <f t="shared" si="6"/>
         <v>0.82139380484326963</v>
       </c>
-      <c r="M9" s="11">
+      <c r="N9" s="11">
         <f t="shared" si="7"/>
         <v>0.88302222155948884</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>60</v>
       </c>
@@ -17620,42 +20121,46 @@
         <v>94</v>
       </c>
       <c r="D10" s="2">
+        <f>C10/$C$11</f>
+        <v>0.98739495798319321</v>
+      </c>
+      <c r="E10" s="30">
         <f t="shared" si="2"/>
-        <v>0.98739495798319321</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="2">
+        <v>0.98235294117647054</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="2">
         <v>20</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>0.3490658503988659</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <f t="shared" si="3"/>
         <v>-0.6108652381980153</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <f t="shared" si="4"/>
         <v>-0.52359877559829893</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>46.4</v>
       </c>
-      <c r="K10" s="11">
+      <c r="L10" s="11">
         <f t="shared" si="5"/>
         <v>0.76315789473684215</v>
       </c>
-      <c r="L10" s="11">
+      <c r="M10" s="11">
         <f t="shared" si="6"/>
         <v>0.67101007166283433</v>
       </c>
-      <c r="M10" s="11">
+      <c r="N10" s="11">
         <f t="shared" si="7"/>
         <v>0.74999999999999989</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>55</v>
       </c>
@@ -17667,42 +20172,46 @@
         <v>95.2</v>
       </c>
       <c r="D11" s="2">
+        <f>C11/$C$11</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="2">
+      <c r="F11" s="10"/>
+      <c r="G11" s="2">
         <v>10</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>0.17453292519943295</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <f t="shared" si="3"/>
         <v>-0.78539816339744828</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <f t="shared" si="4"/>
         <v>-0.69813170079773179</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>36</v>
       </c>
-      <c r="K11" s="11">
+      <c r="L11" s="11">
         <f t="shared" si="5"/>
         <v>0.5921052631578948</v>
       </c>
-      <c r="L11" s="11">
+      <c r="M11" s="11">
         <f t="shared" si="6"/>
         <v>0.50000000000000011</v>
       </c>
-      <c r="M11" s="11">
+      <c r="N11" s="11">
         <f t="shared" si="7"/>
         <v>0.58682408883346515</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>50</v>
       </c>
@@ -17714,42 +20223,46 @@
         <v>94.4</v>
       </c>
       <c r="D12" s="2">
+        <f>C12/$C$11</f>
+        <v>0.99159663865546221</v>
+      </c>
+      <c r="E12" s="30">
         <f t="shared" si="2"/>
-        <v>0.99159663865546221</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="2">
+        <v>0.9882352941176471</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="2">
         <v>0</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <f t="shared" si="3"/>
         <v>-0.95993108859688125</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <f t="shared" si="4"/>
         <v>-0.87266462599716477</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>26.4</v>
       </c>
-      <c r="K12" s="11">
+      <c r="L12" s="11">
         <f t="shared" si="5"/>
         <v>0.43421052631578949</v>
       </c>
-      <c r="L12" s="11">
+      <c r="M12" s="11">
         <f t="shared" si="6"/>
         <v>0.32898992833716573</v>
       </c>
-      <c r="M12" s="11">
+      <c r="N12" s="11">
         <f t="shared" si="7"/>
         <v>0.41317591116653485</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45</v>
       </c>
@@ -17761,42 +20274,46 @@
         <v>94.4</v>
       </c>
       <c r="D13" s="2">
+        <f>C13/$C$11</f>
+        <v>0.99159663865546221</v>
+      </c>
+      <c r="E13" s="30">
         <f t="shared" si="2"/>
-        <v>0.99159663865546221</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="2">
+        <v>0.9882352941176471</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="2">
         <v>-10</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>-0.17453292519943295</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <f t="shared" si="3"/>
         <v>-1.1344640137963142</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <f t="shared" si="4"/>
         <v>-1.0471975511965976</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>16.399999999999999</v>
       </c>
-      <c r="K13" s="11">
+      <c r="L13" s="11">
         <f t="shared" si="5"/>
         <v>0.26973684210526316</v>
       </c>
-      <c r="L13" s="11">
+      <c r="M13" s="11">
         <f t="shared" si="6"/>
         <v>0.17860619515673035</v>
       </c>
-      <c r="M13" s="11">
+      <c r="N13" s="11">
         <f t="shared" si="7"/>
         <v>0.25000000000000011</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>40</v>
       </c>
@@ -17808,42 +20325,46 @@
         <v>92.4</v>
       </c>
       <c r="D14" s="2">
+        <f>C14/$C$11</f>
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="E14" s="30">
         <f t="shared" si="2"/>
-        <v>0.97058823529411764</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="2">
+        <v>0.95882352941176474</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="2">
         <v>-20</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <f t="shared" si="0"/>
         <v>-0.3490658503988659</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <f t="shared" si="3"/>
         <v>-1.3089969389957472</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <f t="shared" si="4"/>
         <v>-1.2217304763960306</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K14" s="11">
+      <c r="L14" s="11">
         <f t="shared" si="5"/>
         <v>0.14473684210526316</v>
       </c>
-      <c r="L14" s="11">
+      <c r="M14" s="11">
         <f t="shared" si="6"/>
         <v>6.698729810778066E-2</v>
       </c>
-      <c r="M14" s="11">
+      <c r="N14" s="11">
         <f t="shared" si="7"/>
         <v>0.11697777844051105</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>35</v>
       </c>
@@ -17855,42 +20376,46 @@
         <v>88</v>
       </c>
       <c r="D15" s="2">
+        <f>C15/$C$11</f>
+        <v>0.9243697478991596</v>
+      </c>
+      <c r="E15" s="30">
         <f t="shared" si="2"/>
-        <v>0.9243697478991596</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="2">
+        <v>0.89411764705882346</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="2">
         <v>-30</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <f t="shared" si="0"/>
         <v>-0.52359877559829882</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <f t="shared" si="3"/>
         <v>-1.4835298641951802</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <f t="shared" si="4"/>
         <v>-1.3962634015954636</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>3.6</v>
       </c>
-      <c r="K15" s="11">
+      <c r="L15" s="11">
         <f t="shared" si="5"/>
         <v>5.9210526315789477E-2</v>
       </c>
-      <c r="L15" s="11">
+      <c r="M15" s="11">
         <f t="shared" si="6"/>
         <v>7.5961234938959638E-3</v>
       </c>
-      <c r="M15" s="11">
+      <c r="N15" s="11">
         <f t="shared" si="7"/>
         <v>3.0153689607045831E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>30</v>
       </c>
@@ -17902,42 +20427,46 @@
         <v>84</v>
       </c>
       <c r="D16" s="2">
+        <f>C16/$C$11</f>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="E16" s="30">
         <f t="shared" si="2"/>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="2">
+        <v>0.83529411764705874</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="2">
         <v>-40</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <f t="shared" si="0"/>
         <v>-0.69813170079773179</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <f t="shared" si="3"/>
         <v>-1.6580627893946129</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <f t="shared" si="4"/>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>2.4</v>
       </c>
-      <c r="K16" s="11">
+      <c r="L16" s="11">
         <f t="shared" si="5"/>
         <v>3.9473684210526314E-2</v>
       </c>
-      <c r="L16" s="11">
+      <c r="M16" s="11">
         <f t="shared" si="6"/>
         <v>7.5961234938959421E-3</v>
       </c>
-      <c r="M16" s="11">
+      <c r="N16" s="11">
         <f t="shared" si="7"/>
         <v>3.7524718414124473E-33</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>25</v>
       </c>
@@ -17949,42 +20478,46 @@
         <v>79.2</v>
       </c>
       <c r="D17" s="2">
+        <f>C17/$C$11</f>
+        <v>0.83193277310924374</v>
+      </c>
+      <c r="E17" s="30">
         <f t="shared" si="2"/>
-        <v>0.83193277310924374</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="2">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="2">
         <v>-50</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <f t="shared" si="0"/>
         <v>-0.87266462599716477</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <f t="shared" si="3"/>
         <v>-1.8325957145940461</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <f t="shared" si="4"/>
         <v>-1.7453292519943295</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>4</v>
       </c>
-      <c r="K17" s="11">
+      <c r="L17" s="11">
         <f t="shared" si="5"/>
         <v>6.5789473684210523E-2</v>
       </c>
-      <c r="L17" s="11">
+      <c r="M17" s="11">
         <f t="shared" si="6"/>
         <v>6.6987298107780716E-2</v>
       </c>
-      <c r="M17" s="11">
+      <c r="N17" s="11">
         <f t="shared" si="7"/>
         <v>3.0153689607045793E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>20</v>
       </c>
@@ -17996,42 +20529,46 @@
         <v>73.599999999999994</v>
       </c>
       <c r="D18" s="2">
+        <f>C18/$C$11</f>
+        <v>0.77310924369747891</v>
+      </c>
+      <c r="E18" s="30">
         <f t="shared" si="2"/>
-        <v>0.77310924369747891</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="2">
+        <v>0.6823529411764705</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="2">
         <v>-60</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <f t="shared" si="0"/>
         <v>-1.0471975511965976</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <f t="shared" si="3"/>
         <v>-2.0071286397934789</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <f t="shared" si="4"/>
         <v>-1.9198621771937625</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>9.6</v>
       </c>
-      <c r="K18" s="11">
+      <c r="L18" s="11">
         <f t="shared" si="5"/>
         <v>0.15789473684210525</v>
       </c>
-      <c r="L18" s="11">
+      <c r="M18" s="11">
         <f t="shared" si="6"/>
         <v>0.17860619515673024</v>
       </c>
-      <c r="M18" s="11">
+      <c r="N18" s="11">
         <f t="shared" si="7"/>
         <v>0.11697777844051097</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -18043,42 +20580,46 @@
         <v>66.400000000000006</v>
       </c>
       <c r="D19" s="2">
+        <f>C19/$C$11</f>
+        <v>0.69747899159663873</v>
+      </c>
+      <c r="E19" s="30">
         <f t="shared" si="2"/>
-        <v>0.69747899159663873</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="2">
+        <v>0.57647058823529418</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="2">
         <v>-70</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <f t="shared" si="0"/>
         <v>-1.2217304763960306</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <f t="shared" si="3"/>
         <v>-2.1816615649929121</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <f t="shared" si="4"/>
         <v>-2.0943951023931953</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="K19" s="11">
+      <c r="L19" s="11">
         <f t="shared" si="5"/>
         <v>0.28947368421052633</v>
       </c>
-      <c r="L19" s="11">
+      <c r="M19" s="11">
         <f t="shared" si="6"/>
         <v>0.32898992833716573</v>
       </c>
-      <c r="M19" s="11">
+      <c r="N19" s="11">
         <f t="shared" si="7"/>
         <v>0.24999999999999978</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>10</v>
       </c>
@@ -18090,42 +20631,46 @@
         <v>60</v>
       </c>
       <c r="D20" s="2">
+        <f>C20/$C$11</f>
+        <v>0.63025210084033612</v>
+      </c>
+      <c r="E20" s="30">
         <f t="shared" si="2"/>
-        <v>0.63025210084033612</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="2">
+        <v>0.48235294117647054</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="2">
         <v>-80</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <f t="shared" si="0"/>
         <v>-1.3962634015954636</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <f t="shared" si="3"/>
         <v>-2.3561944901923448</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <f t="shared" si="4"/>
         <v>-2.2689280275926285</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>27.2</v>
       </c>
-      <c r="K20" s="11">
+      <c r="L20" s="11">
         <f t="shared" si="5"/>
         <v>0.44736842105263158</v>
       </c>
-      <c r="L20" s="11">
+      <c r="M20" s="11">
         <f t="shared" si="6"/>
         <v>0.49999999999999989</v>
       </c>
-      <c r="M20" s="11">
+      <c r="N20" s="11">
         <f t="shared" si="7"/>
         <v>0.41317591116653485</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -18137,42 +20682,46 @@
         <v>54.4</v>
       </c>
       <c r="D21" s="2">
+        <f>C21/$C$11</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E21" s="30">
         <f t="shared" si="2"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="2">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="2">
         <v>-90</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <f t="shared" si="0"/>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <f t="shared" si="3"/>
         <v>-2.5307274153917776</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <f t="shared" si="4"/>
         <v>-2.4434609527920612</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <v>37.6</v>
       </c>
-      <c r="K21" s="11">
+      <c r="L21" s="11">
         <f t="shared" si="5"/>
         <v>0.61842105263157898</v>
       </c>
-      <c r="L21" s="11">
+      <c r="M21" s="11">
         <f t="shared" si="6"/>
         <v>0.671010071662834</v>
       </c>
-      <c r="M21" s="11">
+      <c r="N21" s="11">
         <f t="shared" si="7"/>
         <v>0.58682408883346493</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -18184,14 +20733,18 @@
         <v>48</v>
       </c>
       <c r="D22" s="2">
+        <f>C22/$C$11</f>
+        <v>0.50420168067226889</v>
+      </c>
+      <c r="E22" s="30">
         <f t="shared" si="2"/>
-        <v>0.50420168067226889</v>
-      </c>
-      <c r="I22" s="18" t="s">
+        <v>0.30588235294117649</v>
+      </c>
+      <c r="J22" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>-5</v>
       </c>
@@ -18203,12 +20756,16 @@
         <v>43.2</v>
       </c>
       <c r="D23" s="2">
+        <f>C23/$C$11</f>
+        <v>0.45378151260504201</v>
+      </c>
+      <c r="E23" s="30">
         <f t="shared" si="2"/>
-        <v>0.45378151260504201</v>
-      </c>
-      <c r="I23" s="18"/>
+        <v>0.23529411764705888</v>
+      </c>
+      <c r="J23" s="25"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>-10</v>
       </c>
@@ -18220,12 +20777,16 @@
         <v>36</v>
       </c>
       <c r="D24" s="2">
+        <f>C24/$C$11</f>
+        <v>0.37815126050420167</v>
+      </c>
+      <c r="E24" s="30">
         <f t="shared" si="2"/>
-        <v>0.37815126050420167</v>
-      </c>
-      <c r="I24" s="18"/>
+        <v>0.12941176470588237</v>
+      </c>
+      <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>-15</v>
       </c>
@@ -18237,12 +20798,16 @@
         <v>32.799999999999997</v>
       </c>
       <c r="D25" s="2">
+        <f>C25/$C$11</f>
+        <v>0.34453781512605036</v>
+      </c>
+      <c r="E25" s="30">
         <f t="shared" si="2"/>
-        <v>0.34453781512605036</v>
-      </c>
-      <c r="I25" s="18"/>
+        <v>8.2352941176470559E-2</v>
+      </c>
+      <c r="J25" s="25"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>-20</v>
       </c>
@@ -18254,12 +20819,16 @@
         <v>30.4</v>
       </c>
       <c r="D26" s="2">
+        <f>C26/$C$11</f>
+        <v>0.31932773109243695</v>
+      </c>
+      <c r="E26" s="30">
         <f t="shared" si="2"/>
-        <v>0.31932773109243695</v>
-      </c>
-      <c r="I26" s="18"/>
+        <v>4.7058823529411757E-2</v>
+      </c>
+      <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>-25</v>
       </c>
@@ -18271,11 +20840,15 @@
         <v>28.4</v>
       </c>
       <c r="D27" s="2">
+        <f>C27/$C$11</f>
+        <v>0.29831932773109243</v>
+      </c>
+      <c r="E27" s="30">
         <f t="shared" si="2"/>
-        <v>0.29831932773109243</v>
+        <v>1.7647058823529401E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>-30</v>
       </c>
@@ -18287,20 +20860,24 @@
         <v>27.2</v>
       </c>
       <c r="D28" s="2">
+        <f>C28/$C$11</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E28" s="30">
         <f t="shared" si="2"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="F28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="6">
+      <c r="H28" s="26"/>
+      <c r="I28" s="6">
         <f>(C11-C29)/(C11+C29)</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>-35</v>
       </c>
@@ -18312,11 +20889,15 @@
         <v>27.2</v>
       </c>
       <c r="D29" s="2">
+        <f>C29/$C$11</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E29" s="30">
         <f t="shared" si="2"/>
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>-40</v>
       </c>
@@ -18328,11 +20909,15 @@
         <v>27.2</v>
       </c>
       <c r="D30" s="2">
+        <f>C30/$C$11</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E30" s="30">
         <f t="shared" si="2"/>
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>-45</v>
       </c>
@@ -18344,11 +20929,15 @@
         <v>28.4</v>
       </c>
       <c r="D31" s="2">
+        <f>C31/$C$11</f>
+        <v>0.29831932773109243</v>
+      </c>
+      <c r="E31" s="30">
         <f t="shared" si="2"/>
-        <v>0.29831932773109243</v>
+        <v>1.7647058823529401E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>-50</v>
       </c>
@@ -18360,11 +20949,15 @@
         <v>29.6</v>
       </c>
       <c r="D32" s="2">
+        <f>C32/$C$11</f>
+        <v>0.31092436974789917</v>
+      </c>
+      <c r="E32" s="30">
         <f t="shared" si="2"/>
-        <v>0.31092436974789917</v>
+        <v>3.5294117647058858E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>-55</v>
       </c>
@@ -18376,11 +20969,15 @@
         <v>32.799999999999997</v>
       </c>
       <c r="D33" s="2">
+        <f>C33/$C$11</f>
+        <v>0.34453781512605036</v>
+      </c>
+      <c r="E33" s="30">
         <f t="shared" si="2"/>
-        <v>0.34453781512605036</v>
+        <v>8.2352941176470559E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>-60</v>
       </c>
@@ -18392,11 +20989,15 @@
         <v>36.799999999999997</v>
       </c>
       <c r="D34" s="2">
+        <f>C34/$C$11</f>
+        <v>0.38655462184873945</v>
+      </c>
+      <c r="E34" s="30">
         <f t="shared" si="2"/>
-        <v>0.38655462184873945</v>
+        <v>0.14117647058823526</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>-65</v>
       </c>
@@ -18408,11 +21009,15 @@
         <v>41.6</v>
       </c>
       <c r="D35" s="2">
+        <f>C35/$C$11</f>
+        <v>0.43697478991596639</v>
+      </c>
+      <c r="E35" s="30">
         <f t="shared" si="2"/>
-        <v>0.43697478991596639</v>
+        <v>0.21176470588235297</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>-70</v>
       </c>
@@ -18424,11 +21029,15 @@
         <v>47.6</v>
       </c>
       <c r="D36" s="2">
+        <f>C36/$C$11</f>
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="30">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>-75</v>
       </c>
@@ -18440,11 +21049,15 @@
         <v>52.8</v>
       </c>
       <c r="D37" s="2">
+        <f>C37/$C$11</f>
+        <v>0.55462184873949572</v>
+      </c>
+      <c r="E37" s="30">
         <f t="shared" si="2"/>
-        <v>0.55462184873949572</v>
+        <v>0.37647058823529411</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>-80</v>
       </c>
@@ -18456,11 +21069,15 @@
         <v>57.6</v>
       </c>
       <c r="D38" s="2">
+        <f>C38/$C$11</f>
+        <v>0.60504201680672265</v>
+      </c>
+      <c r="E38" s="30">
         <f t="shared" si="2"/>
-        <v>0.60504201680672265</v>
+        <v>0.44705882352941179</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>-85</v>
       </c>
@@ -18472,11 +21089,15 @@
         <v>64</v>
       </c>
       <c r="D39" s="2">
+        <f>C39/$C$11</f>
+        <v>0.67226890756302515</v>
+      </c>
+      <c r="E39" s="30">
         <f t="shared" si="2"/>
-        <v>0.67226890756302515</v>
+        <v>0.54117647058823526</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>-90</v>
       </c>
@@ -18488,11 +21109,15 @@
         <v>69.2</v>
       </c>
       <c r="D40" s="2">
+        <f>C40/$C$11</f>
+        <v>0.72689075630252098</v>
+      </c>
+      <c r="E40" s="30">
         <f t="shared" si="2"/>
-        <v>0.72689075630252098</v>
+        <v>0.61764705882352944</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>-95</v>
       </c>
@@ -18504,49 +21129,76 @@
         <v>75.2</v>
       </c>
       <c r="D41" s="2">
+        <f>C41/$C$11</f>
+        <v>0.78991596638655459</v>
+      </c>
+      <c r="E41" s="30">
         <f t="shared" si="2"/>
-        <v>0.78991596638655459</v>
-      </c>
-      <c r="Y41" s="20" t="s">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="Z41" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="21">
-        <f>RSQ(K3:K21,L3:L21)</f>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="21">
+        <f>RSQ(L3:L21,M3:M21)</f>
         <v>0.97059649523454494</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="Y42" s="20"/>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="Z42" s="20"/>
-      <c r="AA42" s="22"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="22"/>
     </row>
-    <row r="58" spans="25:27" x14ac:dyDescent="0.3">
-      <c r="Y58" s="20" t="s">
+    <row r="52" spans="26:29" x14ac:dyDescent="0.3">
+      <c r="AA52" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB52" s="27"/>
+      <c r="AC52" s="27"/>
+    </row>
+    <row r="53" spans="26:29" x14ac:dyDescent="0.3">
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="27"/>
+      <c r="AC53" s="27"/>
+    </row>
+    <row r="54" spans="26:29" x14ac:dyDescent="0.3">
+      <c r="AA54" s="27"/>
+      <c r="AB54" s="27"/>
+      <c r="AC54" s="27"/>
+    </row>
+    <row r="55" spans="26:29" x14ac:dyDescent="0.3">
+      <c r="AA55" s="27"/>
+      <c r="AB55" s="27"/>
+      <c r="AC55" s="27"/>
+    </row>
+    <row r="58" spans="26:29" x14ac:dyDescent="0.3">
+      <c r="Z58" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="Z58" s="20"/>
-      <c r="AA58" s="21">
-        <f>RSQ(M3:M21,K3:K21)</f>
+      <c r="AA58" s="20"/>
+      <c r="AB58" s="21">
+        <f>RSQ(N3:N21,L3:L21)</f>
         <v>0.99949954907022054</v>
       </c>
     </row>
-    <row r="59" spans="25:27" x14ac:dyDescent="0.3">
-      <c r="Y59" s="20"/>
+    <row r="59" spans="26:29" x14ac:dyDescent="0.3">
       <c r="Z59" s="20"/>
-      <c r="AA59" s="22"/>
+      <c r="AA59" s="20"/>
+      <c r="AB59" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="Y41:Z42"/>
-    <mergeCell ref="AA41:AA42"/>
-    <mergeCell ref="Y58:Z59"/>
-    <mergeCell ref="AA58:AA59"/>
-    <mergeCell ref="N2:O6"/>
+  <mergeCells count="10">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="J22:J26"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="AA52:AC55"/>
+    <mergeCell ref="Z41:AA42"/>
+    <mergeCell ref="AB41:AB42"/>
+    <mergeCell ref="Z58:AA59"/>
+    <mergeCell ref="AB58:AB59"/>
+    <mergeCell ref="O2:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18555,10 +21207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF3B386-072D-4DD8-952A-56344A1D5722}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="V14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AK21" sqref="AK21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18566,16 +21218,16 @@
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -18591,8 +21243,14 @@
       <c r="E2" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>-45</v>
       </c>
@@ -18608,16 +21266,19 @@
         <v>0.8867924528301887</v>
       </c>
       <c r="E3" s="2">
-        <f>COS(B3)^2+COS(2*$H$10-B3)^2</f>
+        <f>COS(B3)^2+COS(2*$V$13-B3)^2</f>
         <v>1.3946548264962941</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="F3" s="1">
+        <f>(E3-AVERAGE(E$3:E$22))/(MAX(E$3:E$22)-MIN(E$3:E$22))</f>
+        <v>0.17680198597781371</v>
+      </c>
+      <c r="G3" s="1">
+        <f>(C3-AVERAGE(C$3:C$22))/(MAX(C$3:C$22)-MIN(C$3:C$22))</f>
+        <v>0.30670731707317084</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>-35</v>
       </c>
@@ -18633,14 +21294,19 @@
         <v>0.95283018867924529</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E22" si="2">COS(B4)^2+COS(2*$H$10-B4)^2</f>
+        <f>COS(B4)^2+COS(2*$V$13-B4)^2</f>
         <v>1.6740240480782131</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F22" si="2">(E4-AVERAGE(E$3:E$22))/(MAX(E$3:E$22)-MIN(E$3:E$22))</f>
+        <v>0.32155582635283103</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G22" si="3">(C4-AVERAGE(C$3:C$22))/(MAX(C$3:C$22)-MIN(C$3:C$22))</f>
+        <v>0.39207317073170733</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>-25</v>
       </c>
@@ -18656,14 +21322,24 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
+        <f>COS(B5)^2+COS(2*$V$13-B5)^2</f>
+        <v>1.8720960219263918</v>
+      </c>
+      <c r="F5" s="1">
         <f t="shared" si="2"/>
-        <v>1.8720960219263918</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+        <v>0.42418588245862332</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.45304878048780489</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>-15</v>
       </c>
@@ -18679,14 +21355,22 @@
         <v>0.98113207547169823</v>
       </c>
       <c r="E6" s="2">
+        <f>COS(B6)^2+COS(2*$V$13-B6)^2</f>
+        <v>1.9649803447637391</v>
+      </c>
+      <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>1.9649803447637391</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+        <v>0.47231345487051973</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.42865853658536596</v>
+      </c>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>-5</v>
       </c>
@@ -18702,14 +21386,22 @@
         <v>0.92452830188679258</v>
       </c>
       <c r="E7" s="2">
+        <f>COS(B7)^2+COS(2*$V$13-B7)^2</f>
+        <v>1.9414737964294635</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>1.9414737964294635</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+        <v>0.46013364806832485</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35548780487804893</v>
+      </c>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -18725,11 +21417,22 @@
         <v>0.83018867924528317</v>
       </c>
       <c r="E8" s="2">
+        <f>COS(B8)^2+COS(2*$V$13-B8)^2</f>
+        <v>1.8044116135723833</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>1.8044116135723833</v>
-      </c>
+        <v>0.38911552650718684</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.23353658536585378</v>
+      </c>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>15</v>
       </c>
@@ -18745,17 +21448,22 @@
         <v>0.71698113207547165</v>
       </c>
       <c r="E9" s="2">
+        <f>COS(B9)^2+COS(2*$V$13-B9)^2</f>
+        <v>1.5703255182674449</v>
+      </c>
+      <c r="F9" s="1">
         <f t="shared" si="2"/>
-        <v>1.5703255182674449</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="2">
-        <v>83</v>
-      </c>
+        <v>0.26782492376322586</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
+        <v>8.7195121951219506E-2</v>
+      </c>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>25</v>
       </c>
@@ -18771,18 +21479,19 @@
         <v>0.58490566037735847</v>
       </c>
       <c r="E10" s="2">
+        <f>COS(B10)^2+COS(2*$V$13-B10)^2</f>
+        <v>1.2674497483512508</v>
+      </c>
+      <c r="F10" s="1">
         <f t="shared" si="2"/>
-        <v>1.2674497483512508</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="2">
-        <f>RADIANS(H9)</f>
-        <v>1.4486232791552935</v>
+        <v>0.11089127658601383</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>-8.3536585365853622E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>35</v>
       </c>
@@ -18798,11 +21507,19 @@
         <v>0.47169811320754718</v>
       </c>
       <c r="E11" s="2">
+        <f>COS(B11)^2+COS(2*$V$13-B11)^2</f>
+        <v>0.93231559164599132</v>
+      </c>
+      <c r="F11" s="1">
         <f t="shared" si="2"/>
-        <v>0.93231559164599132</v>
+        <v>-6.2756901080916791E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.22987804878048779</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45</v>
       </c>
@@ -18818,11 +21535,25 @@
         <v>0.339622641509434</v>
       </c>
       <c r="E12" s="2">
+        <f>COS(B12)^2+COS(2*$V$13-B12)^2</f>
+        <v>0.60534517350370576</v>
+      </c>
+      <c r="F12" s="1">
         <f t="shared" si="2"/>
-        <v>0.60534517350370576</v>
+        <v>-0.23217507623677414</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.400609756097561</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V12" s="2">
+        <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>55</v>
       </c>
@@ -18838,8 +21569,16 @@
         <v>0.26415094339622641</v>
       </c>
       <c r="E13" s="2">
+        <f>COS(B13)^2+COS(2*$V$13-B13)^2</f>
+        <v>0.32597595192178719</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="2"/>
-        <v>0.32597595192178719</v>
+        <v>-0.37692891661179123</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.49817073170731713</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>48</v>
@@ -18847,8 +21586,15 @@
       <c r="J13" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="U13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="2">
+        <f>RADIANS(V12)</f>
+        <v>1.4486232791552935</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>65</v>
       </c>
@@ -18864,8 +21610,16 @@
         <v>0.22641509433962265</v>
       </c>
       <c r="E14" s="2">
+        <f>COS(B14)^2+COS(2*$V$13-B14)^2</f>
+        <v>0.12790397807360826</v>
+      </c>
+      <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>0.12790397807360826</v>
+        <v>-0.47955897271758369</v>
+      </c>
+      <c r="G14" s="1">
+        <f>(C14-AVERAGE(C$3:C$22))/(MAX(C$3:C$22)-MIN(C$3:C$22))</f>
+        <v>-0.54695121951219505</v>
       </c>
       <c r="I14" s="1">
         <v>90</v>
@@ -18874,7 +21628,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>75</v>
       </c>
@@ -18890,15 +21644,16 @@
         <v>0.24528301886792456</v>
       </c>
       <c r="E15" s="2">
+        <f>COS(B15)^2+COS(2*$V$13-B15)^2</f>
+        <v>3.5019655236260661E-2</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="2"/>
-        <v>3.5019655236260661E-2</v>
-      </c>
-      <c r="F15" s="1" cm="1">
-        <f t="array" ref="F15:G15">LINEST(I14:I15,J14:J15)</f>
-        <v>-1</v>
+        <v>-0.52768654512948021</v>
       </c>
       <c r="G15" s="1">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>-0.52256097560975612</v>
       </c>
       <c r="I15" s="1">
         <v>5</v>
@@ -18906,8 +21661,19 @@
       <c r="J15" s="1">
         <v>45</v>
       </c>
+      <c r="AB15" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>85</v>
       </c>
@@ -18923,11 +21689,28 @@
         <v>0.30188679245283023</v>
       </c>
       <c r="E16" s="2">
+        <f>COS(B16)^2+COS(2*$V$13-B16)^2</f>
+        <v>5.8526203570536506E-2</v>
+      </c>
+      <c r="F16" s="1">
         <f t="shared" si="2"/>
-        <v>5.8526203570536506E-2</v>
-      </c>
+        <v>-0.51550673832728522</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.44939024390243903</v>
+      </c>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>95</v>
       </c>
@@ -18943,18 +21726,35 @@
         <v>0.39622641509433965</v>
       </c>
       <c r="E17" s="2">
+        <f>COS(B17)^2+COS(2*$V$13-B17)^2</f>
+        <v>0.19558838642761667</v>
+      </c>
+      <c r="F17" s="1">
         <f t="shared" si="2"/>
-        <v>0.19558838642761667</v>
+        <v>-0.4444886167661472</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.32743902439024386</v>
       </c>
       <c r="I17" s="1">
         <v>-90</v>
       </c>
       <c r="J17" s="1">
         <f>I17*$F$15+$G$15</f>
-        <v>140</v>
-      </c>
+        <v>46.969228086043465</v>
+      </c>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>105</v>
       </c>
@@ -18970,18 +21770,35 @@
         <v>0.52830188679245282</v>
       </c>
       <c r="E18" s="2">
+        <f>COS(B18)^2+COS(2*$V$13-B18)^2</f>
+        <v>0.42967448173255496</v>
+      </c>
+      <c r="F18" s="1">
         <f t="shared" si="2"/>
-        <v>0.42967448173255496</v>
+        <v>-0.32319801402218629</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.15670731707317076</v>
       </c>
       <c r="I18" s="1">
         <v>-80</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" ref="J18:J35" si="3">I18*$F$15+$G$15</f>
-        <v>130</v>
-      </c>
+        <f t="shared" ref="J18:J35" si="4">I18*$F$15+$G$15</f>
+        <v>41.692362634748662</v>
+      </c>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>115</v>
       </c>
@@ -18997,18 +21814,35 @@
         <v>0.66037735849056611</v>
       </c>
       <c r="E19" s="2">
+        <f>COS(B19)^2+COS(2*$V$13-B19)^2</f>
+        <v>0.7325502516487491</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>0.7325502516487491</v>
+        <v>-0.16626436684497425</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4024390243902467E-2</v>
       </c>
       <c r="I19" s="1">
         <v>-70</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>36.415497183453859</v>
+      </c>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>125</v>
       </c>
@@ -19024,18 +21858,35 @@
         <v>0.79245283018867929</v>
       </c>
       <c r="E20" s="2">
+        <f>COS(B20)^2+COS(2*$V$13-B20)^2</f>
+        <v>1.0676844083540087</v>
+      </c>
+      <c r="F20" s="1">
         <f t="shared" si="2"/>
-        <v>1.0676844083540087</v>
+        <v>7.3838108219564129E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.18475609756097569</v>
       </c>
       <c r="I20" s="1">
         <v>-60</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>31.138631732159055</v>
+      </c>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>135</v>
       </c>
@@ -19051,18 +21902,35 @@
         <v>0.90566037735849059</v>
       </c>
       <c r="E21" s="2">
+        <f>COS(B21)^2+COS(2*$V$13-B21)^2</f>
+        <v>1.3946548264962939</v>
+      </c>
+      <c r="F21" s="1">
         <f t="shared" si="2"/>
-        <v>1.3946548264962939</v>
+        <v>0.1768019859778136</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.33109756097560977</v>
       </c>
       <c r="I21" s="1">
         <v>-50</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>25.861766280864252</v>
+      </c>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>145</v>
       </c>
@@ -19078,27 +21946,53 @@
         <v>0.98113207547169823</v>
       </c>
       <c r="E22" s="2">
+        <f>COS(B22)^2+COS(2*$V$13-B22)^2</f>
+        <v>1.6740240480782131</v>
+      </c>
+      <c r="F22" s="1">
         <f t="shared" si="2"/>
-        <v>1.6740240480782131</v>
+        <v>0.32155582635283103</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="3"/>
+        <v>0.42865853658536596</v>
       </c>
       <c r="I22" s="1">
         <v>-40</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>20.584900829569452</v>
+      </c>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="I23" s="1">
         <v>-30</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>15.308035378274649</v>
+      </c>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B24" s="1" cm="1">
         <f t="array" ref="B24:B43">COS(B3:B22)^2</f>
         <v>0.58682408883346515</v>
@@ -19107,11 +22001,20 @@
         <v>-20</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>10.031169926979848</v>
+      </c>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>0.75000000000000011</v>
       </c>
@@ -19119,11 +22022,20 @@
         <v>-10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>4.7543044756850463</v>
+      </c>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>0.88302222155948906</v>
       </c>
@@ -19131,11 +22043,20 @@
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>-0.52256097560975612</v>
+      </c>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>0.9698463103929541</v>
       </c>
@@ -19143,11 +22064,20 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>-5.7994264269045583</v>
+      </c>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>1</v>
       </c>
@@ -19155,11 +22085,20 @@
         <v>20</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>-11.076291878199362</v>
+      </c>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>0.9698463103929541</v>
       </c>
@@ -19167,11 +22106,11 @@
         <v>30</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>-16.353157329494163</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>0.88302222155948906</v>
       </c>
@@ -19179,11 +22118,11 @@
         <v>40</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>-21.630022780788966</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>0.75000000000000011</v>
       </c>
@@ -19191,11 +22130,11 @@
         <v>50</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-26.906888232083766</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>0.58682408883346515</v>
       </c>
@@ -19203,8 +22142,8 @@
         <v>60</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
-        <v>-10</v>
+        <f t="shared" si="4"/>
+        <v>-32.183753683378569</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
@@ -19215,8 +22154,8 @@
         <v>70</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
-        <v>-20</v>
+        <f t="shared" si="4"/>
+        <v>-37.460619134673372</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
@@ -19227,8 +22166,8 @@
         <v>80</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
-        <v>-30</v>
+        <f t="shared" si="4"/>
+        <v>-42.737484585968176</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
@@ -19239,8 +22178,8 @@
         <v>90</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
-        <v>-40</v>
+        <f t="shared" si="4"/>
+        <v>-48.014350037262979</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
@@ -19284,9 +22223,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G3:I7"/>
+  <mergeCells count="3">
+    <mergeCell ref="T5:V9"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AB15:AJ28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19298,7 +22238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5302B7-50F8-4784-AFBC-5E3A2AEE181A}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
@@ -19308,13 +22248,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -19352,11 +22292,11 @@
         <f>COS(B3)^2+COS(2*$H$10-B3)^2</f>
         <v>0.93041344951996718</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -19377,9 +22317,9 @@
         <f t="shared" ref="E4:E22" si="2">COS(B4)^2+COS(2*$H$10-B4)^2</f>
         <v>0.93627429026988906</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -19400,9 +22340,9 @@
         <f t="shared" si="2"/>
         <v>0.9498213921045725</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -19423,9 +22363,9 @@
         <f t="shared" si="2"/>
         <v>0.9694207746088257</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -19446,9 +22386,9 @@
         <f t="shared" si="2"/>
         <v>0.99270846299655624</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -19777,7 +22717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD30DFD-D638-43EC-8030-F74C3758638B}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
@@ -19854,12 +22794,12 @@
         <f>C2-C25</f>
         <v>0.7</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
       <c r="M2" s="4" t="s">
         <v>20</v>
       </c>
@@ -19910,7 +22850,7 @@
       <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="17">
         <f t="array" ref="I3:J5">LINEST(B2:B12,A2:A12,1,1)</f>
         <v>1.7677272727272727E-6</v>
       </c>
@@ -19976,10 +22916,10 @@
       <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="16">
         <v>2.698458901071382E-8</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="16">
         <v>3.1928596300307218E-8</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -20048,7 +22988,7 @@
       <c r="I5" s="11">
         <v>0.99790717100245185</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="16">
         <v>5.6603351437343383E-8</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -20210,7 +23150,7 @@
       <c r="AA9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB9" s="26">
+      <c r="AB9" s="18">
         <f>AB8/AB7</f>
         <v>8.5746772439787691E-2</v>
       </c>
@@ -20244,7 +23184,7 @@
       <c r="AA10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AB10" s="27">
+      <c r="AB10" s="19">
         <f>(AB7-AD10)/AD10</f>
         <v>0.14047378724832346</v>
       </c>
@@ -20337,7 +23277,7 @@
       <c r="AA14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AB14" s="26">
+      <c r="AB14" s="18">
         <f>AB13/AB12</f>
         <v>8.5746772439787691E-2</v>
       </c>
@@ -20349,7 +23289,7 @@
       <c r="AA15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AB15" s="27">
+      <c r="AB15" s="19">
         <f>ABS(AB12-AD15)/AD15</f>
         <v>0.12317142999599436</v>
       </c>
@@ -20400,16 +23340,16 @@
       <c r="C23" s="1">
         <v>3.2399999999999986E-6</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
       <c r="M23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N23" s="24">
+      <c r="N23" s="16">
         <f>2*PI()*N2/I24</f>
         <v>309314586.99472755</v>
       </c>
@@ -20434,7 +23374,7 @@
       <c r="M24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="25">
+      <c r="N24" s="17">
         <f>SQRT((2*PI()/I24*P2)^2+(2*PI()/(I24^2)*N2*I25)^2)</f>
         <v>4181196.0795863708</v>
       </c>

--- a/EXP 9/T9.xlsx
+++ b/EXP 9/T9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\faculdade\3º Ano\Labs III\LABSFISICAIII\EXP 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCACB47-EDA6-48AC-9A5A-D48EBB9246F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B33BF7D-84EE-472F-AB24-1F2EBB426DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CAF38A1F-BD9D-416B-BE17-8DE3D13292B8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>Sem Analisador</t>
   </si>
@@ -351,6 +351,12 @@
   <si>
     <t>Esta correção provem do facto do laser não estar perfeitamente polarizado para 45º, valor pretendido pela lei de malus.</t>
   </si>
+  <si>
+    <t>pa norm 2</t>
+  </si>
+  <si>
+    <t>pa norm2</t>
+  </si>
 </sst>
 </file>
 
@@ -535,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -594,6 +600,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -617,15 +629,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1392,9 +1395,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Beta = 43º</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050">
               <a:noFill/>
@@ -1406,138 +1406,138 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Lâmina - 43'!$D$3:$D$22</c:f>
+              <c:f>'Lâmina - 43'!$H$3:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.339622641509434</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43396226415094336</c:v>
+                  <c:v>0.24999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57547169811320753</c:v>
+                  <c:v>0.43749999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68867924528301883</c:v>
+                  <c:v>0.58749999999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.820754716981132</c:v>
+                  <c:v>0.76249999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91509433962264153</c:v>
+                  <c:v>0.88749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98113207547169823</c:v>
+                  <c:v>0.97500000000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97169811320754729</c:v>
+                  <c:v>0.96250000000000013</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.90566037735849059</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79716981132075471</c:v>
+                  <c:v>0.73124999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.679245283018868</c:v>
+                  <c:v>0.57499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.54716981132075471</c:v>
+                  <c:v>0.39999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.41509433962264158</c:v>
+                  <c:v>0.22500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33018867924528306</c:v>
+                  <c:v>0.11249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.26415094339622641</c:v>
+                  <c:v>2.4999999999999967E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.24528301886792456</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.26415094339622641</c:v>
+                  <c:v>2.4999999999999967E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.339622641509434</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.45283018867924529</c:v>
+                  <c:v>0.27499999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Lâmina - 43'!$E$3:$E$22</c:f>
+              <c:f>'Lâmina - 43'!$G$3:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.93041344951996718</c:v>
+                  <c:v>3.0153689607046074E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93627429026988906</c:v>
+                  <c:v>0.11697777844051101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9498213921045725</c:v>
+                  <c:v>0.25000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9694207746088257</c:v>
+                  <c:v>0.41317591116653524</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99270846299655624</c:v>
+                  <c:v>0.5868240888334656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0168756183585272</c:v>
+                  <c:v>0.75000000000000022</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0390073250888583</c:v>
+                  <c:v>0.88302222155948951</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0564341727266671</c:v>
+                  <c:v>0.96984631039295455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0670542262539546</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0695865504800328</c:v>
+                  <c:v>0.96984631039295455</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0637257097301109</c:v>
+                  <c:v>0.88302222155948951</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0501786078954274</c:v>
+                  <c:v>0.75000000000000022</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0305792253911743</c:v>
+                  <c:v>0.58682408883346526</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0072915370034439</c:v>
+                  <c:v>0.41317591116653474</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.98312438164147276</c:v>
+                  <c:v>0.25000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.96099267491114171</c:v>
+                  <c:v>0.11697777844051101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.94356582727333282</c:v>
+                  <c:v>3.0153689607046074E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93294577374604537</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93041344951996729</c:v>
+                  <c:v>3.0153689607045911E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.93627429026988906</c:v>
+                  <c:v>0.11697777844051133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1566,138 +1566,138 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Lâmina - 83'!$D$3:$D$22</c:f>
+              <c:f>'Lâmina - 83'!$G$3:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.8867924528301887</c:v>
+                  <c:v>0.85365853658536595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95283018867924529</c:v>
+                  <c:v>0.93902439024390238</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98113207547169823</c:v>
+                  <c:v>0.97560975609756106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92452830188679258</c:v>
+                  <c:v>0.90243902439024404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83018867924528317</c:v>
+                  <c:v>0.78048780487804892</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71698113207547165</c:v>
+                  <c:v>0.63414634146341464</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58490566037735847</c:v>
+                  <c:v>0.46341463414634154</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47169811320754718</c:v>
+                  <c:v>0.31707317073170738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.339622641509434</c:v>
+                  <c:v>0.14634146341463419</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.26415094339622641</c:v>
+                  <c:v>4.8780487804878044E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.22641509433962265</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.24528301886792456</c:v>
+                  <c:v>2.439024390243905E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.30188679245283023</c:v>
+                  <c:v>9.7560975609756143E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.39622641509433965</c:v>
+                  <c:v>0.21951219512195128</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.52830188679245282</c:v>
+                  <c:v>0.3902439024390244</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.66037735849056611</c:v>
+                  <c:v>0.56097560975609762</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.79245283018867929</c:v>
+                  <c:v>0.73170731707317083</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.90566037735849059</c:v>
+                  <c:v>0.87804878048780488</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.98113207547169823</c:v>
+                  <c:v>0.97560975609756106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Lâmina - 83'!$E$3:$E$22</c:f>
+              <c:f>'Lâmina - 83'!$F$3:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.3946548264962941</c:v>
+                  <c:v>0.75000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6740240480782131</c:v>
+                  <c:v>0.88302222155948884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8720960219263918</c:v>
+                  <c:v>0.9698463103929541</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9649803447637391</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9414737964294635</c:v>
+                  <c:v>0.9698463103929541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8044116135723833</c:v>
+                  <c:v>0.88302222155948917</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5703255182674449</c:v>
+                  <c:v>0.74999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2674497483512508</c:v>
+                  <c:v>0.58682408883346515</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.93231559164599132</c:v>
+                  <c:v>0.41317591116653496</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.60534517350370576</c:v>
+                  <c:v>0.25000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32597595192178719</c:v>
+                  <c:v>0.11697777844051106</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.12790397807360826</c:v>
+                  <c:v>3.0153689607045824E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5019655236260661E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8526203570536506E-2</c:v>
+                  <c:v>3.0153689607045824E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.19558838642761667</c:v>
+                  <c:v>0.11697777844051106</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.42967448173255496</c:v>
+                  <c:v>0.25000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7325502516487491</c:v>
+                  <c:v>0.41317591116653468</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0676844083540087</c:v>
+                  <c:v>0.58682408883346515</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3946548264962939</c:v>
+                  <c:v>0.74999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6740240480782131</c:v>
+                  <c:v>0.88302222155948917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1724,6 +1724,7 @@
         <c:axId val="1522638656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1822,7 +1823,7 @@
         <c:axId val="1701359488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2240,64 +2241,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-0.69813170079773179</c:v>
+                  <c:v>-0.78539816339744828</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.52359877559829882</c:v>
+                  <c:v>-0.6108652381980153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.3490658503988659</c:v>
+                  <c:v>-0.43633231299858238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.17453292519943295</c:v>
+                  <c:v>-0.26179938779914941</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-8.7266462599716474E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17453292519943295</c:v>
+                  <c:v>8.7266462599716474E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3490658503988659</c:v>
+                  <c:v>0.26179938779914941</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.52359877559829882</c:v>
+                  <c:v>0.43633231299858238</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69813170079773179</c:v>
+                  <c:v>0.6108652381980153</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87266462599716477</c:v>
+                  <c:v>0.78539816339744828</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0471975511965976</c:v>
+                  <c:v>0.95993108859688125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2217304763960306</c:v>
+                  <c:v>1.1344640137963142</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3962634015954636</c:v>
+                  <c:v>1.3089969389957472</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5707963267948966</c:v>
+                  <c:v>1.4835298641951802</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7453292519943295</c:v>
+                  <c:v>1.6580627893946132</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9198621771937625</c:v>
+                  <c:v>1.8325957145940461</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0943951023931953</c:v>
+                  <c:v>2.0071286397934789</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2689280275926285</c:v>
+                  <c:v>2.1816615649929121</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.4434609527920612</c:v>
+                  <c:v>2.3561944901923448</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.6179938779914944</c:v>
+                  <c:v>2.530727415391778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2841,69 +2842,69 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Lâmina - 43'!$D$3:$D$22</c:f>
+              <c:f>'Lâmina - 43'!$H$3:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.339622641509434</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43396226415094336</c:v>
+                  <c:v>0.24999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57547169811320753</c:v>
+                  <c:v>0.43749999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68867924528301883</c:v>
+                  <c:v>0.58749999999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.820754716981132</c:v>
+                  <c:v>0.76249999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91509433962264153</c:v>
+                  <c:v>0.88749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98113207547169823</c:v>
+                  <c:v>0.97500000000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97169811320754729</c:v>
+                  <c:v>0.96250000000000013</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.90566037735849059</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79716981132075471</c:v>
+                  <c:v>0.73124999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.679245283018868</c:v>
+                  <c:v>0.57499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.54716981132075471</c:v>
+                  <c:v>0.39999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.41509433962264158</c:v>
+                  <c:v>0.22500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33018867924528306</c:v>
+                  <c:v>0.11249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.26415094339622641</c:v>
+                  <c:v>2.4999999999999967E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.24528301886792456</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.26415094339622641</c:v>
+                  <c:v>2.4999999999999967E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.339622641509434</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.45283018867924529</c:v>
+                  <c:v>0.27499999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2918,9 +2919,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>teorico</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -3014,69 +3012,69 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Lâmina - 43'!$E$3:$E$22</c:f>
+              <c:f>'Lâmina - 43'!$G$3:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.93041344951996718</c:v>
+                  <c:v>3.0153689607046074E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93627429026988906</c:v>
+                  <c:v>0.11697777844051101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9498213921045725</c:v>
+                  <c:v>0.25000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9694207746088257</c:v>
+                  <c:v>0.41317591116653524</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99270846299655624</c:v>
+                  <c:v>0.5868240888334656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0168756183585272</c:v>
+                  <c:v>0.75000000000000022</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0390073250888583</c:v>
+                  <c:v>0.88302222155948951</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0564341727266671</c:v>
+                  <c:v>0.96984631039295455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0670542262539546</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0695865504800328</c:v>
+                  <c:v>0.96984631039295455</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0637257097301109</c:v>
+                  <c:v>0.88302222155948951</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0501786078954274</c:v>
+                  <c:v>0.75000000000000022</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0305792253911743</c:v>
+                  <c:v>0.58682408883346526</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0072915370034439</c:v>
+                  <c:v>0.41317591116653474</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.98312438164147276</c:v>
+                  <c:v>0.25000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.96099267491114171</c:v>
+                  <c:v>0.11697777844051101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.94356582727333282</c:v>
+                  <c:v>3.0153689607046074E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93294577374604537</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93041344951996729</c:v>
+                  <c:v>3.0153689607045911E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.93627429026988906</c:v>
+                  <c:v>0.11697777844051133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3582,64 +3580,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.93041344951996718</c:v>
+                  <c:v>0.67860619515673037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93627429026988906</c:v>
+                  <c:v>0.73799736977061492</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9498213921045725</c:v>
+                  <c:v>0.82898992833716556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9694207746088257</c:v>
+                  <c:v>0.94060882538611545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99270846299655624</c:v>
+                  <c:v>1.0593911746138849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0168756183585272</c:v>
+                  <c:v>1.1710100716628344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0390073250888583</c:v>
+                  <c:v>1.2620026302293852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0564341727266671</c:v>
+                  <c:v>1.3213938048432698</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0670542262539546</c:v>
+                  <c:v>1.3420201433256687</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0695865504800328</c:v>
+                  <c:v>1.3213938048432698</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0637257097301109</c:v>
+                  <c:v>1.2620026302293852</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0501786078954274</c:v>
+                  <c:v>1.1710100716628344</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0305792253911743</c:v>
+                  <c:v>1.0593911746138847</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0072915370034439</c:v>
+                  <c:v>0.94060882538611512</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.98312438164147276</c:v>
+                  <c:v>0.82898992833716556</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.96099267491114171</c:v>
+                  <c:v>0.73799736977061492</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.94356582727333282</c:v>
+                  <c:v>0.67860619515673037</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93294577374604537</c:v>
+                  <c:v>0.65797985667433112</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93041344951996729</c:v>
+                  <c:v>0.67860619515673026</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.93627429026988906</c:v>
+                  <c:v>0.73799736977061514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3958,6 +3956,490 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0"/>
+          <c:y val="1.4536787393584698E-4"/>
+          <c:w val="1"/>
+          <c:h val="0.99985462962962968"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lâmina - 43'!$H$3:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43749999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58749999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96250000000000013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73124999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4999999999999967E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4999999999999967E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.27499999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lâmina - 43'!$G$3:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.0153689607046074E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11697777844051101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41317591116653524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5868240888334656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88302222155948951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96984631039295455</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96984631039295455</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88302222155948951</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58682408883346526</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41317591116653474</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11697777844051101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0153689607046074E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0153689607045911E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11697777844051133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-276A-427D-A54D-9520A50B7630}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Beta = 83º</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lâmina - 83'!$G$3:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.85365853658536595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93902439024390238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97560975609756106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90243902439024404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78048780487804892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63414634146341464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46341463414634154</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31707317073170738</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14634146341463419</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8780487804878044E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.439024390243905E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.7560975609756143E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.21951219512195128</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3902439024390244</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56097560975609762</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.73170731707317083</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.87804878048780488</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97560975609756106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lâmina - 83'!$F$3:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.75000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88302222155948884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9698463103929541</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9698463103929541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88302222155948917</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58682408883346515</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41317591116653496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11697777844051106</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0153689607045824E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0153689607045824E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11697777844051106</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.41317591116653468</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.58682408883346515</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.88302222155948917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-276A-427D-A54D-9520A50B7630}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ajuste?</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lâmina - 43'!$K$34:$K$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lâmina - 43'!$N$34:$N$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-276A-427D-A54D-9520A50B7630}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1522638656"/>
+        <c:axId val="1701359488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1522638656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1701359488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1701359488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1522638656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -4621,7 +5103,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -5170,7 +5652,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -5823,7 +6305,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -9624,133 +10106,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-0.69813170079773179</c:v>
+                  <c:v>-0.78539816339744828</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.52359877559829882</c:v>
+                  <c:v>-0.6108652381980153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.3490658503988659</c:v>
+                  <c:v>-0.43633231299858238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.17453292519943295</c:v>
+                  <c:v>-0.26179938779914941</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-8.7266462599716474E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17453292519943295</c:v>
+                  <c:v>8.7266462599716474E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3490658503988659</c:v>
+                  <c:v>0.26179938779914941</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.52359877559829882</c:v>
+                  <c:v>0.43633231299858238</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69813170079773179</c:v>
+                  <c:v>0.6108652381980153</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87266462599716477</c:v>
+                  <c:v>0.78539816339744828</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0471975511965976</c:v>
+                  <c:v>0.95993108859688125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2217304763960306</c:v>
+                  <c:v>1.1344640137963142</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3962634015954636</c:v>
+                  <c:v>1.3089969389957472</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5707963267948966</c:v>
+                  <c:v>1.4835298641951802</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7453292519943295</c:v>
+                  <c:v>1.6580627893946132</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9198621771937625</c:v>
+                  <c:v>1.8325957145940461</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0943951023931953</c:v>
+                  <c:v>2.0071286397934789</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2689280275926285</c:v>
+                  <c:v>2.1816615649929121</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.4434609527920612</c:v>
+                  <c:v>2.3561944901923448</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.6179938779914944</c:v>
+                  <c:v>2.530727415391778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Lâmina - 83'!$D$3:$D$22</c:f>
+              <c:f>'Lâmina - 83'!$G$3:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.8867924528301887</c:v>
+                  <c:v>0.85365853658536595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95283018867924529</c:v>
+                  <c:v>0.93902439024390238</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98113207547169823</c:v>
+                  <c:v>0.97560975609756106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92452830188679258</c:v>
+                  <c:v>0.90243902439024404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83018867924528317</c:v>
+                  <c:v>0.78048780487804892</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71698113207547165</c:v>
+                  <c:v>0.63414634146341464</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58490566037735847</c:v>
+                  <c:v>0.46341463414634154</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47169811320754718</c:v>
+                  <c:v>0.31707317073170738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.339622641509434</c:v>
+                  <c:v>0.14634146341463419</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.26415094339622641</c:v>
+                  <c:v>4.8780487804878044E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.22641509433962265</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.24528301886792456</c:v>
+                  <c:v>2.439024390243905E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.30188679245283023</c:v>
+                  <c:v>9.7560975609756143E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.39622641509433965</c:v>
+                  <c:v>0.21951219512195128</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.52830188679245282</c:v>
+                  <c:v>0.3902439024390244</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.66037735849056611</c:v>
+                  <c:v>0.56097560975609762</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.79245283018867929</c:v>
+                  <c:v>0.73170731707317083</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.90566037735849059</c:v>
+                  <c:v>0.87804878048780488</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.98113207547169823</c:v>
+                  <c:v>0.97560975609756106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9765,9 +10247,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>teorico</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -9797,133 +10276,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-0.69813170079773179</c:v>
+                  <c:v>-0.78539816339744828</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.52359877559829882</c:v>
+                  <c:v>-0.6108652381980153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.3490658503988659</c:v>
+                  <c:v>-0.43633231299858238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.17453292519943295</c:v>
+                  <c:v>-0.26179938779914941</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-8.7266462599716474E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17453292519943295</c:v>
+                  <c:v>8.7266462599716474E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3490658503988659</c:v>
+                  <c:v>0.26179938779914941</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.52359877559829882</c:v>
+                  <c:v>0.43633231299858238</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69813170079773179</c:v>
+                  <c:v>0.6108652381980153</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87266462599716477</c:v>
+                  <c:v>0.78539816339744828</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0471975511965976</c:v>
+                  <c:v>0.95993108859688125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2217304763960306</c:v>
+                  <c:v>1.1344640137963142</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3962634015954636</c:v>
+                  <c:v>1.3089969389957472</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5707963267948966</c:v>
+                  <c:v>1.4835298641951802</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7453292519943295</c:v>
+                  <c:v>1.6580627893946132</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9198621771937625</c:v>
+                  <c:v>1.8325957145940461</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0943951023931953</c:v>
+                  <c:v>2.0071286397934789</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2689280275926285</c:v>
+                  <c:v>2.1816615649929121</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.4434609527920612</c:v>
+                  <c:v>2.3561944901923448</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.6179938779914944</c:v>
+                  <c:v>2.530727415391778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Lâmina - 83'!$E$3:$E$22</c:f>
+              <c:f>'Lâmina - 83'!$F$3:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.3946548264962941</c:v>
+                  <c:v>0.75000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6740240480782131</c:v>
+                  <c:v>0.88302222155948884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8720960219263918</c:v>
+                  <c:v>0.9698463103929541</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9649803447637391</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9414737964294635</c:v>
+                  <c:v>0.9698463103929541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8044116135723833</c:v>
+                  <c:v>0.88302222155948917</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5703255182674449</c:v>
+                  <c:v>0.74999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2674497483512508</c:v>
+                  <c:v>0.58682408883346515</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.93231559164599132</c:v>
+                  <c:v>0.41317591116653496</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.60534517350370576</c:v>
+                  <c:v>0.25000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32597595192178719</c:v>
+                  <c:v>0.11697777844051106</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.12790397807360826</c:v>
+                  <c:v>3.0153689607045824E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5019655236260661E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8526203570536506E-2</c:v>
+                  <c:v>3.0153689607045824E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.19558838642761667</c:v>
+                  <c:v>0.11697777844051106</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.42967448173255496</c:v>
+                  <c:v>0.25000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7325502516487491</c:v>
+                  <c:v>0.41317591116653468</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0676844083540087</c:v>
+                  <c:v>0.58682408883346515</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3946548264962939</c:v>
+                  <c:v>0.74999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6740240480782131</c:v>
+                  <c:v>0.88302222155948917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10421,69 +10900,69 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Lâmina - 83'!$E$3:$E$22</c:f>
+              <c:f>'Lâmina - 83'!$F$3:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.3946548264962941</c:v>
+                  <c:v>0.75000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6740240480782131</c:v>
+                  <c:v>0.88302222155948884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8720960219263918</c:v>
+                  <c:v>0.9698463103929541</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9649803447637391</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9414737964294635</c:v>
+                  <c:v>0.9698463103929541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8044116135723833</c:v>
+                  <c:v>0.88302222155948917</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5703255182674449</c:v>
+                  <c:v>0.74999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2674497483512508</c:v>
+                  <c:v>0.58682408883346515</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.93231559164599132</c:v>
+                  <c:v>0.41317591116653496</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.60534517350370576</c:v>
+                  <c:v>0.25000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32597595192178719</c:v>
+                  <c:v>0.11697777844051106</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.12790397807360826</c:v>
+                  <c:v>3.0153689607045824E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5019655236260661E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8526203570536506E-2</c:v>
+                  <c:v>3.0153689607045824E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.19558838642761667</c:v>
+                  <c:v>0.11697777844051106</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.42967448173255496</c:v>
+                  <c:v>0.25000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7325502516487491</c:v>
+                  <c:v>0.41317591116653468</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0676844083540087</c:v>
+                  <c:v>0.58682408883346515</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3946548264962939</c:v>
+                  <c:v>0.74999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6740240480782131</c:v>
+                  <c:v>0.88302222155948917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10928,64 +11407,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.30670731707317084</c:v>
+                  <c:v>0.85365853658536595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39207317073170733</c:v>
+                  <c:v>0.93902439024390238</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45304878048780489</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42865853658536596</c:v>
+                  <c:v>0.97560975609756106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35548780487804893</c:v>
+                  <c:v>0.90243902439024404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23353658536585378</c:v>
+                  <c:v>0.78048780487804892</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7195121951219506E-2</c:v>
+                  <c:v>0.63414634146341464</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.3536585365853622E-2</c:v>
+                  <c:v>0.46341463414634154</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.22987804878048779</c:v>
+                  <c:v>0.31707317073170738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.400609756097561</c:v>
+                  <c:v>0.14634146341463419</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.49817073170731713</c:v>
+                  <c:v>4.8780487804878044E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.54695121951219505</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.52256097560975612</c:v>
+                  <c:v>2.439024390243905E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.44939024390243903</c:v>
+                  <c:v>9.7560975609756143E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.32743902439024386</c:v>
+                  <c:v>0.21951219512195128</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.15670731707317076</c:v>
+                  <c:v>0.3902439024390244</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4024390243902467E-2</c:v>
+                  <c:v>0.56097560975609762</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.18475609756097569</c:v>
+                  <c:v>0.73170731707317083</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.33109756097560977</c:v>
+                  <c:v>0.87804878048780488</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.42865853658536596</c:v>
+                  <c:v>0.97560975609756106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10997,64 +11476,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.17680198597781371</c:v>
+                  <c:v>0.75000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32155582635283103</c:v>
+                  <c:v>0.88302222155948884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42418588245862332</c:v>
+                  <c:v>0.9698463103929541</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47231345487051973</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46013364806832485</c:v>
+                  <c:v>0.9698463103929541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38911552650718684</c:v>
+                  <c:v>0.88302222155948917</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26782492376322586</c:v>
+                  <c:v>0.74999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11089127658601383</c:v>
+                  <c:v>0.58682408883346515</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6.2756901080916791E-2</c:v>
+                  <c:v>0.41317591116653496</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.23217507623677414</c:v>
+                  <c:v>0.25000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.37692891661179123</c:v>
+                  <c:v>0.11697777844051106</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.47955897271758369</c:v>
+                  <c:v>3.0153689607045824E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.52768654512948021</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.51550673832728522</c:v>
+                  <c:v>3.0153689607045824E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.4444886167661472</c:v>
+                  <c:v>0.11697777844051106</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.32319801402218629</c:v>
+                  <c:v>0.25000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.16626436684497425</c:v>
+                  <c:v>0.41317591116653468</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.3838108219564129E-3</c:v>
+                  <c:v>0.58682408883346515</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1768019859778136</c:v>
+                  <c:v>0.74999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.32155582635283103</c:v>
+                  <c:v>0.88302222155948917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11081,8 +11560,7 @@
         <c:axId val="1522638656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.60000000000000009"/>
-          <c:min val="-0.60000000000000009"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11209,8 +11687,6 @@
         <c:axId val="1701359488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.60000000000000009"/>
-          <c:min val="-0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -18974,16 +19450,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>518988</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>534228</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>214188</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>229428</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19012,13 +19488,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>68973</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>37443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>373773</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>37443</xdr:rowOff>
@@ -19050,13 +19526,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -19088,13 +19564,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>603623</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>12809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>298823</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>12809</xdr:rowOff>
@@ -19119,6 +19595,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>349624</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>546847</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A8B9F9-1B1B-4DCC-9AAD-81077E65F48C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19669,8 +20183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C756C681-8152-40A3-AC76-807F44F66683}">
   <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView topLeftCell="AC27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AL22" sqref="AF22:AL48"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19683,23 +20197,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="28"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="20"/>
+      <c r="G1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -19714,7 +20228,7 @@
       <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="29"/>
+      <c r="E2" s="21"/>
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
@@ -19739,10 +20253,10 @@
       <c r="N2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="23"/>
+      <c r="P2" s="25"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -19756,10 +20270,10 @@
         <v>66.400000000000006</v>
       </c>
       <c r="D3" s="2">
-        <f>C3/$C$11</f>
+        <f t="shared" ref="D3:D41" si="0">C3/$C$11</f>
         <v>0.69747899159663873</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="1">
         <f>(C3-C$29)/($C$11-C$29)</f>
         <v>0.57647058823529418</v>
       </c>
@@ -19768,7 +20282,7 @@
         <v>90</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H21" si="0">RADIANS(G3)</f>
+        <f t="shared" ref="H3:H21" si="1">RADIANS(G3)</f>
         <v>1.5707963267948966</v>
       </c>
       <c r="I3" s="2">
@@ -19794,26 +20308,26 @@
         <f>COS(J3)^2</f>
         <v>0.58682408883346515</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>90</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B41" si="1">RADIANS(A4)</f>
+        <f t="shared" ref="B4:B41" si="2">RADIANS(A4)</f>
         <v>1.5707963267948966</v>
       </c>
       <c r="C4" s="2">
         <v>71.2</v>
       </c>
       <c r="D4" s="2">
-        <f>C4/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.74789915966386555</v>
       </c>
-      <c r="E4" s="30">
-        <f t="shared" ref="E4:E41" si="2">(C4-C$29)/($C$11-C$29)</f>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E41" si="3">(C4-C$29)/($C$11-C$29)</f>
         <v>0.6470588235294118</v>
       </c>
       <c r="F4" s="10"/>
@@ -19821,52 +20335,52 @@
         <v>80</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3962634015954636</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:I21" si="3">H4-RADIANS(55)</f>
+        <f t="shared" ref="I4:I21" si="4">H4-RADIANS(55)</f>
         <v>0.43633231299858233</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J21" si="4">H4-RADIANS(55-5)</f>
+        <f t="shared" ref="J4:J21" si="5">H4-RADIANS(55-5)</f>
         <v>0.52359877559829882</v>
       </c>
       <c r="K4" s="2">
         <v>46.4</v>
       </c>
       <c r="L4" s="11">
-        <f t="shared" ref="L4:L21" si="5">K4/$K$7</f>
+        <f t="shared" ref="L4:L21" si="6">K4/$K$7</f>
         <v>0.76315789473684215</v>
       </c>
       <c r="M4" s="11">
-        <f t="shared" ref="M4:M21" si="6">COS(I4)^2</f>
+        <f t="shared" ref="M4:M21" si="7">COS(I4)^2</f>
         <v>0.82139380484326963</v>
       </c>
       <c r="N4" s="11">
-        <f t="shared" ref="N4:N21" si="7">COS(J4)^2</f>
+        <f t="shared" ref="N4:N21" si="8">COS(J4)^2</f>
         <v>0.75000000000000011</v>
       </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>85</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4835298641951802</v>
       </c>
       <c r="C5" s="2">
         <v>77</v>
       </c>
       <c r="D5" s="2">
-        <f>C5/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.80882352941176472</v>
       </c>
-      <c r="E5" s="30">
-        <f t="shared" si="2"/>
+      <c r="E5" s="1">
+        <f t="shared" si="3"/>
         <v>0.73235294117647054</v>
       </c>
       <c r="F5" s="10"/>
@@ -19874,52 +20388,52 @@
         <v>70</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2217304763960306</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.26179938779914935</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.34906585039886584</v>
       </c>
       <c r="K5" s="2">
         <v>53.6</v>
       </c>
       <c r="L5" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.88157894736842113</v>
       </c>
       <c r="M5" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.93301270189221941</v>
       </c>
       <c r="N5" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.88302222155948906</v>
       </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>80</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3962634015954636</v>
       </c>
       <c r="C6" s="2">
         <v>82.4</v>
       </c>
       <c r="D6" s="2">
-        <f>C6/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.86554621848739499</v>
       </c>
-      <c r="E6" s="30">
-        <f t="shared" si="2"/>
+      <c r="E6" s="1">
+        <f t="shared" si="3"/>
         <v>0.81176470588235294</v>
       </c>
       <c r="F6" s="10"/>
@@ -19927,52 +20441,52 @@
         <v>60</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.7266462599716377E-2</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17453292519943286</v>
       </c>
       <c r="K6" s="2">
         <v>58.8</v>
       </c>
       <c r="L6" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.96710526315789469</v>
       </c>
       <c r="M6" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.99240387650610407</v>
       </c>
       <c r="N6" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.9698463103929541</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>75</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3089969389957472</v>
       </c>
       <c r="C7" s="2">
         <v>86.4</v>
       </c>
       <c r="D7" s="2">
-        <f>C7/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.90756302521008403</v>
       </c>
-      <c r="E7" s="30">
-        <f t="shared" si="2"/>
+      <c r="E7" s="1">
+        <f t="shared" si="3"/>
         <v>0.87058823529411766</v>
       </c>
       <c r="F7" s="10"/>
@@ -19980,30 +20494,30 @@
         <v>50</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87266462599716477</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.7266462599716488E-2</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>60.8</v>
       </c>
       <c r="L7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M7" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.99240387650610407</v>
       </c>
       <c r="N7" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -20012,18 +20526,18 @@
         <v>70</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2217304763960306</v>
       </c>
       <c r="C8" s="2">
         <v>89.6</v>
       </c>
       <c r="D8" s="2">
-        <f>C8/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.94117647058823517</v>
       </c>
-      <c r="E8" s="30">
-        <f t="shared" si="2"/>
+      <c r="E8" s="1">
+        <f t="shared" si="3"/>
         <v>0.91764705882352926</v>
       </c>
       <c r="F8" s="10"/>
@@ -20031,30 +20545,30 @@
         <v>40</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69813170079773179</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.26179938779914946</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.17453292519943298</v>
       </c>
       <c r="K8" s="2">
         <v>59.2</v>
       </c>
       <c r="L8" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.97368421052631593</v>
       </c>
       <c r="M8" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.93301270189221941</v>
       </c>
       <c r="N8" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.9698463103929541</v>
       </c>
     </row>
@@ -20063,18 +20577,18 @@
         <v>65</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1344640137963142</v>
       </c>
       <c r="C9" s="2">
         <v>92</v>
       </c>
       <c r="D9" s="2">
-        <f>C9/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.96638655462184875</v>
       </c>
-      <c r="E9" s="30">
-        <f t="shared" si="2"/>
+      <c r="E9" s="1">
+        <f t="shared" si="3"/>
         <v>0.95294117647058818</v>
       </c>
       <c r="F9" s="10"/>
@@ -20082,30 +20596,30 @@
         <v>30</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.52359877559829882</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.43633231299858244</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.34906585039886595</v>
       </c>
       <c r="K9" s="2">
         <v>54</v>
       </c>
       <c r="L9" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.88815789473684215</v>
       </c>
       <c r="M9" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82139380484326963</v>
       </c>
       <c r="N9" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.88302222155948884</v>
       </c>
     </row>
@@ -20114,18 +20628,18 @@
         <v>60</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="C10" s="2">
         <v>94</v>
       </c>
       <c r="D10" s="2">
-        <f>C10/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.98739495798319321</v>
       </c>
-      <c r="E10" s="30">
-        <f t="shared" si="2"/>
+      <c r="E10" s="1">
+        <f t="shared" si="3"/>
         <v>0.98235294117647054</v>
       </c>
       <c r="F10" s="10"/>
@@ -20133,30 +20647,30 @@
         <v>20</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3490658503988659</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.6108652381980153</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.52359877559829893</v>
       </c>
       <c r="K10" s="2">
         <v>46.4</v>
       </c>
       <c r="L10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.76315789473684215</v>
       </c>
       <c r="M10" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.67101007166283433</v>
       </c>
       <c r="N10" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.74999999999999989</v>
       </c>
     </row>
@@ -20165,18 +20679,18 @@
         <v>55</v>
       </c>
       <c r="B11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95993108859688125</v>
       </c>
       <c r="C11" s="9">
         <v>95.2</v>
       </c>
       <c r="D11" s="2">
-        <f>C11/$C$11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E11" s="30">
-        <f t="shared" si="2"/>
+      <c r="E11" s="1">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F11" s="10"/>
@@ -20184,30 +20698,30 @@
         <v>10</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17453292519943295</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.78539816339744828</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.69813170079773179</v>
       </c>
       <c r="K11" s="2">
         <v>36</v>
       </c>
       <c r="L11" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5921052631578948</v>
       </c>
       <c r="M11" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="N11" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.58682408883346515</v>
       </c>
     </row>
@@ -20216,18 +20730,18 @@
         <v>50</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87266462599716477</v>
       </c>
       <c r="C12" s="2">
         <v>94.4</v>
       </c>
       <c r="D12" s="2">
-        <f>C12/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.99159663865546221</v>
       </c>
-      <c r="E12" s="30">
-        <f t="shared" si="2"/>
+      <c r="E12" s="1">
+        <f t="shared" si="3"/>
         <v>0.9882352941176471</v>
       </c>
       <c r="F12" s="10"/>
@@ -20235,30 +20749,30 @@
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.95993108859688125</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.87266462599716477</v>
       </c>
       <c r="K12" s="2">
         <v>26.4</v>
       </c>
       <c r="L12" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.43421052631578949</v>
       </c>
       <c r="M12" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.32898992833716573</v>
       </c>
       <c r="N12" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.41317591116653485</v>
       </c>
     </row>
@@ -20267,18 +20781,18 @@
         <v>45</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="C13" s="2">
         <v>94.4</v>
       </c>
       <c r="D13" s="2">
-        <f>C13/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.99159663865546221</v>
       </c>
-      <c r="E13" s="30">
-        <f t="shared" si="2"/>
+      <c r="E13" s="1">
+        <f t="shared" si="3"/>
         <v>0.9882352941176471</v>
       </c>
       <c r="F13" s="10"/>
@@ -20286,30 +20800,30 @@
         <v>-10</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.17453292519943295</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.1344640137963142</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.0471975511965976</v>
       </c>
       <c r="K13" s="2">
         <v>16.399999999999999</v>
       </c>
       <c r="L13" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.26973684210526316</v>
       </c>
       <c r="M13" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.17860619515673035</v>
       </c>
       <c r="N13" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25000000000000011</v>
       </c>
     </row>
@@ -20318,18 +20832,18 @@
         <v>40</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.69813170079773179</v>
       </c>
       <c r="C14" s="2">
         <v>92.4</v>
       </c>
       <c r="D14" s="2">
-        <f>C14/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.97058823529411764</v>
       </c>
-      <c r="E14" s="30">
-        <f t="shared" si="2"/>
+      <c r="E14" s="1">
+        <f t="shared" si="3"/>
         <v>0.95882352941176474</v>
       </c>
       <c r="F14" s="10"/>
@@ -20337,30 +20851,30 @@
         <v>-20</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.3490658503988659</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.3089969389957472</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.2217304763960306</v>
       </c>
       <c r="K14" s="2">
         <v>8.8000000000000007</v>
       </c>
       <c r="L14" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.14473684210526316</v>
       </c>
       <c r="M14" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.698729810778066E-2</v>
       </c>
       <c r="N14" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11697777844051105</v>
       </c>
     </row>
@@ -20369,18 +20883,18 @@
         <v>35</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.6108652381980153</v>
       </c>
       <c r="C15" s="2">
         <v>88</v>
       </c>
       <c r="D15" s="2">
-        <f>C15/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.9243697478991596</v>
       </c>
-      <c r="E15" s="30">
-        <f t="shared" si="2"/>
+      <c r="E15" s="1">
+        <f t="shared" si="3"/>
         <v>0.89411764705882346</v>
       </c>
       <c r="F15" s="10"/>
@@ -20388,30 +20902,30 @@
         <v>-30</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.52359877559829882</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.4835298641951802</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.3962634015954636</v>
       </c>
       <c r="K15" s="2">
         <v>3.6</v>
       </c>
       <c r="L15" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.9210526315789477E-2</v>
       </c>
       <c r="M15" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.5961234938959638E-3</v>
       </c>
       <c r="N15" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0153689607045831E-2</v>
       </c>
     </row>
@@ -20420,18 +20934,18 @@
         <v>30</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.52359877559829882</v>
       </c>
       <c r="C16" s="2">
         <v>84</v>
       </c>
       <c r="D16" s="2">
-        <f>C16/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.88235294117647056</v>
       </c>
-      <c r="E16" s="30">
-        <f t="shared" si="2"/>
+      <c r="E16" s="1">
+        <f t="shared" si="3"/>
         <v>0.83529411764705874</v>
       </c>
       <c r="F16" s="10"/>
@@ -20439,30 +20953,30 @@
         <v>-40</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.69813170079773179</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.6580627893946129</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.5707963267948966</v>
       </c>
       <c r="K16" s="2">
         <v>2.4</v>
       </c>
       <c r="L16" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.9473684210526314E-2</v>
       </c>
       <c r="M16" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.5961234938959421E-3</v>
       </c>
       <c r="N16" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7524718414124473E-33</v>
       </c>
     </row>
@@ -20471,18 +20985,18 @@
         <v>25</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="C17" s="2">
         <v>79.2</v>
       </c>
       <c r="D17" s="2">
-        <f>C17/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.83193277310924374</v>
       </c>
-      <c r="E17" s="30">
-        <f t="shared" si="2"/>
+      <c r="E17" s="1">
+        <f t="shared" si="3"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="F17" s="10"/>
@@ -20490,30 +21004,30 @@
         <v>-50</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.87266462599716477</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.8325957145940461</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.7453292519943295</v>
       </c>
       <c r="K17" s="2">
         <v>4</v>
       </c>
       <c r="L17" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.5789473684210523E-2</v>
       </c>
       <c r="M17" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.6987298107780716E-2</v>
       </c>
       <c r="N17" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0153689607045793E-2</v>
       </c>
     </row>
@@ -20522,18 +21036,18 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3490658503988659</v>
       </c>
       <c r="C18" s="2">
         <v>73.599999999999994</v>
       </c>
       <c r="D18" s="2">
-        <f>C18/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.77310924369747891</v>
       </c>
-      <c r="E18" s="30">
-        <f t="shared" si="2"/>
+      <c r="E18" s="1">
+        <f t="shared" si="3"/>
         <v>0.6823529411764705</v>
       </c>
       <c r="F18" s="10"/>
@@ -20541,30 +21055,30 @@
         <v>-60</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.0471975511965976</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.0071286397934789</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.9198621771937625</v>
       </c>
       <c r="K18" s="2">
         <v>9.6</v>
       </c>
       <c r="L18" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.15789473684210525</v>
       </c>
       <c r="M18" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.17860619515673024</v>
       </c>
       <c r="N18" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11697777844051097</v>
       </c>
     </row>
@@ -20573,18 +21087,18 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26179938779914941</v>
       </c>
       <c r="C19" s="2">
         <v>66.400000000000006</v>
       </c>
       <c r="D19" s="2">
-        <f>C19/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.69747899159663873</v>
       </c>
-      <c r="E19" s="30">
-        <f t="shared" si="2"/>
+      <c r="E19" s="1">
+        <f t="shared" si="3"/>
         <v>0.57647058823529418</v>
       </c>
       <c r="F19" s="10"/>
@@ -20592,30 +21106,30 @@
         <v>-70</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.2217304763960306</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.1816615649929121</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.0943951023931953</v>
       </c>
       <c r="K19" s="2">
         <v>17.600000000000001</v>
       </c>
       <c r="L19" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.28947368421052633</v>
       </c>
       <c r="M19" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.32898992833716573</v>
       </c>
       <c r="N19" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.24999999999999978</v>
       </c>
     </row>
@@ -20624,18 +21138,18 @@
         <v>10</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17453292519943295</v>
       </c>
       <c r="C20" s="2">
         <v>60</v>
       </c>
       <c r="D20" s="2">
-        <f>C20/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.63025210084033612</v>
       </c>
-      <c r="E20" s="30">
-        <f t="shared" si="2"/>
+      <c r="E20" s="1">
+        <f t="shared" si="3"/>
         <v>0.48235294117647054</v>
       </c>
       <c r="F20" s="10"/>
@@ -20643,30 +21157,30 @@
         <v>-80</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.3962634015954636</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.3561944901923448</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.2689280275926285</v>
       </c>
       <c r="K20" s="2">
         <v>27.2</v>
       </c>
       <c r="L20" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44736842105263158</v>
       </c>
       <c r="M20" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.49999999999999989</v>
       </c>
       <c r="N20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.41317591116653485</v>
       </c>
     </row>
@@ -20675,18 +21189,18 @@
         <v>5</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7266462599716474E-2</v>
       </c>
       <c r="C21" s="2">
         <v>54.4</v>
       </c>
       <c r="D21" s="2">
-        <f>C21/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="E21" s="30">
-        <f t="shared" si="2"/>
+      <c r="E21" s="1">
+        <f t="shared" si="3"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="F21" s="10"/>
@@ -20694,30 +21208,30 @@
         <v>-90</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.5707963267948966</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.5307274153917776</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.4434609527920612</v>
       </c>
       <c r="K21" s="2">
         <v>37.6</v>
       </c>
       <c r="L21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.61842105263157898</v>
       </c>
       <c r="M21" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.671010071662834</v>
       </c>
       <c r="N21" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.58682408883346493</v>
       </c>
     </row>
@@ -20726,21 +21240,21 @@
         <v>0</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C22" s="2">
         <v>48</v>
       </c>
       <c r="D22" s="2">
-        <f>C22/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.50420168067226889</v>
       </c>
-      <c r="E22" s="30">
-        <f t="shared" si="2"/>
+      <c r="E22" s="1">
+        <f t="shared" si="3"/>
         <v>0.30588235294117649</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="27" t="s">
         <v>41</v>
       </c>
     </row>
@@ -20749,102 +21263,102 @@
         <v>-5</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8.7266462599716474E-2</v>
       </c>
       <c r="C23" s="2">
         <v>43.2</v>
       </c>
       <c r="D23" s="2">
-        <f>C23/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.45378151260504201</v>
       </c>
-      <c r="E23" s="30">
-        <f t="shared" si="2"/>
+      <c r="E23" s="1">
+        <f t="shared" si="3"/>
         <v>0.23529411764705888</v>
       </c>
-      <c r="J23" s="25"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>-10</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.17453292519943295</v>
       </c>
       <c r="C24" s="2">
         <v>36</v>
       </c>
       <c r="D24" s="2">
-        <f>C24/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.37815126050420167</v>
       </c>
-      <c r="E24" s="30">
-        <f t="shared" si="2"/>
+      <c r="E24" s="1">
+        <f t="shared" si="3"/>
         <v>0.12941176470588237</v>
       </c>
-      <c r="J24" s="25"/>
+      <c r="J24" s="27"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>-15</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.26179938779914941</v>
       </c>
       <c r="C25" s="2">
         <v>32.799999999999997</v>
       </c>
       <c r="D25" s="2">
-        <f>C25/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.34453781512605036</v>
       </c>
-      <c r="E25" s="30">
-        <f t="shared" si="2"/>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
         <v>8.2352941176470559E-2</v>
       </c>
-      <c r="J25" s="25"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>-20</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.3490658503988659</v>
       </c>
       <c r="C26" s="2">
         <v>30.4</v>
       </c>
       <c r="D26" s="2">
-        <f>C26/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.31932773109243695</v>
       </c>
-      <c r="E26" s="30">
-        <f t="shared" si="2"/>
+      <c r="E26" s="1">
+        <f t="shared" si="3"/>
         <v>4.7058823529411757E-2</v>
       </c>
-      <c r="J26" s="25"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>-25</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.43633231299858238</v>
       </c>
       <c r="C27" s="2">
         <v>28.4</v>
       </c>
       <c r="D27" s="2">
-        <f>C27/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.29831932773109243</v>
       </c>
-      <c r="E27" s="30">
-        <f t="shared" si="2"/>
+      <c r="E27" s="1">
+        <f t="shared" si="3"/>
         <v>1.7647058823529401E-2</v>
       </c>
     </row>
@@ -20853,24 +21367,24 @@
         <v>-30</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.52359877559829882</v>
       </c>
       <c r="C28" s="2">
         <v>27.2</v>
       </c>
       <c r="D28" s="2">
-        <f>C28/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="E28" s="30">
-        <f t="shared" si="2"/>
+      <c r="E28" s="1">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="26"/>
+      <c r="H28" s="28"/>
       <c r="I28" s="6">
         <f>(C11-C29)/(C11+C29)</f>
         <v>0.55555555555555558</v>
@@ -20882,18 +21396,18 @@
         <v>-35</v>
       </c>
       <c r="B29" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.6108652381980153</v>
       </c>
       <c r="C29" s="9">
         <v>27.2</v>
       </c>
       <c r="D29" s="2">
-        <f>C29/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="E29" s="30">
-        <f t="shared" si="2"/>
+      <c r="E29" s="1">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -20902,18 +21416,18 @@
         <v>-40</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.69813170079773179</v>
       </c>
       <c r="C30" s="2">
         <v>27.2</v>
       </c>
       <c r="D30" s="2">
-        <f>C30/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="E30" s="30">
-        <f t="shared" si="2"/>
+      <c r="E30" s="1">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -20922,18 +21436,18 @@
         <v>-45</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.78539816339744828</v>
       </c>
       <c r="C31" s="2">
         <v>28.4</v>
       </c>
       <c r="D31" s="2">
-        <f>C31/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.29831932773109243</v>
       </c>
-      <c r="E31" s="30">
-        <f t="shared" si="2"/>
+      <c r="E31" s="1">
+        <f t="shared" si="3"/>
         <v>1.7647058823529401E-2</v>
       </c>
     </row>
@@ -20942,18 +21456,18 @@
         <v>-50</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.87266462599716477</v>
       </c>
       <c r="C32" s="2">
         <v>29.6</v>
       </c>
       <c r="D32" s="2">
-        <f>C32/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.31092436974789917</v>
       </c>
-      <c r="E32" s="30">
-        <f t="shared" si="2"/>
+      <c r="E32" s="1">
+        <f t="shared" si="3"/>
         <v>3.5294117647058858E-2</v>
       </c>
     </row>
@@ -20962,18 +21476,18 @@
         <v>-55</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.95993108859688125</v>
       </c>
       <c r="C33" s="2">
         <v>32.799999999999997</v>
       </c>
       <c r="D33" s="2">
-        <f>C33/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.34453781512605036</v>
       </c>
-      <c r="E33" s="30">
-        <f t="shared" si="2"/>
+      <c r="E33" s="1">
+        <f t="shared" si="3"/>
         <v>8.2352941176470559E-2</v>
       </c>
     </row>
@@ -20982,18 +21496,18 @@
         <v>-60</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.0471975511965976</v>
       </c>
       <c r="C34" s="2">
         <v>36.799999999999997</v>
       </c>
       <c r="D34" s="2">
-        <f>C34/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.38655462184873945</v>
       </c>
-      <c r="E34" s="30">
-        <f t="shared" si="2"/>
+      <c r="E34" s="1">
+        <f t="shared" si="3"/>
         <v>0.14117647058823526</v>
       </c>
     </row>
@@ -21002,18 +21516,18 @@
         <v>-65</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.1344640137963142</v>
       </c>
       <c r="C35" s="2">
         <v>41.6</v>
       </c>
       <c r="D35" s="2">
-        <f>C35/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.43697478991596639</v>
       </c>
-      <c r="E35" s="30">
-        <f t="shared" si="2"/>
+      <c r="E35" s="1">
+        <f t="shared" si="3"/>
         <v>0.21176470588235297</v>
       </c>
     </row>
@@ -21022,18 +21536,18 @@
         <v>-70</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.2217304763960306</v>
       </c>
       <c r="C36" s="2">
         <v>47.6</v>
       </c>
       <c r="D36" s="2">
-        <f>C36/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E36" s="30">
-        <f t="shared" si="2"/>
+      <c r="E36" s="1">
+        <f t="shared" si="3"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
@@ -21042,18 +21556,18 @@
         <v>-75</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.3089969389957472</v>
       </c>
       <c r="C37" s="2">
         <v>52.8</v>
       </c>
       <c r="D37" s="2">
-        <f>C37/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.55462184873949572</v>
       </c>
-      <c r="E37" s="30">
-        <f t="shared" si="2"/>
+      <c r="E37" s="1">
+        <f t="shared" si="3"/>
         <v>0.37647058823529411</v>
       </c>
     </row>
@@ -21062,18 +21576,18 @@
         <v>-80</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.3962634015954636</v>
       </c>
       <c r="C38" s="2">
         <v>57.6</v>
       </c>
       <c r="D38" s="2">
-        <f>C38/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.60504201680672265</v>
       </c>
-      <c r="E38" s="30">
-        <f t="shared" si="2"/>
+      <c r="E38" s="1">
+        <f t="shared" si="3"/>
         <v>0.44705882352941179</v>
       </c>
     </row>
@@ -21082,18 +21596,18 @@
         <v>-85</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.4835298641951802</v>
       </c>
       <c r="C39" s="2">
         <v>64</v>
       </c>
       <c r="D39" s="2">
-        <f>C39/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.67226890756302515</v>
       </c>
-      <c r="E39" s="30">
-        <f t="shared" si="2"/>
+      <c r="E39" s="1">
+        <f t="shared" si="3"/>
         <v>0.54117647058823526</v>
       </c>
     </row>
@@ -21102,18 +21616,18 @@
         <v>-90</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.5707963267948966</v>
       </c>
       <c r="C40" s="2">
         <v>69.2</v>
       </c>
       <c r="D40" s="2">
-        <f>C40/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.72689075630252098</v>
       </c>
-      <c r="E40" s="30">
-        <f t="shared" si="2"/>
+      <c r="E40" s="1">
+        <f t="shared" si="3"/>
         <v>0.61764705882352944</v>
       </c>
     </row>
@@ -21122,73 +21636,76 @@
         <v>-95</v>
       </c>
       <c r="B41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.6580627893946132</v>
       </c>
       <c r="C41" s="2">
         <v>75.2</v>
       </c>
       <c r="D41" s="2">
-        <f>C41/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.78991596638655459</v>
       </c>
-      <c r="E41" s="30">
-        <f t="shared" si="2"/>
+      <c r="E41" s="1">
+        <f t="shared" si="3"/>
         <v>0.70588235294117652</v>
       </c>
-      <c r="Z41" s="20" t="s">
+      <c r="Z41" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="21">
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="23">
         <f>RSQ(L3:L21,M3:M21)</f>
         <v>0.97059649523454494</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="24"/>
     </row>
     <row r="52" spans="26:29" x14ac:dyDescent="0.3">
-      <c r="AA52" s="27" t="s">
+      <c r="AA52" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AB52" s="27"/>
-      <c r="AC52" s="27"/>
+      <c r="AB52" s="29"/>
+      <c r="AC52" s="29"/>
     </row>
     <row r="53" spans="26:29" x14ac:dyDescent="0.3">
-      <c r="AA53" s="27"/>
-      <c r="AB53" s="27"/>
-      <c r="AC53" s="27"/>
+      <c r="AA53" s="29"/>
+      <c r="AB53" s="29"/>
+      <c r="AC53" s="29"/>
     </row>
     <row r="54" spans="26:29" x14ac:dyDescent="0.3">
-      <c r="AA54" s="27"/>
-      <c r="AB54" s="27"/>
-      <c r="AC54" s="27"/>
+      <c r="AA54" s="29"/>
+      <c r="AB54" s="29"/>
+      <c r="AC54" s="29"/>
     </row>
     <row r="55" spans="26:29" x14ac:dyDescent="0.3">
-      <c r="AA55" s="27"/>
-      <c r="AB55" s="27"/>
-      <c r="AC55" s="27"/>
+      <c r="AA55" s="29"/>
+      <c r="AB55" s="29"/>
+      <c r="AC55" s="29"/>
     </row>
     <row r="58" spans="26:29" x14ac:dyDescent="0.3">
-      <c r="Z58" s="20" t="s">
+      <c r="Z58" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AA58" s="20"/>
-      <c r="AB58" s="21">
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="23">
         <f>RSQ(N3:N21,L3:L21)</f>
         <v>0.99949954907022054</v>
       </c>
     </row>
     <row r="59" spans="26:29" x14ac:dyDescent="0.3">
-      <c r="Z59" s="20"/>
-      <c r="AA59" s="20"/>
-      <c r="AB59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Z58:AA59"/>
+    <mergeCell ref="AB58:AB59"/>
+    <mergeCell ref="O2:P6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="J22:J26"/>
     <mergeCell ref="G1:N1"/>
@@ -21196,9 +21713,6 @@
     <mergeCell ref="AA52:AC55"/>
     <mergeCell ref="Z41:AA42"/>
     <mergeCell ref="AB41:AB42"/>
-    <mergeCell ref="Z58:AA59"/>
-    <mergeCell ref="AB58:AB59"/>
-    <mergeCell ref="O2:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21209,8 +21723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF3B386-072D-4DD8-952A-56344A1D5722}">
   <dimension ref="A1:AJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AK21" sqref="AK21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21219,13 +21733,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -21249,14 +21763,17 @@
       <c r="G2" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>-45</v>
       </c>
       <c r="B3" s="2">
-        <f>RADIANS(A3+5)</f>
-        <v>-0.69813170079773179</v>
+        <f>RADIANS(A3)</f>
+        <v>-0.78539816339744828</v>
       </c>
       <c r="C3" s="2">
         <v>37.6</v>
@@ -21267,15 +21784,19 @@
       </c>
       <c r="E3" s="2">
         <f>COS(B3)^2+COS(2*$V$13-B3)^2</f>
-        <v>1.3946548264962941</v>
+        <v>1.4330127018922196</v>
       </c>
       <c r="F3" s="1">
-        <f>(E3-AVERAGE(E$3:E$22))/(MAX(E$3:E$22)-MIN(E$3:E$22))</f>
-        <v>0.17680198597781371</v>
+        <f>(E3-MIN(E$3:E$22))/(MAX(E$3:E$22)-MIN(E$3:E$22))</f>
+        <v>0.75000000000000011</v>
       </c>
       <c r="G3" s="1">
-        <f>(C3-AVERAGE(C$3:C$22))/(MAX(C$3:C$22)-MIN(C$3:C$22))</f>
-        <v>0.30670731707317084</v>
+        <f>(C3-MIN(C$3:C$22))/(MAX(C$3:C$22)-MIN(C$3:C$22))</f>
+        <v>0.85365853658536595</v>
+      </c>
+      <c r="H3" s="1">
+        <f>E3/MAX(E$3:E$22)</f>
+        <v>0.76794919243112281</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
@@ -21283,8 +21804,8 @@
         <v>-35</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B22" si="0">RADIANS(A4+5)</f>
-        <v>-0.52359877559829882</v>
+        <f t="shared" ref="B4:B22" si="0">RADIANS(A4)</f>
+        <v>-0.6108652381980153</v>
       </c>
       <c r="C4" s="2">
         <v>40.4</v>
@@ -21294,16 +21815,20 @@
         <v>0.95283018867924529</v>
       </c>
       <c r="E4" s="2">
-        <f>COS(B4)^2+COS(2*$V$13-B4)^2</f>
-        <v>1.6740240480782131</v>
+        <f t="shared" ref="E4:E22" si="2">COS(B4)^2+COS(2*$V$13-B4)^2</f>
+        <v>1.6634139481689383</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F22" si="2">(E4-AVERAGE(E$3:E$22))/(MAX(E$3:E$22)-MIN(E$3:E$22))</f>
-        <v>0.32155582635283103</v>
+        <f t="shared" ref="F4:F22" si="3">(E4-MIN(E$3:E$22))/(MAX(E$3:E$22)-MIN(E$3:E$22))</f>
+        <v>0.88302222155948884</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G22" si="3">(C4-AVERAGE(C$3:C$22))/(MAX(C$3:C$22)-MIN(C$3:C$22))</f>
-        <v>0.39207317073170733</v>
+        <f t="shared" ref="G4:G22" si="4">(C4-MIN(C$3:C$22))/(MAX(C$3:C$22)-MIN(C$3:C$22))</f>
+        <v>0.93902439024390238</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H22" si="5">E4/MAX(E$3:E$22)</f>
+        <v>0.89142084818106471</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
@@ -21312,7 +21837,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
-        <v>-0.3490658503988659</v>
+        <v>-0.43633231299858238</v>
       </c>
       <c r="C5" s="2">
         <v>42.4</v>
@@ -21322,22 +21847,26 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <f>COS(B5)^2+COS(2*$V$13-B5)^2</f>
-        <v>1.8720960219263918</v>
+        <f t="shared" si="2"/>
+        <v>1.8137976813493737</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="2"/>
-        <v>0.42418588245862332</v>
+        <f t="shared" si="3"/>
+        <v>0.9698463103929541</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="3"/>
-        <v>0.45304878048780489</v>
-      </c>
-      <c r="T5" s="27" t="s">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.97201124790201499</v>
+      </c>
+      <c r="T5" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -21345,7 +21874,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
-        <v>-0.17453292519943295</v>
+        <v>-0.26179938779914941</v>
       </c>
       <c r="C6" s="2">
         <v>41.6</v>
@@ -21355,20 +21884,24 @@
         <v>0.98113207547169823</v>
       </c>
       <c r="E6" s="2">
-        <f>COS(B6)^2+COS(2*$V$13-B6)^2</f>
-        <v>1.9649803447637391</v>
+        <f t="shared" si="2"/>
+        <v>1.8660254037844388</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.47231345487051973</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="3"/>
-        <v>0.42865853658536596</v>
-      </c>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
+        <f t="shared" si="4"/>
+        <v>0.97560975609756106</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -21376,7 +21909,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-8.7266462599716474E-2</v>
       </c>
       <c r="C7" s="2">
         <v>39.200000000000003</v>
@@ -21387,19 +21920,23 @@
       </c>
       <c r="E7" s="2">
         <f>COS(B7)^2+COS(2*$V$13-B7)^2</f>
-        <v>1.9414737964294635</v>
+        <v>1.8137976813493737</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="2"/>
-        <v>0.46013364806832485</v>
+        <f t="shared" si="3"/>
+        <v>0.9698463103929541</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.35548780487804893</v>
-      </c>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
+        <f t="shared" si="4"/>
+        <v>0.90243902439024404</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.97201124790201499</v>
+      </c>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -21407,7 +21944,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>0.17453292519943295</v>
+        <v>8.7266462599716474E-2</v>
       </c>
       <c r="C8" s="2">
         <v>35.200000000000003</v>
@@ -21417,20 +21954,24 @@
         <v>0.83018867924528317</v>
       </c>
       <c r="E8" s="2">
-        <f>COS(B8)^2+COS(2*$V$13-B8)^2</f>
-        <v>1.8044116135723833</v>
+        <f t="shared" si="2"/>
+        <v>1.6634139481689387</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.38911552650718684</v>
+        <f t="shared" si="3"/>
+        <v>0.88302222155948917</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="3"/>
-        <v>0.23353658536585378</v>
-      </c>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
+        <f t="shared" si="4"/>
+        <v>0.78048780487804892</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.89142084818106504</v>
+      </c>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -21438,7 +21979,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>0.3490658503988659</v>
+        <v>0.26179938779914941</v>
       </c>
       <c r="C9" s="2">
         <v>30.4</v>
@@ -21448,20 +21989,24 @@
         <v>0.71698113207547165</v>
       </c>
       <c r="E9" s="2">
-        <f>COS(B9)^2+COS(2*$V$13-B9)^2</f>
-        <v>1.5703255182674449</v>
+        <f t="shared" si="2"/>
+        <v>1.4330127018922192</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="2"/>
-        <v>0.26782492376322586</v>
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="3"/>
-        <v>8.7195121951219506E-2</v>
-      </c>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
+        <f t="shared" si="4"/>
+        <v>0.63414634146341464</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.76794919243112258</v>
+      </c>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -21469,7 +22014,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>0.52359877559829882</v>
+        <v>0.43633231299858238</v>
       </c>
       <c r="C10" s="2">
         <v>24.8</v>
@@ -21479,16 +22024,20 @@
         <v>0.58490566037735847</v>
       </c>
       <c r="E10" s="2">
-        <f>COS(B10)^2+COS(2*$V$13-B10)^2</f>
-        <v>1.2674497483512508</v>
+        <f t="shared" si="2"/>
+        <v>1.1503837331804354</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="2"/>
-        <v>0.11089127658601383</v>
+        <f t="shared" si="3"/>
+        <v>0.58682408883346515</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="3"/>
-        <v>-8.3536585365853622E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.46341463414634154</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.61648878458319556</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
@@ -21497,7 +22046,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>0.69813170079773179</v>
+        <v>0.6108652381980153</v>
       </c>
       <c r="C11" s="2">
         <v>20</v>
@@ -21507,16 +22056,20 @@
         <v>0.47169811320754718</v>
       </c>
       <c r="E11" s="2">
-        <f>COS(B11)^2+COS(2*$V$13-B11)^2</f>
-        <v>0.93231559164599132</v>
+        <f t="shared" si="2"/>
+        <v>0.84961626681956492</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="2"/>
-        <v>-6.2756901080916791E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.41317591116653496</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.22987804878048779</v>
+        <f t="shared" si="4"/>
+        <v>0.31707317073170738</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.45530798514129533</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
@@ -21525,7 +22078,7 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>0.87266462599716477</v>
+        <v>0.78539816339744828</v>
       </c>
       <c r="C12" s="2">
         <v>14.4</v>
@@ -21535,22 +22088,26 @@
         <v>0.339622641509434</v>
       </c>
       <c r="E12" s="2">
-        <f>COS(B12)^2+COS(2*$V$13-B12)^2</f>
-        <v>0.60534517350370576</v>
+        <f t="shared" si="2"/>
+        <v>0.56698729810778081</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.23217507623677414</v>
+        <f t="shared" si="3"/>
+        <v>0.25000000000000011</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.400609756097561</v>
+        <f t="shared" si="4"/>
+        <v>0.14634146341463419</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.30384757729336814</v>
       </c>
       <c r="U12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="V12" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
@@ -21559,7 +22116,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>1.0471975511965976</v>
+        <v>0.95993108859688125</v>
       </c>
       <c r="C13" s="2">
         <v>11.2</v>
@@ -21569,16 +22126,20 @@
         <v>0.26415094339622641</v>
       </c>
       <c r="E13" s="2">
-        <f>COS(B13)^2+COS(2*$V$13-B13)^2</f>
-        <v>0.32597595192178719</v>
+        <f t="shared" si="2"/>
+        <v>0.33658605183106172</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.37692891661179123</v>
+        <f t="shared" si="3"/>
+        <v>0.11697777844051106</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.49817073170731713</v>
+        <f t="shared" si="4"/>
+        <v>4.8780487804878044E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="5"/>
+        <v>0.18037592154342597</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>48</v>
@@ -21591,7 +22152,7 @@
       </c>
       <c r="V13" s="2">
         <f>RADIANS(V12)</f>
-        <v>1.4486232791552935</v>
+        <v>1.3089969389957472</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
@@ -21600,7 +22161,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>1.2217304763960306</v>
+        <v>1.1344640137963142</v>
       </c>
       <c r="C14" s="2">
         <v>9.6</v>
@@ -21610,16 +22171,20 @@
         <v>0.22641509433962265</v>
       </c>
       <c r="E14" s="2">
-        <f>COS(B14)^2+COS(2*$V$13-B14)^2</f>
-        <v>0.12790397807360826</v>
+        <f t="shared" si="2"/>
+        <v>0.18620231865062631</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.47955897271758369</v>
+        <f t="shared" si="3"/>
+        <v>3.0153689607045824E-2</v>
       </c>
       <c r="G14" s="1">
-        <f>(C14-AVERAGE(C$3:C$22))/(MAX(C$3:C$22)-MIN(C$3:C$22))</f>
-        <v>-0.54695121951219505</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="5"/>
+        <v>9.9785521822475784E-2</v>
       </c>
       <c r="I14" s="1">
         <v>90</v>
@@ -21634,7 +22199,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>1.3962634015954636</v>
+        <v>1.3089969389957472</v>
       </c>
       <c r="C15" s="2">
         <v>10.4</v>
@@ -21644,16 +22209,20 @@
         <v>0.24528301886792456</v>
       </c>
       <c r="E15" s="2">
-        <f>COS(B15)^2+COS(2*$V$13-B15)^2</f>
-        <v>3.5019655236260661E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.13397459621556132</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.52768654512948021</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.52256097560975612</v>
+        <f t="shared" si="4"/>
+        <v>2.439024390243905E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="5"/>
+        <v>7.1796769724490797E-2</v>
       </c>
       <c r="I15" s="1">
         <v>5</v>
@@ -21661,17 +22230,17 @@
       <c r="J15" s="1">
         <v>45</v>
       </c>
-      <c r="AB15" s="27" t="s">
+      <c r="AB15" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="29"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -21679,7 +22248,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>1.5707963267948966</v>
+        <v>1.4835298641951802</v>
       </c>
       <c r="C16" s="2">
         <v>12.8</v>
@@ -21689,26 +22258,30 @@
         <v>0.30188679245283023</v>
       </c>
       <c r="E16" s="2">
-        <f>COS(B16)^2+COS(2*$V$13-B16)^2</f>
-        <v>5.8526203570536506E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.18620231865062631</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.51550673832728522</v>
+        <f t="shared" si="3"/>
+        <v>3.0153689607045824E-2</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.44939024390243903</v>
-      </c>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="27"/>
+        <f t="shared" si="4"/>
+        <v>9.7560975609756143E-2</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="5"/>
+        <v>9.9785521822475784E-2</v>
+      </c>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="29"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -21716,7 +22289,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>1.7453292519943295</v>
+        <v>1.6580627893946132</v>
       </c>
       <c r="C17" s="2">
         <v>16.8</v>
@@ -21726,33 +22299,37 @@
         <v>0.39622641509433965</v>
       </c>
       <c r="E17" s="2">
-        <f>COS(B17)^2+COS(2*$V$13-B17)^2</f>
-        <v>0.19558838642761667</v>
+        <f t="shared" si="2"/>
+        <v>0.33658605183106172</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.4444886167661472</v>
+        <f t="shared" si="3"/>
+        <v>0.11697777844051106</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.32743902439024386</v>
+        <f t="shared" si="4"/>
+        <v>0.21951219512195128</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="5"/>
+        <v>0.18037592154342597</v>
       </c>
       <c r="I17" s="1">
         <v>-90</v>
       </c>
       <c r="J17" s="1">
         <f>I17*$F$15+$G$15</f>
-        <v>46.969228086043465</v>
-      </c>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
+        <v>2.439024390243905E-2</v>
+      </c>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
@@ -21760,7 +22337,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>1.9198621771937625</v>
+        <v>1.8325957145940461</v>
       </c>
       <c r="C18" s="2">
         <v>22.4</v>
@@ -21770,33 +22347,37 @@
         <v>0.52830188679245282</v>
       </c>
       <c r="E18" s="2">
-        <f>COS(B18)^2+COS(2*$V$13-B18)^2</f>
-        <v>0.42967448173255496</v>
+        <f t="shared" si="2"/>
+        <v>0.56698729810778081</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.32319801402218629</v>
+        <f t="shared" si="3"/>
+        <v>0.25000000000000011</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.15670731707317076</v>
+        <f t="shared" si="4"/>
+        <v>0.3902439024390244</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="5"/>
+        <v>0.30384757729336814</v>
       </c>
       <c r="I18" s="1">
         <v>-80</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" ref="J18:J35" si="4">I18*$F$15+$G$15</f>
-        <v>41.692362634748662</v>
-      </c>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="27"/>
+        <f t="shared" ref="J18:J35" si="6">I18*$F$15+$G$15</f>
+        <v>2.439024390243905E-2</v>
+      </c>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -21804,7 +22385,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>2.0943951023931953</v>
+        <v>2.0071286397934789</v>
       </c>
       <c r="C19" s="2">
         <v>28</v>
@@ -21814,33 +22395,37 @@
         <v>0.66037735849056611</v>
       </c>
       <c r="E19" s="2">
-        <f>COS(B19)^2+COS(2*$V$13-B19)^2</f>
-        <v>0.7325502516487491</v>
+        <f t="shared" si="2"/>
+        <v>0.84961626681956448</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.16626436684497425</v>
+        <f t="shared" si="3"/>
+        <v>0.41317591116653468</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="3"/>
-        <v>1.4024390243902467E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.56097560975609762</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="5"/>
+        <v>0.45530798514129511</v>
       </c>
       <c r="I19" s="1">
         <v>-70</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="4"/>
-        <v>36.415497183453859</v>
-      </c>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="27"/>
+        <f t="shared" si="6"/>
+        <v>2.439024390243905E-2</v>
+      </c>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -21848,7 +22433,7 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>2.2689280275926285</v>
+        <v>2.1816615649929121</v>
       </c>
       <c r="C20" s="2">
         <v>33.6</v>
@@ -21858,33 +22443,37 @@
         <v>0.79245283018867929</v>
       </c>
       <c r="E20" s="2">
-        <f>COS(B20)^2+COS(2*$V$13-B20)^2</f>
-        <v>1.0676844083540087</v>
+        <f t="shared" si="2"/>
+        <v>1.1503837331804354</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="2"/>
-        <v>7.3838108219564129E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.58682408883346515</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="3"/>
-        <v>0.18475609756097569</v>
+        <f t="shared" si="4"/>
+        <v>0.73170731707317083</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="5"/>
+        <v>0.61648878458319556</v>
       </c>
       <c r="I20" s="1">
         <v>-60</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="4"/>
-        <v>31.138631732159055</v>
-      </c>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="27"/>
+        <f t="shared" si="6"/>
+        <v>2.439024390243905E-2</v>
+      </c>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -21892,7 +22481,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>2.4434609527920612</v>
+        <v>2.3561944901923448</v>
       </c>
       <c r="C21" s="2">
         <v>38.4</v>
@@ -21903,32 +22492,36 @@
       </c>
       <c r="E21" s="2">
         <f>COS(B21)^2+COS(2*$V$13-B21)^2</f>
-        <v>1.3946548264962939</v>
+        <v>1.4330127018922192</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1768019859778136</v>
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="3"/>
-        <v>0.33109756097560977</v>
+        <f t="shared" si="4"/>
+        <v>0.87804878048780488</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="5"/>
+        <v>0.76794919243112258</v>
       </c>
       <c r="I21" s="1">
         <v>-50</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="4"/>
-        <v>25.861766280864252</v>
-      </c>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="27"/>
-      <c r="AJ21" s="27"/>
+        <f t="shared" si="6"/>
+        <v>2.439024390243905E-2</v>
+      </c>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="29"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
@@ -21936,7 +22529,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>2.6179938779914944</v>
+        <v>2.530727415391778</v>
       </c>
       <c r="C22" s="2">
         <v>41.6</v>
@@ -21946,280 +22539,284 @@
         <v>0.98113207547169823</v>
       </c>
       <c r="E22" s="2">
-        <f>COS(B22)^2+COS(2*$V$13-B22)^2</f>
-        <v>1.6740240480782131</v>
+        <f t="shared" si="2"/>
+        <v>1.6634139481689387</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="2"/>
-        <v>0.32155582635283103</v>
+        <f t="shared" si="3"/>
+        <v>0.88302222155948917</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="3"/>
-        <v>0.42865853658536596</v>
+        <f t="shared" si="4"/>
+        <v>0.97560975609756106</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="5"/>
+        <v>0.89142084818106504</v>
       </c>
       <c r="I22" s="1">
         <v>-40</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="4"/>
-        <v>20.584900829569452</v>
-      </c>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="27"/>
-      <c r="AJ22" s="27"/>
+        <f t="shared" si="6"/>
+        <v>2.439024390243905E-2</v>
+      </c>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="I23" s="1">
         <v>-30</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="4"/>
-        <v>15.308035378274649</v>
-      </c>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="27"/>
+        <f t="shared" si="6"/>
+        <v>2.439024390243905E-2</v>
+      </c>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="29"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B24" s="1" cm="1">
         <f t="array" ref="B24:B43">COS(B3:B22)^2</f>
-        <v>0.58682408883346515</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="I24" s="1">
         <v>-20</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="4"/>
-        <v>10.031169926979848</v>
-      </c>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="27"/>
+        <f t="shared" si="6"/>
+        <v>2.439024390243905E-2</v>
+      </c>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
-        <v>0.75000000000000011</v>
+        <v>0.67101007166283433</v>
       </c>
       <c r="I25" s="1">
         <v>-10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="4"/>
-        <v>4.7543044756850463</v>
-      </c>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="27"/>
+        <f t="shared" si="6"/>
+        <v>2.439024390243905E-2</v>
+      </c>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="29"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
-        <v>0.88302222155948906</v>
+        <v>0.82139380484326963</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.52256097560975612</v>
-      </c>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="27"/>
-      <c r="AI26" s="27"/>
-      <c r="AJ26" s="27"/>
+        <f t="shared" si="6"/>
+        <v>2.439024390243905E-2</v>
+      </c>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="29"/>
+      <c r="AJ26" s="29"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
-        <v>0.9698463103929541</v>
+        <v>0.93301270189221941</v>
       </c>
       <c r="I27" s="1">
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="4"/>
-        <v>-5.7994264269045583</v>
-      </c>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="27"/>
-      <c r="AH27" s="27"/>
-      <c r="AI27" s="27"/>
-      <c r="AJ27" s="27"/>
+        <f t="shared" si="6"/>
+        <v>2.439024390243905E-2</v>
+      </c>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="29"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
-        <v>1</v>
+        <v>0.99240387650610407</v>
       </c>
       <c r="I28" s="1">
         <v>20</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="4"/>
-        <v>-11.076291878199362</v>
-      </c>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="27"/>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="27"/>
-      <c r="AI28" s="27"/>
-      <c r="AJ28" s="27"/>
+        <f t="shared" si="6"/>
+        <v>2.439024390243905E-2</v>
+      </c>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28" s="29"/>
+      <c r="AJ28" s="29"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
-        <v>0.9698463103929541</v>
+        <v>0.99240387650610407</v>
       </c>
       <c r="I29" s="1">
         <v>30</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="4"/>
-        <v>-16.353157329494163</v>
+        <f t="shared" si="6"/>
+        <v>2.439024390243905E-2</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
-        <v>0.88302222155948906</v>
+        <v>0.93301270189221941</v>
       </c>
       <c r="I30" s="1">
         <v>40</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="4"/>
-        <v>-21.630022780788966</v>
+        <f t="shared" si="6"/>
+        <v>2.439024390243905E-2</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
-        <v>0.75000000000000011</v>
+        <v>0.82139380484326963</v>
       </c>
       <c r="I31" s="1">
         <v>50</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="4"/>
-        <v>-26.906888232083766</v>
+        <f t="shared" si="6"/>
+        <v>2.439024390243905E-2</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
-        <v>0.58682408883346515</v>
+        <v>0.67101007166283433</v>
       </c>
       <c r="I32" s="1">
         <v>60</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="4"/>
-        <v>-32.183753683378569</v>
+        <f t="shared" si="6"/>
+        <v>2.439024390243905E-2</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
-        <v>0.41317591116653485</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="I33" s="1">
         <v>70</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="4"/>
-        <v>-37.460619134673372</v>
+        <f t="shared" si="6"/>
+        <v>2.439024390243905E-2</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
-        <v>0.25000000000000011</v>
+        <v>0.32898992833716573</v>
       </c>
       <c r="I34" s="1">
         <v>80</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="4"/>
-        <v>-42.737484585968176</v>
+        <f t="shared" si="6"/>
+        <v>2.439024390243905E-2</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
-        <v>0.11697777844051105</v>
+        <v>0.17860619515673035</v>
       </c>
       <c r="I35" s="1">
         <v>90</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="4"/>
-        <v>-48.014350037262979</v>
+        <f t="shared" si="6"/>
+        <v>2.439024390243905E-2</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
-        <v>3.0153689607045831E-2</v>
+        <v>6.698729810778066E-2</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
-        <v>3.7524718414124473E-33</v>
+        <v>7.5961234938959638E-3</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
-        <v>3.0153689607045793E-2</v>
+        <v>7.5961234938959812E-3</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
-        <v>0.11697777844051097</v>
+        <v>6.6987298107780716E-2</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
-        <v>0.24999999999999978</v>
+        <v>0.17860619515673024</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
-        <v>0.41317591116653485</v>
+        <v>0.32898992833716573</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
-        <v>0.58682408883346493</v>
+        <v>0.49999999999999989</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
-        <v>0.75000000000000011</v>
+        <v>0.67101007166283455</v>
       </c>
     </row>
   </sheetData>
@@ -22236,27 +22833,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5302B7-50F8-4784-AFBC-5E3A2AEE181A}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -22272,8 +22871,14 @@
       <c r="E2" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>-45</v>
       </c>
@@ -22289,16 +22894,28 @@
         <v>0.339622641509434</v>
       </c>
       <c r="E3" s="2">
-        <f>COS(B3)^2+COS(2*$H$10-B3)^2</f>
-        <v>0.93041344951996718</v>
-      </c>
-      <c r="G3" s="27" t="s">
+        <f>COS(B3)^2+COS(2*$L$10-B3)^2</f>
+        <v>0.67860619515673037</v>
+      </c>
+      <c r="F3" s="1">
+        <f>E3/MAX(E$3:E$22)</f>
+        <v>0.50566021570665254</v>
+      </c>
+      <c r="G3" s="1">
+        <f>(E3-MIN(E$3:E$22))/(MAX(E$3:E$22)-MIN(E$3:E$22))</f>
+        <v>3.0153689607046074E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <f>(C3-MIN(C$3:C$22))/(MAX(C$3:C$22)-MIN(C$3:C$22))</f>
+        <v>0.125</v>
+      </c>
+      <c r="K3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>-35</v>
       </c>
@@ -22314,14 +22931,26 @@
         <v>0.43396226415094336</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E22" si="2">COS(B4)^2+COS(2*$H$10-B4)^2</f>
-        <v>0.93627429026988906</v>
-      </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+        <f>COS(B4)^2+COS(2*$L$10-B4)^2</f>
+        <v>0.73799736977061492</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F22" si="2">E4/MAX(E$3:E$22)</f>
+        <v>0.54991527022968445</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G22" si="3">(E4-MIN(E$3:E$22))/(MAX(E$3:E$22)-MIN(E$3:E$22))</f>
+        <v>0.11697777844051101</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H22" si="4">(C4-MIN(C$3:C$22))/(MAX(C$3:C$22)-MIN(C$3:C$22))</f>
+        <v>0.24999999999999994</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>-25</v>
       </c>
@@ -22337,14 +22966,26 @@
         <v>0.57547169811320753</v>
       </c>
       <c r="E5" s="2">
+        <f>COS(B5)^2+COS(2*$L$10-B5)^2</f>
+        <v>0.82898992833716556</v>
+      </c>
+      <c r="F5" s="1">
         <f t="shared" si="2"/>
-        <v>0.9498213921045725</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+        <v>0.61771794742427666</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="4"/>
+        <v>0.43749999999999994</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>-15</v>
       </c>
@@ -22360,14 +23001,26 @@
         <v>0.68867924528301883</v>
       </c>
       <c r="E6" s="2">
+        <f>COS(B6)^2+COS(2*$L$10-B6)^2</f>
+        <v>0.94060882538611545</v>
+      </c>
+      <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>0.9694207746088257</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+        <v>0.70089024375981923</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.41317591116653524</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.58749999999999991</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>-5</v>
       </c>
@@ -22383,14 +23036,26 @@
         <v>0.820754716981132</v>
       </c>
       <c r="E7" s="2">
+        <f>COS(B7)^2+COS(2*$L$10-B7)^2</f>
+        <v>1.0593911746138849</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>0.99270846299655624</v>
-      </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+        <v>0.78940035280588328</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.5868240888334656</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -22406,11 +23071,23 @@
         <v>0.91509433962264153</v>
       </c>
       <c r="E8" s="2">
+        <f>COS(B8)^2+COS(2*$L$10-B8)^2</f>
+        <v>1.1710100716628344</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>1.0168756183585272</v>
+        <v>0.87257264914142563</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.75000000000000022</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.88749999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>15</v>
       </c>
@@ -22426,17 +23103,29 @@
         <v>0.98113207547169823</v>
       </c>
       <c r="E9" s="2">
+        <f>COS(B9)^2+COS(2*$L$10-B9)^2</f>
+        <v>1.2620026302293852</v>
+      </c>
+      <c r="F9" s="1">
         <f t="shared" si="2"/>
-        <v>1.0390073250888583</v>
-      </c>
-      <c r="G9" s="4" t="s">
+        <v>0.94037532633601795</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.88302222155948951</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.97500000000000009</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="2">
-        <v>43</v>
+      <c r="L9" s="2">
+        <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>25</v>
       </c>
@@ -22452,18 +23141,30 @@
         <v>1</v>
       </c>
       <c r="E10" s="2">
+        <f>COS(B10)^2+COS(2*$L$10-B10)^2</f>
+        <v>1.3213938048432698</v>
+      </c>
+      <c r="F10" s="1">
         <f t="shared" si="2"/>
-        <v>1.0564341727266671</v>
-      </c>
-      <c r="G10" s="4" t="s">
+        <v>0.98463038085904986</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96984631039295455</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="2">
-        <f>RADIANS(H9)</f>
-        <v>0.75049157835756175</v>
+      <c r="L10" s="2">
+        <f>RADIANS(L9)</f>
+        <v>0.6108652381980153</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>35</v>
       </c>
@@ -22479,11 +23180,23 @@
         <v>0.97169811320754729</v>
       </c>
       <c r="E11" s="2">
+        <f>COS(B11)^2+COS(2*$L$10-B11)^2</f>
+        <v>1.3420201433256687</v>
+      </c>
+      <c r="F11" s="1">
         <f t="shared" si="2"/>
-        <v>1.0670542262539546</v>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="4"/>
+        <v>0.96250000000000013</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45</v>
       </c>
@@ -22499,11 +23212,23 @@
         <v>0.90566037735849059</v>
       </c>
       <c r="E12" s="2">
+        <f>COS(B12)^2+COS(2*$L$10-B12)^2</f>
+        <v>1.3213938048432698</v>
+      </c>
+      <c r="F12" s="1">
         <f t="shared" si="2"/>
-        <v>1.0695865504800328</v>
+        <v>0.98463038085904986</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96984631039295455</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="4"/>
+        <v>0.875</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>55</v>
       </c>
@@ -22519,11 +23244,23 @@
         <v>0.79716981132075471</v>
       </c>
       <c r="E13" s="2">
+        <f>COS(B13)^2+COS(2*$L$10-B13)^2</f>
+        <v>1.2620026302293852</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="2"/>
-        <v>1.0637257097301109</v>
+        <v>0.94037532633601795</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="3"/>
+        <v>0.88302222155948951</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="4"/>
+        <v>0.73124999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>65</v>
       </c>
@@ -22539,11 +23276,23 @@
         <v>0.679245283018868</v>
       </c>
       <c r="E14" s="2">
+        <f>COS(B14)^2+COS(2*$L$10-B14)^2</f>
+        <v>1.1710100716628344</v>
+      </c>
+      <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>1.0501786078954274</v>
+        <v>0.87257264914142563</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.75000000000000022</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="4"/>
+        <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>75</v>
       </c>
@@ -22559,11 +23308,23 @@
         <v>0.54716981132075471</v>
       </c>
       <c r="E15" s="2">
+        <f>COS(B15)^2+COS(2*$L$10-B15)^2</f>
+        <v>1.0593911746138847</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="2"/>
-        <v>1.0305792253911743</v>
+        <v>0.78940035280588317</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.58682408883346526</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>85</v>
       </c>
@@ -22579,11 +23340,23 @@
         <v>0.41509433962264158</v>
       </c>
       <c r="E16" s="2">
+        <f>COS(B16)^2+COS(2*$L$10-B16)^2</f>
+        <v>0.94060882538611512</v>
+      </c>
+      <c r="F16" s="1">
         <f t="shared" si="2"/>
-        <v>1.0072915370034439</v>
+        <v>0.70089024375981901</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="3"/>
+        <v>0.41317591116653474</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="4"/>
+        <v>0.22500000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>95</v>
       </c>
@@ -22599,11 +23372,23 @@
         <v>0.33018867924528306</v>
       </c>
       <c r="E17" s="2">
+        <f>COS(B17)^2+COS(2*$L$10-B17)^2</f>
+        <v>0.82898992833716556</v>
+      </c>
+      <c r="F17" s="1">
         <f t="shared" si="2"/>
-        <v>0.98312438164147276</v>
+        <v>0.61771794742427666</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.11249999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>105</v>
       </c>
@@ -22619,11 +23404,23 @@
         <v>0.26415094339622641</v>
       </c>
       <c r="E18" s="2">
+        <f>COS(B18)^2+COS(2*$L$10-B18)^2</f>
+        <v>0.73799736977061492</v>
+      </c>
+      <c r="F18" s="1">
         <f t="shared" si="2"/>
-        <v>0.96099267491114171</v>
+        <v>0.54991527022968445</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11697777844051101</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4999999999999967E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>115</v>
       </c>
@@ -22639,11 +23436,23 @@
         <v>0.24528301886792456</v>
       </c>
       <c r="E19" s="2">
+        <f>COS(B19)^2+COS(2*$L$10-B19)^2</f>
+        <v>0.67860619515673037</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>0.94356582727333282</v>
+        <v>0.50566021570665254</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0153689607046074E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>125</v>
       </c>
@@ -22659,11 +23468,23 @@
         <v>0.26415094339622641</v>
       </c>
       <c r="E20" s="2">
+        <f>COS(B20)^2+COS(2*$L$10-B20)^2</f>
+        <v>0.65797985667433112</v>
+      </c>
+      <c r="F20" s="1">
         <f t="shared" si="2"/>
-        <v>0.93294577374604537</v>
+        <v>0.49029059656570212</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4999999999999967E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>135</v>
       </c>
@@ -22679,11 +23500,23 @@
         <v>0.339622641509434</v>
       </c>
       <c r="E21" s="2">
+        <f>COS(B21)^2+COS(2*$L$10-B21)^2</f>
+        <v>0.67860619515673026</v>
+      </c>
+      <c r="F21" s="1">
         <f t="shared" si="2"/>
-        <v>0.93041344951996729</v>
+        <v>0.50566021570665243</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0153689607045911E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>145</v>
       </c>
@@ -22699,14 +23532,26 @@
         <v>0.45283018867924529</v>
       </c>
       <c r="E22" s="2">
+        <f>COS(B22)^2+COS(2*$L$10-B22)^2</f>
+        <v>0.73799736977061514</v>
+      </c>
+      <c r="F22" s="1">
         <f t="shared" si="2"/>
-        <v>0.93627429026988906</v>
+        <v>0.54991527022968456</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11697777844051133</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="4"/>
+        <v>0.27499999999999997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G3:I7"/>
+    <mergeCell ref="K3:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22717,8 +23562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD30DFD-D638-43EC-8030-F74C3758638B}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AM11" sqref="AM11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22794,12 +23639,12 @@
         <f>C2-C25</f>
         <v>0.7</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="M2" s="4" t="s">
         <v>20</v>
       </c>
@@ -23340,12 +24185,12 @@
       <c r="C23" s="1">
         <v>3.2399999999999986E-6</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
       <c r="M23" s="4" t="s">
         <v>19</v>
       </c>
